--- a/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
+++ b/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODING\CrackYourInternship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D752E27-098A-47C5-8830-A0717CEB16DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E9F0D2-CABF-4F2A-A911-8010C1879A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="326">
   <si>
     <r>
       <rPr>
@@ -198,27 +198,6 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>https://leetcode.com/problems/find-the-duplicate-number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>https://leetcode.com/problems/sort-colors</t>
     </r>
     <r>
@@ -255,137 +234,11 @@
   <si>
     <r>
       <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/two-sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="7"/>
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
       <t>Medium</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/subarray-sums-divisible-by-k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/find-all-duplicates-in-an-array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/container-with-most-water</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/3sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
     </r>
   </si>
   <si>
@@ -6072,6 +5925,33 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-duplicate-number/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum/</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarray-sums-divisible-by-k/</t>
+  </si>
+  <si>
+    <t>understand</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-all-duplicates-in-an-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/container-with-most-water/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/3sum/</t>
   </si>
 </sst>
 </file>
@@ -6372,10 +6252,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6384,25 +6282,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6712,8 +6592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="153" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6769,7 +6649,9 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="5" t="s">
@@ -6809,11 +6691,11 @@
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>320</v>
+      <c r="C6" s="17" t="s">
+        <v>313</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -6828,11 +6710,11 @@
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>321</v>
+      <c r="C7" s="17" t="s">
+        <v>314</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>12</v>
@@ -6851,11 +6733,11 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>323</v>
+      <c r="C8" s="17" t="s">
+        <v>316</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>12</v>
@@ -6885,10 +6767,12 @@
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="C10" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
@@ -6903,9 +6787,11 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -6920,9 +6806,11 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -6930,14 +6818,18 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
       <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2"/>
+      <c r="C13" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -6945,14 +6837,18 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
       <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="C14" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="10" t="s">
@@ -6962,14 +6858,18 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
       <c r="B15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -6977,14 +6877,18 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
       <c r="B16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -6994,14 +6898,18 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
       <c r="B17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="10" t="s">
         <v>12</v>
@@ -7013,12 +6921,14 @@
     <row r="18" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="E18" s="11" t="s">
         <v>12</v>
       </c>
@@ -7030,10 +6940,10 @@
     <row r="19" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -7047,10 +6957,10 @@
     <row r="20" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -7064,10 +6974,10 @@
     <row r="21" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -7081,10 +6991,10 @@
     <row r="22" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -7096,10 +7006,10 @@
     <row r="23" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -7111,10 +7021,10 @@
     <row r="24" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -7126,10 +7036,10 @@
     <row r="25" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -7141,10 +7051,10 @@
     <row r="26" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -7156,10 +7066,10 @@
     <row r="27" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -7173,12 +7083,12 @@
     <row r="28" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="22"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="10" t="s">
@@ -7190,10 +7100,10 @@
     <row r="29" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -7207,10 +7117,10 @@
     <row r="30" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -7224,10 +7134,10 @@
     <row r="31" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -7239,10 +7149,10 @@
     <row r="32" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -7254,10 +7164,10 @@
     <row r="33" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -7292,7 +7202,7 @@
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -7307,7 +7217,7 @@
         <v>11</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -7324,7 +7234,7 @@
         <v>11</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -7339,7 +7249,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -7356,7 +7266,7 @@
         <v>11</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -7371,7 +7281,7 @@
         <v>11</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="11" t="s">
@@ -7387,10 +7297,10 @@
     <row r="42" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="11" t="s">
@@ -7404,10 +7314,10 @@
     <row r="43" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -7421,10 +7331,10 @@
     <row r="44" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="10" t="s">
@@ -7438,12 +7348,12 @@
     <row r="45" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="26"/>
       <c r="E45" s="7" t="s">
         <v>12</v>
       </c>
@@ -7455,10 +7365,10 @@
     <row r="46" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="10" t="s">
@@ -7472,10 +7382,10 @@
     <row r="47" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -7489,10 +7399,10 @@
     <row r="48" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -7504,10 +7414,10 @@
     <row r="49" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -7521,10 +7431,10 @@
     <row r="50" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -7536,10 +7446,10 @@
     <row r="51" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -7553,10 +7463,10 @@
     <row r="52" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -7568,10 +7478,10 @@
     <row r="53" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -7585,10 +7495,10 @@
     <row r="54" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -7600,10 +7510,10 @@
     <row r="55" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -7617,10 +7527,10 @@
     <row r="56" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -7644,7 +7554,7 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -7656,10 +7566,10 @@
     <row r="59" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -7671,10 +7581,10 @@
     <row r="60" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -7686,10 +7596,10 @@
     <row r="61" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -7701,10 +7611,10 @@
     <row r="62" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -7718,10 +7628,10 @@
     <row r="63" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -7749,7 +7659,7 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -7764,7 +7674,7 @@
         <v>11</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -7779,7 +7689,7 @@
         <v>11</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -7794,7 +7704,7 @@
         <v>11</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -7809,7 +7719,7 @@
         <v>11</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -7824,7 +7734,7 @@
         <v>11</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -7841,7 +7751,7 @@
         <v>11</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -7856,7 +7766,7 @@
         <v>11</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="10" t="s">
@@ -7873,7 +7783,7 @@
         <v>11</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -7888,7 +7798,7 @@
         <v>11</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -7900,10 +7810,10 @@
     <row r="75" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -7915,10 +7825,10 @@
     <row r="76" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -7932,10 +7842,10 @@
     <row r="77" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -7959,7 +7869,7 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -7975,11 +7885,11 @@
       <c r="B80" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="23"/>
+      <c r="C80" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" s="27"/>
+      <c r="E80" s="24"/>
       <c r="F80" s="2"/>
       <c r="G80" s="11" t="s">
         <v>12</v>
@@ -7993,7 +7903,7 @@
         <v>11</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -8007,10 +7917,10 @@
       <c r="B82" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D82" s="23"/>
+      <c r="C82" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D82" s="24"/>
       <c r="E82" s="2"/>
       <c r="F82" s="11" t="s">
         <v>12</v>
@@ -8027,7 +7937,7 @@
         <v>11</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -8039,12 +7949,12 @@
     <row r="84" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" s="23"/>
+        <v>16</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D84" s="24"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -8054,10 +7964,10 @@
     <row r="85" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="8" t="s">
@@ -8071,10 +7981,10 @@
     <row r="86" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -8086,12 +7996,12 @@
     <row r="87" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D87" s="23"/>
+        <v>16</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D87" s="24"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -8103,10 +8013,10 @@
     <row r="88" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -8118,12 +8028,12 @@
     <row r="89" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D89" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D89" s="22"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="11" t="s">
@@ -8135,10 +8045,10 @@
     <row r="90" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -8150,10 +8060,10 @@
     <row r="91" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -8167,10 +8077,10 @@
     <row r="92" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -8184,12 +8094,12 @@
     <row r="93" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D93" s="23"/>
+        <v>28</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D93" s="24"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -8199,10 +8109,10 @@
     <row r="94" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -8228,7 +8138,7 @@
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -8243,7 +8153,7 @@
         <v>11</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -8258,7 +8168,7 @@
         <v>11</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="11" t="s">
@@ -8275,7 +8185,7 @@
         <v>11</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -8292,7 +8202,7 @@
         <v>11</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -8307,7 +8217,7 @@
         <v>11</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -8322,7 +8232,7 @@
         <v>11</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -8339,7 +8249,7 @@
         <v>11</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -8358,7 +8268,7 @@
         <v>11</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -8373,7 +8283,7 @@
         <v>11</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -8389,11 +8299,11 @@
       <c r="B106" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C106" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D106" s="25"/>
-      <c r="E106" s="26"/>
+      <c r="C106" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D106" s="20"/>
+      <c r="E106" s="19"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -8405,7 +8315,7 @@
         <v>11</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -8421,10 +8331,10 @@
     <row r="108" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -8436,10 +8346,10 @@
     <row r="109" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -8451,10 +8361,10 @@
     <row r="110" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -8468,10 +8378,10 @@
     <row r="111" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -8483,10 +8393,10 @@
     <row r="112" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -8498,10 +8408,10 @@
     <row r="113" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -8515,10 +8425,10 @@
     <row r="114" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -8532,10 +8442,10 @@
     <row r="115" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -8547,10 +8457,10 @@
     <row r="116" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -8562,10 +8472,10 @@
     <row r="117" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -8577,10 +8487,10 @@
     <row r="118" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -8592,10 +8502,10 @@
     <row r="119" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -8609,10 +8519,10 @@
     <row r="120" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -8626,10 +8536,10 @@
     <row r="121" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -8641,10 +8551,10 @@
     <row r="122" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -8668,7 +8578,7 @@
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="16" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -8683,7 +8593,7 @@
         <v>11</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -8698,7 +8608,7 @@
         <v>11</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="7" t="s">
@@ -8715,7 +8625,7 @@
         <v>11</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -8734,7 +8644,7 @@
         <v>11</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -8749,7 +8659,7 @@
         <v>11</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -8766,7 +8676,7 @@
         <v>11</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -8778,10 +8688,10 @@
     <row r="131" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -8793,12 +8703,12 @@
     <row r="132" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C132" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D132" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D132" s="22"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -8810,10 +8720,10 @@
     <row r="133" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="7" t="s">
@@ -8827,10 +8737,10 @@
     <row r="134" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -8844,10 +8754,10 @@
     <row r="135" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -8861,10 +8771,10 @@
     <row r="136" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -8876,10 +8786,10 @@
     <row r="137" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="7" t="s">
@@ -8893,10 +8803,10 @@
     <row r="138" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -8908,12 +8818,12 @@
     <row r="139" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C139" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D139" s="26"/>
+        <v>28</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D139" s="19"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="7" t="s">
@@ -8927,10 +8837,10 @@
     <row r="140" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -8944,10 +8854,10 @@
     <row r="141" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -8973,7 +8883,7 @@
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="16" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -8988,7 +8898,7 @@
         <v>11</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -9003,7 +8913,7 @@
         <v>11</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -9020,7 +8930,7 @@
         <v>11</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -9039,7 +8949,7 @@
         <v>11</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -9054,7 +8964,7 @@
         <v>11</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>12</v>
@@ -9073,7 +8983,7 @@
         <v>11</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -9088,7 +8998,7 @@
         <v>11</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -9103,7 +9013,7 @@
         <v>11</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -9118,7 +9028,7 @@
         <v>11</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -9137,7 +9047,7 @@
         <v>11</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -9152,7 +9062,7 @@
         <v>11</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>12</v>
@@ -9169,7 +9079,7 @@
         <v>11</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -9184,7 +9094,7 @@
         <v>11</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -9199,7 +9109,7 @@
         <v>11</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -9218,7 +9128,7 @@
         <v>11</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -9235,7 +9145,7 @@
         <v>11</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -9250,7 +9160,7 @@
         <v>11</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -9265,7 +9175,7 @@
         <v>11</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -9277,10 +9187,10 @@
     <row r="162" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -9292,10 +9202,10 @@
     <row r="163" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -9307,10 +9217,10 @@
     <row r="164" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -9322,10 +9232,10 @@
     <row r="165" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -9339,10 +9249,10 @@
     <row r="166" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="7" t="s">
@@ -9356,10 +9266,10 @@
     <row r="167" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -9371,10 +9281,10 @@
     <row r="168" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -9386,10 +9296,10 @@
     <row r="169" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -9401,10 +9311,10 @@
     <row r="170" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -9418,12 +9328,12 @@
     <row r="171" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C171" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="D171" s="26"/>
+        <v>16</v>
+      </c>
+      <c r="C171" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D171" s="19"/>
       <c r="E171" s="2"/>
       <c r="F171" s="6" t="s">
         <v>12</v>
@@ -9437,10 +9347,10 @@
     <row r="172" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="7" t="s">
@@ -9458,10 +9368,10 @@
     <row r="173" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -9475,10 +9385,10 @@
     <row r="174" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -9496,10 +9406,10 @@
     <row r="175" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -9511,10 +9421,10 @@
     <row r="176" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -9526,12 +9436,12 @@
     <row r="177" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C177" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D177" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="C177" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D177" s="22"/>
       <c r="E177" s="2"/>
       <c r="F177" s="6" t="s">
         <v>12</v>
@@ -9543,10 +9453,10 @@
     <row r="178" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="7" t="s">
@@ -9560,10 +9470,10 @@
     <row r="179" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -9577,12 +9487,12 @@
     <row r="180" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C180" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D180" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="C180" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D180" s="22"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
@@ -9592,10 +9502,10 @@
     <row r="181" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -9611,10 +9521,10 @@
     <row r="182" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -9626,10 +9536,10 @@
     <row r="183" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -9643,10 +9553,10 @@
     <row r="184" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -9660,10 +9570,10 @@
     <row r="185" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -9679,10 +9589,10 @@
     <row r="186" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -9696,10 +9606,10 @@
     <row r="187" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -9713,10 +9623,10 @@
     <row r="188" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -9730,10 +9640,10 @@
     <row r="189" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -9745,10 +9655,10 @@
     <row r="190" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -9762,10 +9672,10 @@
     <row r="191" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -9789,7 +9699,7 @@
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -9804,7 +9714,7 @@
         <v>11</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -9821,7 +9731,7 @@
         <v>11</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="7" t="s">
@@ -9838,7 +9748,7 @@
         <v>11</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -9853,7 +9763,7 @@
         <v>11</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -9870,7 +9780,7 @@
         <v>11</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -9885,7 +9795,7 @@
         <v>11</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -9900,7 +9810,7 @@
         <v>11</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -9912,10 +9822,10 @@
     <row r="201" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="7" t="s">
@@ -9929,10 +9839,10 @@
     <row r="202" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="7" t="s">
@@ -9946,10 +9856,10 @@
     <row r="203" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="7" t="s">
@@ -9963,10 +9873,10 @@
     <row r="204" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="7" t="s">
@@ -9982,10 +9892,10 @@
     <row r="205" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -9997,12 +9907,12 @@
     <row r="206" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C206" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="D206" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="C206" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D206" s="22"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
@@ -10012,10 +9922,10 @@
     <row r="207" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="7" t="s">
@@ -10029,25 +9939,25 @@
     <row r="208" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C208" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="D208" s="25"/>
-      <c r="E208" s="25"/>
-      <c r="F208" s="25"/>
-      <c r="G208" s="25"/>
-      <c r="H208" s="26"/>
+        <v>16</v>
+      </c>
+      <c r="C208" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D208" s="20"/>
+      <c r="E208" s="20"/>
+      <c r="F208" s="20"/>
+      <c r="G208" s="20"/>
+      <c r="H208" s="19"/>
       <c r="I208" s="2"/>
     </row>
     <row r="209" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -10059,10 +9969,10 @@
     <row r="210" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -10074,13 +9984,13 @@
     <row r="211" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C211" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="D211" s="25"/>
-      <c r="E211" s="26"/>
+        <v>16</v>
+      </c>
+      <c r="C211" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D211" s="20"/>
+      <c r="E211" s="19"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
@@ -10089,13 +9999,13 @@
     <row r="212" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C212" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="D212" s="25"/>
-      <c r="E212" s="26"/>
+        <v>16</v>
+      </c>
+      <c r="C212" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D212" s="20"/>
+      <c r="E212" s="19"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
@@ -10104,10 +10014,10 @@
     <row r="213" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -10121,10 +10031,10 @@
     <row r="214" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -10136,10 +10046,10 @@
     <row r="215" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -10151,10 +10061,10 @@
     <row r="216" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -10166,10 +10076,10 @@
     <row r="217" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -10183,10 +10093,10 @@
     <row r="218" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
       <c r="B218" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -10202,10 +10112,10 @@
     <row r="219" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -10217,10 +10127,10 @@
     <row r="220" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
       <c r="B220" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -10232,10 +10142,10 @@
     <row r="221" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
       <c r="B221" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="7" t="s">
@@ -10249,10 +10159,10 @@
     <row r="222" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
       <c r="B222" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -10264,10 +10174,10 @@
     <row r="223" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
       <c r="B223" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -10283,10 +10193,10 @@
     <row r="224" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
       <c r="B224" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -10300,10 +10210,10 @@
     <row r="225" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -10313,16 +10223,16 @@
       </c>
       <c r="H225" s="2"/>
       <c r="I225" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
       <c r="B226" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -10334,10 +10244,10 @@
     <row r="227" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
       <c r="B227" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -10355,10 +10265,10 @@
     <row r="228" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="B228" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -10370,10 +10280,10 @@
     <row r="229" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
       <c r="B229" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -10385,12 +10295,12 @@
     <row r="230" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="B230" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C230" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="D230" s="26"/>
+        <v>28</v>
+      </c>
+      <c r="C230" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="D230" s="19"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
@@ -10412,7 +10322,7 @@
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -10424,10 +10334,10 @@
     <row r="233" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
       <c r="B233" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -10439,10 +10349,10 @@
     <row r="234" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
       <c r="B234" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="7" t="s">
@@ -10456,10 +10366,10 @@
     <row r="235" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
       <c r="B235" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="7" t="s">
@@ -10473,10 +10383,10 @@
     <row r="236" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
       <c r="B236" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="7" t="s">
@@ -10490,10 +10400,10 @@
     <row r="237" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
       <c r="B237" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="7" t="s">
@@ -10507,10 +10417,10 @@
     <row r="238" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
       <c r="B238" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -10534,7 +10444,7 @@
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -10557,10 +10467,10 @@
     <row r="242" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
       <c r="B242" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -10572,10 +10482,10 @@
     <row r="243" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -10587,10 +10497,10 @@
     <row r="244" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="B244" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -10602,10 +10512,10 @@
     <row r="245" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
       <c r="B245" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -10617,10 +10527,10 @@
     <row r="246" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="B246" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -10632,10 +10542,10 @@
     <row r="247" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="B247" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -10647,10 +10557,10 @@
     <row r="248" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
       <c r="B248" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C248" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>242</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -10662,12 +10572,12 @@
     <row r="249" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C249" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D249" s="26"/>
+        <v>228</v>
+      </c>
+      <c r="C249" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D249" s="19"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
@@ -10677,10 +10587,10 @@
     <row r="250" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
       <c r="B250" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -10694,10 +10604,10 @@
     <row r="251" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="B251" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -10709,10 +10619,10 @@
     <row r="252" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
       <c r="B252" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -10724,10 +10634,10 @@
     <row r="253" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
       <c r="B253" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" s="7" t="s">
@@ -10741,10 +10651,10 @@
     <row r="254" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
       <c r="B254" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -10756,10 +10666,10 @@
     <row r="255" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
       <c r="B255" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -10783,7 +10693,7 @@
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="6" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -10798,7 +10708,7 @@
         <v>11</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -10813,7 +10723,7 @@
         <v>11</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -10830,7 +10740,7 @@
         <v>11</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -10847,7 +10757,7 @@
         <v>11</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -10861,10 +10771,10 @@
     <row r="262" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
       <c r="B262" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -10876,10 +10786,10 @@
     <row r="263" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
       <c r="B263" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -10891,10 +10801,10 @@
     <row r="264" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
       <c r="B264" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="7" t="s">
@@ -10908,10 +10818,10 @@
     <row r="265" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
       <c r="B265" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" s="7" t="s">
@@ -10925,10 +10835,10 @@
     <row r="266" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
       <c r="B266" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -10942,10 +10852,10 @@
     <row r="267" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
       <c r="B267" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="7" t="s">
@@ -10961,10 +10871,10 @@
     <row r="268" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
       <c r="B268" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -10978,10 +10888,10 @@
     <row r="269" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
       <c r="B269" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -10993,10 +10903,10 @@
     <row r="270" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
       <c r="B270" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -11010,10 +10920,10 @@
     <row r="271" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
       <c r="B271" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -11027,10 +10937,10 @@
     <row r="272" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
       <c r="B272" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -11042,10 +10952,10 @@
     <row r="273" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
       <c r="B273" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -11057,10 +10967,10 @@
     <row r="274" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
       <c r="B274" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -11072,10 +10982,10 @@
     <row r="275" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -11087,10 +10997,10 @@
     <row r="276" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -11104,10 +11014,10 @@
     <row r="277" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
       <c r="B277" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -11119,10 +11029,10 @@
     <row r="278" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
       <c r="B278" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -11134,10 +11044,10 @@
     <row r="279" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
       <c r="B279" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -11151,10 +11061,10 @@
     <row r="280" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
       <c r="B280" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -11166,12 +11076,12 @@
     <row r="281" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
       <c r="B281" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C281" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="D281" s="26"/>
+        <v>28</v>
+      </c>
+      <c r="C281" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="D281" s="19"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
@@ -11183,10 +11093,10 @@
     <row r="282" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="B282" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="7" t="s">
@@ -11200,10 +11110,10 @@
     <row r="283" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
       <c r="B283" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" s="7" t="s">
@@ -11217,10 +11127,10 @@
     <row r="284" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
       <c r="B284" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" s="7" t="s">
@@ -11234,10 +11144,10 @@
     <row r="285" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2"/>
       <c r="B285" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="7" t="s">
@@ -11251,10 +11161,10 @@
     <row r="286" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="2"/>
       <c r="B286" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -11266,10 +11176,10 @@
     <row r="287" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
       <c r="B287" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -11295,7 +11205,7 @@
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="8" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -11307,10 +11217,10 @@
     <row r="290" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2"/>
       <c r="B290" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -11324,10 +11234,10 @@
     <row r="291" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="2"/>
       <c r="B291" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -11339,10 +11249,10 @@
     <row r="292" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
       <c r="B292" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -11377,7 +11287,7 @@
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="8" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -11389,10 +11299,10 @@
     <row r="296" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
       <c r="B296" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -11404,13 +11314,13 @@
     <row r="297" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
       <c r="B297" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C297" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="D297" s="25"/>
-      <c r="E297" s="26"/>
+        <v>228</v>
+      </c>
+      <c r="C297" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="D297" s="20"/>
+      <c r="E297" s="19"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
@@ -11419,10 +11329,10 @@
     <row r="298" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
       <c r="B298" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -11436,10 +11346,10 @@
     <row r="299" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2"/>
       <c r="B299" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -11451,12 +11361,12 @@
     <row r="300" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2"/>
       <c r="B300" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C300" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="D300" s="26"/>
+        <v>228</v>
+      </c>
+      <c r="C300" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="D300" s="19"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
@@ -11468,10 +11378,10 @@
     <row r="301" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
       <c r="B301" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -11485,10 +11395,10 @@
     <row r="302" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
       <c r="B302" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -11502,10 +11412,10 @@
     <row r="303" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2"/>
       <c r="B303" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -11519,10 +11429,10 @@
     <row r="304" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2"/>
       <c r="B304" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -11534,10 +11444,10 @@
     <row r="305" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2"/>
       <c r="B305" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -11574,7 +11484,7 @@
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="16" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -11586,10 +11496,10 @@
     <row r="309" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2"/>
       <c r="B309" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -11601,10 +11511,10 @@
     <row r="310" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="2"/>
       <c r="B310" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -11616,10 +11526,10 @@
     <row r="311" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2"/>
       <c r="B311" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>12</v>
@@ -11635,10 +11545,10 @@
     <row r="312" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2"/>
       <c r="B312" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -11650,10 +11560,10 @@
     <row r="313" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="2"/>
       <c r="B313" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -11665,10 +11575,10 @@
     <row r="314" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="2"/>
       <c r="B314" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -11680,10 +11590,10 @@
     <row r="315" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="2"/>
       <c r="B315" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -11697,10 +11607,10 @@
     <row r="316" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="2"/>
       <c r="B316" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -11712,10 +11622,10 @@
     <row r="317" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="2"/>
       <c r="B317" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>12</v>
@@ -11729,10 +11639,10 @@
     <row r="318" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="2"/>
       <c r="B318" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -11746,10 +11656,10 @@
     <row r="319" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="2"/>
       <c r="B319" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -11761,10 +11671,10 @@
     <row r="320" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="2"/>
       <c r="B320" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -11778,12 +11688,12 @@
     <row r="321" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="2"/>
       <c r="B321" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C321" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="D321" s="26"/>
+        <v>28</v>
+      </c>
+      <c r="C321" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D321" s="19"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
@@ -11793,10 +11703,10 @@
     <row r="322" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="2"/>
       <c r="B322" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -11810,10 +11720,10 @@
     <row r="323" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="2"/>
       <c r="B323" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -11827,10 +11737,10 @@
     <row r="324" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="2"/>
       <c r="B324" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="7" t="s">
@@ -11844,10 +11754,10 @@
     <row r="325" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2"/>
       <c r="B325" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -11859,10 +11769,10 @@
     <row r="326" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="2"/>
       <c r="B326" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -11886,7 +11796,7 @@
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="9" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -11898,10 +11808,10 @@
     <row r="329" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="2"/>
       <c r="B329" s="6" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>12</v>
@@ -11915,10 +11825,10 @@
     <row r="330" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2"/>
       <c r="B330" s="6" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -11932,10 +11842,10 @@
     <row r="331" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="2"/>
       <c r="B331" s="6" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -11947,10 +11857,10 @@
     <row r="332" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="2"/>
       <c r="B332" s="6" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -11976,6 +11886,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C206:D206"/>
     <mergeCell ref="C281:D281"/>
     <mergeCell ref="C297:E297"/>
     <mergeCell ref="C300:D300"/>
@@ -11985,21 +11910,6 @@
     <mergeCell ref="C212:E212"/>
     <mergeCell ref="C230:D230"/>
     <mergeCell ref="C249:D249"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C84:D84"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://www.youtube.com/c/arshgoyal" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -12068,6 +11978,13 @@
     <hyperlink ref="C6" r:id="rId64" xr:uid="{D256D2E5-C87F-4047-9A92-9DCC49B8F4D7}"/>
     <hyperlink ref="C7" r:id="rId65" xr:uid="{1E520690-7499-4CCF-93E7-6D76C6065D01}"/>
     <hyperlink ref="C8" r:id="rId66" xr:uid="{EA523158-FD3B-4B2D-AEBA-FF1457907715}"/>
+    <hyperlink ref="C10" r:id="rId67" xr:uid="{8FF2E7C8-39CC-404A-A108-BEF8CFC78EE0}"/>
+    <hyperlink ref="C13" r:id="rId68" xr:uid="{D7B84F0D-0D48-4C47-869D-FFD99C497628}"/>
+    <hyperlink ref="C14" r:id="rId69" xr:uid="{176A0C3C-1A58-4CBE-9327-AE0803991850}"/>
+    <hyperlink ref="C15" r:id="rId70" xr:uid="{CF9BE766-E96A-4362-B72C-CFCEF7C8FB48}"/>
+    <hyperlink ref="C16" r:id="rId71" xr:uid="{B4AE5F29-99D1-4F1F-9896-E12ABEA1357B}"/>
+    <hyperlink ref="C17" r:id="rId72" xr:uid="{98C76F2F-B9DD-4B09-ADF4-3BB257CB8870}"/>
+    <hyperlink ref="C18" r:id="rId73" xr:uid="{516B7069-E25C-4690-9D57-4AC3584BA599}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
+++ b/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODING\CrackYourInternship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E9F0D2-CABF-4F2A-A911-8010C1879A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2958B6A8-DB9D-45D3-84A1-9F50F7EF8988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="326">
   <si>
     <r>
       <rPr>
@@ -554,112 +554,7 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>https://leetcode.com/problems/valid-parentheses</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>https://www.geeksforgeeks.org/print-all-the-duplicates-in-the-input-string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/implement-strstr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/longest-common-prefix</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/valid-palindrome-ii</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/integer-to-roman</t>
     </r>
     <r>
       <rPr>
@@ -5952,13 +5847,28 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/3sum/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-parentheses/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-strstr/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-common-prefix/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-palindrome-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/integer-to-roman/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6255,25 +6165,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6282,7 +6177,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6592,11 +6502,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="153" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="153" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
@@ -6607,7 +6517,7 @@
     <col min="9" max="9" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="12.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6622,7 +6532,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="11.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6637,7 +6547,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="11.25" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -6648,9 +6558,9 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="12.95" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -6673,7 +6583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="12.6" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="9" t="s">
@@ -6686,16 +6596,16 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="11.25" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -6705,16 +6615,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="11.25" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>12</v>
@@ -6728,16 +6638,16 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="11.25" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>12</v>
@@ -6747,7 +6657,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="11.25" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
         <v>11</v>
@@ -6762,16 +6672,16 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="11.25" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>12</v>
@@ -6781,7 +6691,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="11.25" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
         <v>11</v>
@@ -6790,7 +6700,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -6800,7 +6710,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="11.25" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>11</v>
@@ -6809,7 +6719,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -6817,7 +6727,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="11.25" customHeight="1">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -6825,10 +6735,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -6836,7 +6746,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="11.25" customHeight="1">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -6844,10 +6754,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -6857,7 +6767,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="11.25" customHeight="1">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -6865,10 +6775,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -6876,7 +6786,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="11.25" customHeight="1">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -6884,10 +6794,10 @@
         <v>16</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -6897,7 +6807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="11.25" customHeight="1">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -6905,10 +6815,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="10" t="s">
@@ -6918,16 +6828,16 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="11.25" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>12</v>
@@ -6937,7 +6847,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="11.25" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="6" t="s">
         <v>16</v>
@@ -6954,7 +6864,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="11.25" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="6" t="s">
         <v>16</v>
@@ -6971,7 +6881,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="11.25" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="6" t="s">
         <v>16</v>
@@ -6988,7 +6898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="11.25" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="6" t="s">
         <v>16</v>
@@ -7003,7 +6913,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="11.25" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="6" t="s">
         <v>16</v>
@@ -7018,7 +6928,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="11.25" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="6" t="s">
         <v>16</v>
@@ -7033,7 +6943,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="11.25" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="6" t="s">
         <v>16</v>
@@ -7048,7 +6958,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="11.25" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="6" t="s">
         <v>16</v>
@@ -7063,7 +6973,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="11.25" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="6" t="s">
         <v>16</v>
@@ -7080,15 +6990,15 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="11.25" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="22"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="10" t="s">
@@ -7097,7 +7007,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="11.25" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="6" t="s">
         <v>16</v>
@@ -7114,7 +7024,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="11.25" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="6" t="s">
         <v>28</v>
@@ -7131,7 +7041,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="11.25" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="6" t="s">
         <v>28</v>
@@ -7146,7 +7056,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="11.25" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="6" t="s">
         <v>28</v>
@@ -7161,7 +7071,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="11.25" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="6" t="s">
         <v>28</v>
@@ -7176,7 +7086,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="11.25" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -7187,7 +7097,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="11.25" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -7198,7 +7108,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="11.25" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="6" t="s">
@@ -7211,15 +7121,19 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
+    <row r="37" spans="1:9" ht="11.25" customHeight="1">
+      <c r="A37" s="2">
+        <v>3</v>
+      </c>
       <c r="B37" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="2"/>
+      <c r="C37" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>310</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -7228,13 +7142,13 @@
       </c>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="11.25" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -7243,15 +7157,19 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
+    <row r="39" spans="1:9" ht="11.25" customHeight="1">
+      <c r="A39" s="2">
+        <v>3</v>
+      </c>
       <c r="B39" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="2"/>
+      <c r="C39" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>310</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -7260,30 +7178,38 @@
       </c>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
+    <row r="40" spans="1:9" ht="11.25" customHeight="1">
+      <c r="A40" s="2">
+        <v>3</v>
+      </c>
       <c r="B40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="2"/>
+      <c r="C40" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>310</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
+    <row r="41" spans="1:9" ht="11.25" customHeight="1">
+      <c r="A41" s="2">
+        <v>3</v>
+      </c>
       <c r="B41" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="2"/>
+      <c r="C41" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>310</v>
+      </c>
       <c r="E41" s="11" t="s">
         <v>12</v>
       </c>
@@ -7294,15 +7220,19 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
+    <row r="42" spans="1:9" ht="11.25" customHeight="1">
+      <c r="A42" s="2">
+        <v>3</v>
+      </c>
       <c r="B42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="2"/>
+      <c r="C42" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>310</v>
+      </c>
       <c r="E42" s="11" t="s">
         <v>12</v>
       </c>
@@ -7311,13 +7241,13 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="11.25" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -7328,13 +7258,13 @@
       </c>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="11.25" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="10" t="s">
@@ -7345,15 +7275,15 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="11.25" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="26"/>
+      <c r="C45" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="21"/>
       <c r="E45" s="7" t="s">
         <v>12</v>
       </c>
@@ -7362,13 +7292,13 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="11.25" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="10" t="s">
@@ -7379,13 +7309,13 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="11.25" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -7396,13 +7326,13 @@
       </c>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="11.25" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -7411,13 +7341,13 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="11.25" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -7428,13 +7358,13 @@
       </c>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="11.25" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -7443,13 +7373,13 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="11.25" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -7460,13 +7390,13 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="11.25" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -7475,13 +7405,13 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="11.25" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -7492,13 +7422,13 @@
       </c>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="11.25" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -7507,13 +7437,13 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="11.25" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -7524,13 +7454,13 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="11.25" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -7539,7 +7469,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="11.25" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -7550,11 +7480,11 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="11.25" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -7563,13 +7493,13 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="11.25" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -7578,13 +7508,13 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="11.25" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -7593,13 +7523,13 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="11.25" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -7608,7 +7538,7 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="11.25" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="12" t="s">
         <v>16</v>
@@ -7625,13 +7555,13 @@
       </c>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="11.25" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -7642,7 +7572,7 @@
       </c>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="11.25" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -7655,11 +7585,11 @@
       </c>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="11.25" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -7668,13 +7598,13 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="11.25" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -7683,13 +7613,13 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="11.25" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -7698,13 +7628,13 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="11.25" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -7713,13 +7643,13 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="11.25" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -7728,13 +7658,13 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="11.25" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -7745,13 +7675,13 @@
       </c>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="11.25" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -7760,13 +7690,13 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="11.25" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="10" t="s">
@@ -7777,13 +7707,13 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="11.25" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -7792,13 +7722,13 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="11.25" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -7807,13 +7737,13 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="11.25" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -7822,13 +7752,13 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="11.25" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -7839,13 +7769,13 @@
       </c>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="11.25" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -7854,7 +7784,7 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="11.25" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -7865,11 +7795,11 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="11.25" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -7880,15 +7810,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="12.95" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D80" s="27"/>
+      <c r="C80" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D80" s="23"/>
       <c r="E80" s="24"/>
       <c r="F80" s="2"/>
       <c r="G80" s="11" t="s">
@@ -7897,13 +7827,13 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="11.25" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -7912,13 +7842,13 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="12.95" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="23" t="s">
-        <v>74</v>
+      <c r="C82" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="D82" s="24"/>
       <c r="E82" s="2"/>
@@ -7931,13 +7861,13 @@
       </c>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="11.25" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -7946,13 +7876,13 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="12.95" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="23" t="s">
-        <v>76</v>
+      <c r="C84" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="D84" s="24"/>
       <c r="E84" s="2"/>
@@ -7961,13 +7891,13 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="12.95" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="8" t="s">
@@ -7978,13 +7908,13 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="11.25" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -7993,13 +7923,13 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="12.95" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C87" s="23" t="s">
-        <v>79</v>
+      <c r="C87" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="D87" s="24"/>
       <c r="E87" s="2"/>
@@ -8010,13 +7940,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="12.95" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -8025,15 +7955,15 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="11.25" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D89" s="22"/>
+      <c r="C89" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89" s="19"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="11" t="s">
@@ -8042,13 +7972,13 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="11.25" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -8057,13 +7987,13 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="11.25" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -8074,13 +8004,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="12.95" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -8091,13 +8021,13 @@
       </c>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="12.95" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="23" t="s">
-        <v>85</v>
+      <c r="C93" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="D93" s="24"/>
       <c r="E93" s="2"/>
@@ -8106,13 +8036,13 @@
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="12.95" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -8123,7 +8053,7 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="11.25" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -8134,11 +8064,11 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="11.25" customHeight="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -8147,13 +8077,13 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="11.25" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -8162,13 +8092,13 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="11.25" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="11" t="s">
@@ -8179,13 +8109,13 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="11.25" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -8196,13 +8126,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="11.25" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -8211,13 +8141,13 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="11.25" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -8226,13 +8156,13 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="11.25" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -8243,13 +8173,13 @@
       </c>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="11.25" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -8262,13 +8192,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="11.25" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -8277,13 +8207,13 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="11.25" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -8294,28 +8224,28 @@
       </c>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="11.25" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C106" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D106" s="20"/>
-      <c r="E106" s="19"/>
+      <c r="C106" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D106" s="26"/>
+      <c r="E106" s="27"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="11.25" customHeight="1">
       <c r="A107" s="2"/>
       <c r="B107" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -8328,13 +8258,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="11.25" customHeight="1">
       <c r="A108" s="2"/>
       <c r="B108" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -8343,13 +8273,13 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="11.25" customHeight="1">
       <c r="A109" s="2"/>
       <c r="B109" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -8358,13 +8288,13 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="11.25" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -8375,13 +8305,13 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="11.25" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -8390,13 +8320,13 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="11.25" customHeight="1">
       <c r="A112" s="2"/>
       <c r="B112" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -8405,13 +8335,13 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="11.25" customHeight="1">
       <c r="A113" s="2"/>
       <c r="B113" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -8422,13 +8352,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="11.25" customHeight="1">
       <c r="A114" s="2"/>
       <c r="B114" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -8439,13 +8369,13 @@
       </c>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="11.25" customHeight="1">
       <c r="A115" s="2"/>
       <c r="B115" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -8454,13 +8384,13 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="11.25" customHeight="1">
       <c r="A116" s="2"/>
       <c r="B116" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -8469,13 +8399,13 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="11.25" customHeight="1">
       <c r="A117" s="2"/>
       <c r="B117" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -8484,13 +8414,13 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="11.25" customHeight="1">
       <c r="A118" s="2"/>
       <c r="B118" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -8499,13 +8429,13 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="11.25" customHeight="1">
       <c r="A119" s="2"/>
       <c r="B119" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -8516,13 +8446,13 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="11.25" customHeight="1">
       <c r="A120" s="2"/>
       <c r="B120" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -8533,13 +8463,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="11.25" customHeight="1">
       <c r="A121" s="2"/>
       <c r="B121" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -8548,13 +8478,13 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="11.25" customHeight="1">
       <c r="A122" s="2"/>
       <c r="B122" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -8563,7 +8493,7 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="11.25" customHeight="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -8574,11 +8504,11 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="11.25" customHeight="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -8587,13 +8517,13 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="11.25" customHeight="1">
       <c r="A125" s="2"/>
       <c r="B125" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -8602,13 +8532,13 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="11.25" customHeight="1">
       <c r="A126" s="2"/>
       <c r="B126" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="7" t="s">
@@ -8619,13 +8549,13 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="11.25" customHeight="1">
       <c r="A127" s="2"/>
       <c r="B127" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -8638,13 +8568,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="11.25" customHeight="1">
       <c r="A128" s="2"/>
       <c r="B128" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -8653,13 +8583,13 @@
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="11.25" customHeight="1">
       <c r="A129" s="2"/>
       <c r="B129" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -8670,13 +8600,13 @@
       </c>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="11.25" customHeight="1">
       <c r="A130" s="2"/>
       <c r="B130" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -8685,13 +8615,13 @@
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="11.25" customHeight="1">
       <c r="A131" s="2"/>
       <c r="B131" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -8700,15 +8630,15 @@
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="11.25" customHeight="1">
       <c r="A132" s="2"/>
       <c r="B132" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C132" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D132" s="22"/>
+      <c r="C132" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D132" s="19"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -8717,13 +8647,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="11.25" customHeight="1">
       <c r="A133" s="2"/>
       <c r="B133" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="7" t="s">
@@ -8734,13 +8664,13 @@
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="11.25" customHeight="1">
       <c r="A134" s="2"/>
       <c r="B134" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -8751,13 +8681,13 @@
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="11.25" customHeight="1">
       <c r="A135" s="2"/>
       <c r="B135" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -8768,13 +8698,13 @@
       </c>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="11.25" customHeight="1">
       <c r="A136" s="2"/>
       <c r="B136" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -8783,13 +8713,13 @@
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
     </row>
-    <row r="137" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="11.25" customHeight="1">
       <c r="A137" s="2"/>
       <c r="B137" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="7" t="s">
@@ -8800,13 +8730,13 @@
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="11.25" customHeight="1">
       <c r="A138" s="2"/>
       <c r="B138" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -8815,15 +8745,15 @@
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="11.25" customHeight="1">
       <c r="A139" s="2"/>
       <c r="B139" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C139" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D139" s="19"/>
+      <c r="C139" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D139" s="27"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="7" t="s">
@@ -8834,13 +8764,13 @@
       </c>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="11.25" customHeight="1">
       <c r="A140" s="2"/>
       <c r="B140" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -8851,13 +8781,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="11.25" customHeight="1">
       <c r="A141" s="2"/>
       <c r="B141" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -8866,7 +8796,7 @@
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="11.25" customHeight="1">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -8879,11 +8809,11 @@
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="11.25" customHeight="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="16" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -8892,13 +8822,13 @@
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
     </row>
-    <row r="144" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="11.25" customHeight="1">
       <c r="A144" s="2"/>
       <c r="B144" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -8907,13 +8837,13 @@
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="11.25" customHeight="1">
       <c r="A145" s="2"/>
       <c r="B145" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -8924,13 +8854,13 @@
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="11.25" customHeight="1">
       <c r="A146" s="2"/>
       <c r="B146" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -8943,13 +8873,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="11.25" customHeight="1">
       <c r="A147" s="2"/>
       <c r="B147" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -8958,13 +8888,13 @@
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="11.25" customHeight="1">
       <c r="A148" s="2"/>
       <c r="B148" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>12</v>
@@ -8977,13 +8907,13 @@
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
     </row>
-    <row r="149" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="11.25" customHeight="1">
       <c r="A149" s="2"/>
       <c r="B149" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -8992,13 +8922,13 @@
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
     </row>
-    <row r="150" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" ht="11.25" customHeight="1">
       <c r="A150" s="2"/>
       <c r="B150" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -9007,13 +8937,13 @@
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
     </row>
-    <row r="151" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="11.25" customHeight="1">
       <c r="A151" s="2"/>
       <c r="B151" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -9022,13 +8952,13 @@
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
     </row>
-    <row r="152" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="11.25" customHeight="1">
       <c r="A152" s="2"/>
       <c r="B152" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -9041,13 +8971,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="11.25" customHeight="1">
       <c r="A153" s="2"/>
       <c r="B153" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -9056,13 +8986,13 @@
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
     </row>
-    <row r="154" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="11.25" customHeight="1">
       <c r="A154" s="2"/>
       <c r="B154" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>12</v>
@@ -9073,13 +9003,13 @@
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
     </row>
-    <row r="155" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="11.25" customHeight="1">
       <c r="A155" s="2"/>
       <c r="B155" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -9088,13 +9018,13 @@
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
     </row>
-    <row r="156" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="11.25" customHeight="1">
       <c r="A156" s="2"/>
       <c r="B156" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -9103,13 +9033,13 @@
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
     </row>
-    <row r="157" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="11.25" customHeight="1">
       <c r="A157" s="2"/>
       <c r="B157" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -9122,13 +9052,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="11.25" customHeight="1">
       <c r="A158" s="2"/>
       <c r="B158" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -9139,13 +9069,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="11.25" customHeight="1">
       <c r="A159" s="2"/>
       <c r="B159" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -9154,13 +9084,13 @@
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="11.25" customHeight="1">
       <c r="A160" s="2"/>
       <c r="B160" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -9169,13 +9099,13 @@
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
     </row>
-    <row r="161" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="11.25" customHeight="1">
       <c r="A161" s="2"/>
       <c r="B161" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -9184,13 +9114,13 @@
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
     </row>
-    <row r="162" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" ht="11.25" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -9199,13 +9129,13 @@
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
     </row>
-    <row r="163" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" ht="11.25" customHeight="1">
       <c r="A163" s="2"/>
       <c r="B163" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -9214,13 +9144,13 @@
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
     </row>
-    <row r="164" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" ht="11.25" customHeight="1">
       <c r="A164" s="2"/>
       <c r="B164" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -9229,13 +9159,13 @@
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
     </row>
-    <row r="165" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="11.25" customHeight="1">
       <c r="A165" s="2"/>
       <c r="B165" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -9246,13 +9176,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="11.25" customHeight="1">
       <c r="A166" s="2"/>
       <c r="B166" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="7" t="s">
@@ -9263,13 +9193,13 @@
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
     </row>
-    <row r="167" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="11.25" customHeight="1">
       <c r="A167" s="2"/>
       <c r="B167" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -9278,13 +9208,13 @@
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
     </row>
-    <row r="168" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="11.25" customHeight="1">
       <c r="A168" s="2"/>
       <c r="B168" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -9293,13 +9223,13 @@
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
     </row>
-    <row r="169" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="11.25" customHeight="1">
       <c r="A169" s="2"/>
       <c r="B169" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -9308,13 +9238,13 @@
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
     </row>
-    <row r="170" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="11.25" customHeight="1">
       <c r="A170" s="2"/>
       <c r="B170" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -9325,15 +9255,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="11.25" customHeight="1">
       <c r="A171" s="2"/>
       <c r="B171" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C171" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D171" s="19"/>
+      <c r="C171" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D171" s="27"/>
       <c r="E171" s="2"/>
       <c r="F171" s="6" t="s">
         <v>12</v>
@@ -9344,13 +9274,13 @@
       </c>
       <c r="I171" s="2"/>
     </row>
-    <row r="172" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="11.25" customHeight="1">
       <c r="A172" s="2"/>
       <c r="B172" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="7" t="s">
@@ -9365,13 +9295,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="11.25" customHeight="1">
       <c r="A173" s="2"/>
       <c r="B173" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -9382,13 +9312,13 @@
       </c>
       <c r="I173" s="2"/>
     </row>
-    <row r="174" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="11.25" customHeight="1">
       <c r="A174" s="2"/>
       <c r="B174" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -9403,13 +9333,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="11.25" customHeight="1">
       <c r="A175" s="2"/>
       <c r="B175" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -9418,13 +9348,13 @@
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
     </row>
-    <row r="176" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="11.25" customHeight="1">
       <c r="A176" s="2"/>
       <c r="B176" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -9433,15 +9363,15 @@
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
     </row>
-    <row r="177" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="11.25" customHeight="1">
       <c r="A177" s="2"/>
       <c r="B177" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C177" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D177" s="22"/>
+      <c r="C177" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D177" s="19"/>
       <c r="E177" s="2"/>
       <c r="F177" s="6" t="s">
         <v>12</v>
@@ -9450,13 +9380,13 @@
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
     </row>
-    <row r="178" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="11.25" customHeight="1">
       <c r="A178" s="2"/>
       <c r="B178" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="7" t="s">
@@ -9467,13 +9397,13 @@
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
     </row>
-    <row r="179" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" ht="11.25" customHeight="1">
       <c r="A179" s="2"/>
       <c r="B179" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -9484,28 +9414,28 @@
       </c>
       <c r="I179" s="2"/>
     </row>
-    <row r="180" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" ht="11.25" customHeight="1">
       <c r="A180" s="2"/>
       <c r="B180" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C180" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D180" s="22"/>
+      <c r="C180" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D180" s="19"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
     </row>
-    <row r="181" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" ht="11.25" customHeight="1">
       <c r="A181" s="2"/>
       <c r="B181" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -9518,13 +9448,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" ht="11.25" customHeight="1">
       <c r="A182" s="2"/>
       <c r="B182" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -9533,13 +9463,13 @@
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
     </row>
-    <row r="183" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" ht="11.25" customHeight="1">
       <c r="A183" s="2"/>
       <c r="B183" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -9550,13 +9480,13 @@
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
     </row>
-    <row r="184" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="11.25" customHeight="1">
       <c r="A184" s="2"/>
       <c r="B184" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -9567,13 +9497,13 @@
       </c>
       <c r="I184" s="2"/>
     </row>
-    <row r="185" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="11.25" customHeight="1">
       <c r="A185" s="2"/>
       <c r="B185" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -9586,13 +9516,13 @@
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
     </row>
-    <row r="186" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="11.25" customHeight="1">
       <c r="A186" s="2"/>
       <c r="B186" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -9603,13 +9533,13 @@
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
     </row>
-    <row r="187" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="11.25" customHeight="1">
       <c r="A187" s="2"/>
       <c r="B187" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -9620,13 +9550,13 @@
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
     </row>
-    <row r="188" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="11.25" customHeight="1">
       <c r="A188" s="2"/>
       <c r="B188" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -9637,13 +9567,13 @@
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
     </row>
-    <row r="189" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="11.25" customHeight="1">
       <c r="A189" s="2"/>
       <c r="B189" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -9652,13 +9582,13 @@
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
     </row>
-    <row r="190" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="11.25" customHeight="1">
       <c r="A190" s="2"/>
       <c r="B190" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -9669,13 +9599,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="11.25" customHeight="1">
       <c r="A191" s="2"/>
       <c r="B191" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -9684,7 +9614,7 @@
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
     </row>
-    <row r="192" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="11.25" customHeight="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -9695,11 +9625,11 @@
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
     </row>
-    <row r="193" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" ht="11.25" customHeight="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -9708,13 +9638,13 @@
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
     </row>
-    <row r="194" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" ht="11.25" customHeight="1">
       <c r="A194" s="2"/>
       <c r="B194" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -9725,13 +9655,13 @@
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
     </row>
-    <row r="195" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" ht="11.25" customHeight="1">
       <c r="A195" s="2"/>
       <c r="B195" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="7" t="s">
@@ -9742,13 +9672,13 @@
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
     </row>
-    <row r="196" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" ht="11.25" customHeight="1">
       <c r="A196" s="2"/>
       <c r="B196" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -9757,13 +9687,13 @@
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
     </row>
-    <row r="197" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" ht="11.25" customHeight="1">
       <c r="A197" s="2"/>
       <c r="B197" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -9774,13 +9704,13 @@
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
     </row>
-    <row r="198" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" ht="11.25" customHeight="1">
       <c r="A198" s="2"/>
       <c r="B198" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -9789,13 +9719,13 @@
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
     </row>
-    <row r="199" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" ht="11.25" customHeight="1">
       <c r="A199" s="2"/>
       <c r="B199" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -9804,13 +9734,13 @@
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
     </row>
-    <row r="200" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" ht="11.25" customHeight="1">
       <c r="A200" s="2"/>
       <c r="B200" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -9819,13 +9749,13 @@
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
     </row>
-    <row r="201" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" ht="11.25" customHeight="1">
       <c r="A201" s="2"/>
       <c r="B201" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="7" t="s">
@@ -9836,13 +9766,13 @@
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
     </row>
-    <row r="202" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" ht="11.25" customHeight="1">
       <c r="A202" s="2"/>
       <c r="B202" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="7" t="s">
@@ -9853,13 +9783,13 @@
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
     </row>
-    <row r="203" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" ht="11.25" customHeight="1">
       <c r="A203" s="2"/>
       <c r="B203" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="7" t="s">
@@ -9870,13 +9800,13 @@
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
     </row>
-    <row r="204" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" ht="11.25" customHeight="1">
       <c r="A204" s="2"/>
       <c r="B204" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="7" t="s">
@@ -9889,13 +9819,13 @@
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
     </row>
-    <row r="205" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" ht="11.25" customHeight="1">
       <c r="A205" s="2"/>
       <c r="B205" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -9904,28 +9834,28 @@
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
     </row>
-    <row r="206" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" ht="11.25" customHeight="1">
       <c r="A206" s="2"/>
       <c r="B206" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C206" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D206" s="22"/>
+      <c r="C206" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D206" s="19"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
     </row>
-    <row r="207" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" ht="11.25" customHeight="1">
       <c r="A207" s="2"/>
       <c r="B207" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="7" t="s">
@@ -9936,28 +9866,28 @@
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
     </row>
-    <row r="208" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" ht="11.25" customHeight="1">
       <c r="A208" s="2"/>
       <c r="B208" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C208" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="D208" s="20"/>
-      <c r="E208" s="20"/>
-      <c r="F208" s="20"/>
-      <c r="G208" s="20"/>
-      <c r="H208" s="19"/>
+      <c r="C208" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D208" s="26"/>
+      <c r="E208" s="26"/>
+      <c r="F208" s="26"/>
+      <c r="G208" s="26"/>
+      <c r="H208" s="27"/>
       <c r="I208" s="2"/>
     </row>
-    <row r="209" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="11.25" customHeight="1">
       <c r="A209" s="2"/>
       <c r="B209" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -9966,13 +9896,13 @@
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
     </row>
-    <row r="210" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" ht="11.25" customHeight="1">
       <c r="A210" s="2"/>
       <c r="B210" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -9981,43 +9911,43 @@
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
     </row>
-    <row r="211" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" ht="11.25" customHeight="1">
       <c r="A211" s="2"/>
       <c r="B211" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C211" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="D211" s="20"/>
-      <c r="E211" s="19"/>
+      <c r="C211" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D211" s="26"/>
+      <c r="E211" s="27"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
     </row>
-    <row r="212" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="11.25" customHeight="1">
       <c r="A212" s="2"/>
       <c r="B212" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C212" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="D212" s="20"/>
-      <c r="E212" s="19"/>
+      <c r="C212" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="D212" s="26"/>
+      <c r="E212" s="27"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
     </row>
-    <row r="213" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="11.25" customHeight="1">
       <c r="A213" s="2"/>
       <c r="B213" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -10028,13 +9958,13 @@
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
     </row>
-    <row r="214" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" ht="11.25" customHeight="1">
       <c r="A214" s="2"/>
       <c r="B214" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -10043,13 +9973,13 @@
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
     </row>
-    <row r="215" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" ht="11.25" customHeight="1">
       <c r="A215" s="2"/>
       <c r="B215" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -10058,13 +9988,13 @@
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
     </row>
-    <row r="216" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" ht="11.25" customHeight="1">
       <c r="A216" s="2"/>
       <c r="B216" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -10073,13 +10003,13 @@
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
     </row>
-    <row r="217" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" ht="11.25" customHeight="1">
       <c r="A217" s="2"/>
       <c r="B217" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -10090,13 +10020,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" ht="11.25" customHeight="1">
       <c r="A218" s="2"/>
       <c r="B218" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -10109,13 +10039,13 @@
       </c>
       <c r="I218" s="2"/>
     </row>
-    <row r="219" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" ht="11.25" customHeight="1">
       <c r="A219" s="2"/>
       <c r="B219" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -10124,13 +10054,13 @@
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
     </row>
-    <row r="220" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" ht="11.25" customHeight="1">
       <c r="A220" s="2"/>
       <c r="B220" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -10139,13 +10069,13 @@
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
     </row>
-    <row r="221" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" ht="11.25" customHeight="1">
       <c r="A221" s="2"/>
       <c r="B221" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="7" t="s">
@@ -10156,13 +10086,13 @@
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
     </row>
-    <row r="222" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" ht="11.25" customHeight="1">
       <c r="A222" s="2"/>
       <c r="B222" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -10171,13 +10101,13 @@
       <c r="H222" s="2"/>
       <c r="I222" s="2"/>
     </row>
-    <row r="223" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" ht="11.25" customHeight="1">
       <c r="A223" s="2"/>
       <c r="B223" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -10190,13 +10120,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" ht="11.25" customHeight="1">
       <c r="A224" s="2"/>
       <c r="B224" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -10207,13 +10137,13 @@
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
     </row>
-    <row r="225" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" ht="11.25" customHeight="1">
       <c r="A225" s="2"/>
       <c r="B225" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -10223,16 +10153,16 @@
       </c>
       <c r="H225" s="2"/>
       <c r="I225" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="11.25" customHeight="1">
       <c r="A226" s="2"/>
       <c r="B226" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -10241,13 +10171,13 @@
       <c r="H226" s="2"/>
       <c r="I226" s="2"/>
     </row>
-    <row r="227" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" ht="11.25" customHeight="1">
       <c r="A227" s="2"/>
       <c r="B227" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -10262,13 +10192,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" ht="11.25" customHeight="1">
       <c r="A228" s="2"/>
       <c r="B228" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -10277,13 +10207,13 @@
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
     </row>
-    <row r="229" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" ht="11.25" customHeight="1">
       <c r="A229" s="2"/>
       <c r="B229" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -10292,22 +10222,22 @@
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
     </row>
-    <row r="230" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" ht="11.25" customHeight="1">
       <c r="A230" s="2"/>
       <c r="B230" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C230" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="D230" s="19"/>
+      <c r="C230" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D230" s="27"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
       <c r="I230" s="2"/>
     </row>
-    <row r="231" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" ht="11.25" customHeight="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -10318,11 +10248,11 @@
       <c r="H231" s="2"/>
       <c r="I231" s="2"/>
     </row>
-    <row r="232" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" ht="11.25" customHeight="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -10331,13 +10261,13 @@
       <c r="H232" s="2"/>
       <c r="I232" s="2"/>
     </row>
-    <row r="233" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" ht="11.25" customHeight="1">
       <c r="A233" s="2"/>
       <c r="B233" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -10346,13 +10276,13 @@
       <c r="H233" s="2"/>
       <c r="I233" s="2"/>
     </row>
-    <row r="234" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" ht="11.25" customHeight="1">
       <c r="A234" s="2"/>
       <c r="B234" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="7" t="s">
@@ -10363,13 +10293,13 @@
       <c r="H234" s="2"/>
       <c r="I234" s="2"/>
     </row>
-    <row r="235" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" ht="11.25" customHeight="1">
       <c r="A235" s="2"/>
       <c r="B235" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="7" t="s">
@@ -10380,13 +10310,13 @@
       <c r="H235" s="2"/>
       <c r="I235" s="2"/>
     </row>
-    <row r="236" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" ht="11.25" customHeight="1">
       <c r="A236" s="2"/>
       <c r="B236" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="7" t="s">
@@ -10397,13 +10327,13 @@
       <c r="H236" s="2"/>
       <c r="I236" s="2"/>
     </row>
-    <row r="237" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" ht="11.25" customHeight="1">
       <c r="A237" s="2"/>
       <c r="B237" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="7" t="s">
@@ -10414,13 +10344,13 @@
       <c r="H237" s="2"/>
       <c r="I237" s="2"/>
     </row>
-    <row r="238" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" ht="11.25" customHeight="1">
       <c r="A238" s="2"/>
       <c r="B238" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -10429,7 +10359,7 @@
       <c r="H238" s="2"/>
       <c r="I238" s="2"/>
     </row>
-    <row r="239" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" ht="11.25" customHeight="1">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -10440,11 +10370,11 @@
       <c r="H239" s="2"/>
       <c r="I239" s="2"/>
     </row>
-    <row r="240" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" ht="11.25" customHeight="1">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="16" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -10453,7 +10383,7 @@
       <c r="H240" s="2"/>
       <c r="I240" s="2"/>
     </row>
-    <row r="241" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" ht="11.25" customHeight="1">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -10464,13 +10394,13 @@
       <c r="H241" s="2"/>
       <c r="I241" s="2"/>
     </row>
-    <row r="242" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" ht="11.25" customHeight="1">
       <c r="A242" s="2"/>
       <c r="B242" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -10479,13 +10409,13 @@
       <c r="H242" s="2"/>
       <c r="I242" s="2"/>
     </row>
-    <row r="243" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" ht="11.25" customHeight="1">
       <c r="A243" s="2"/>
       <c r="B243" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -10494,13 +10424,13 @@
       <c r="H243" s="2"/>
       <c r="I243" s="2"/>
     </row>
-    <row r="244" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" ht="11.25" customHeight="1">
       <c r="A244" s="2"/>
       <c r="B244" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -10509,13 +10439,13 @@
       <c r="H244" s="2"/>
       <c r="I244" s="2"/>
     </row>
-    <row r="245" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" ht="11.25" customHeight="1">
       <c r="A245" s="2"/>
       <c r="B245" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -10524,13 +10454,13 @@
       <c r="H245" s="2"/>
       <c r="I245" s="2"/>
     </row>
-    <row r="246" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" ht="11.25" customHeight="1">
       <c r="A246" s="2"/>
       <c r="B246" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C246" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -10539,13 +10469,13 @@
       <c r="H246" s="2"/>
       <c r="I246" s="2"/>
     </row>
-    <row r="247" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" ht="11.25" customHeight="1">
       <c r="A247" s="2"/>
       <c r="B247" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -10554,13 +10484,13 @@
       <c r="H247" s="2"/>
       <c r="I247" s="2"/>
     </row>
-    <row r="248" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" ht="11.25" customHeight="1">
       <c r="A248" s="2"/>
       <c r="B248" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -10569,28 +10499,28 @@
       <c r="H248" s="2"/>
       <c r="I248" s="2"/>
     </row>
-    <row r="249" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" ht="11.25" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C249" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="D249" s="19"/>
+        <v>223</v>
+      </c>
+      <c r="C249" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D249" s="27"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
       <c r="H249" s="2"/>
       <c r="I249" s="2"/>
     </row>
-    <row r="250" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" ht="11.25" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -10601,13 +10531,13 @@
       <c r="H250" s="2"/>
       <c r="I250" s="2"/>
     </row>
-    <row r="251" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" ht="11.25" customHeight="1">
       <c r="A251" s="2"/>
       <c r="B251" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -10616,13 +10546,13 @@
       <c r="H251" s="2"/>
       <c r="I251" s="2"/>
     </row>
-    <row r="252" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" ht="11.25" customHeight="1">
       <c r="A252" s="2"/>
       <c r="B252" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -10631,13 +10561,13 @@
       <c r="H252" s="2"/>
       <c r="I252" s="2"/>
     </row>
-    <row r="253" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" ht="11.25" customHeight="1">
       <c r="A253" s="2"/>
       <c r="B253" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" s="7" t="s">
@@ -10648,13 +10578,13 @@
       <c r="H253" s="2"/>
       <c r="I253" s="2"/>
     </row>
-    <row r="254" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" ht="11.25" customHeight="1">
       <c r="A254" s="2"/>
       <c r="B254" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -10663,13 +10593,13 @@
       <c r="H254" s="2"/>
       <c r="I254" s="2"/>
     </row>
-    <row r="255" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" ht="11.25" customHeight="1">
       <c r="A255" s="2"/>
       <c r="B255" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -10678,7 +10608,7 @@
       <c r="H255" s="2"/>
       <c r="I255" s="2"/>
     </row>
-    <row r="256" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" ht="11.25" customHeight="1">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -10689,11 +10619,11 @@
       <c r="H256" s="2"/>
       <c r="I256" s="2"/>
     </row>
-    <row r="257" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" ht="11.25" customHeight="1">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="6" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -10702,13 +10632,13 @@
       <c r="H257" s="2"/>
       <c r="I257" s="2"/>
     </row>
-    <row r="258" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" ht="11.25" customHeight="1">
       <c r="A258" s="2"/>
       <c r="B258" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -10717,13 +10647,13 @@
       <c r="H258" s="2"/>
       <c r="I258" s="2"/>
     </row>
-    <row r="259" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" ht="11.25" customHeight="1">
       <c r="A259" s="2"/>
       <c r="B259" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -10734,13 +10664,13 @@
       <c r="H259" s="2"/>
       <c r="I259" s="2"/>
     </row>
-    <row r="260" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" ht="11.25" customHeight="1">
       <c r="A260" s="2"/>
       <c r="B260" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -10751,13 +10681,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" ht="11.25" customHeight="1">
       <c r="A261" s="2"/>
       <c r="B261" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -10768,13 +10698,13 @@
       </c>
       <c r="I261" s="2"/>
     </row>
-    <row r="262" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" ht="11.25" customHeight="1">
       <c r="A262" s="2"/>
       <c r="B262" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -10783,13 +10713,13 @@
       <c r="H262" s="2"/>
       <c r="I262" s="2"/>
     </row>
-    <row r="263" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" ht="11.25" customHeight="1">
       <c r="A263" s="2"/>
       <c r="B263" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -10798,13 +10728,13 @@
       <c r="H263" s="2"/>
       <c r="I263" s="2"/>
     </row>
-    <row r="264" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" ht="11.25" customHeight="1">
       <c r="A264" s="2"/>
       <c r="B264" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="7" t="s">
@@ -10815,13 +10745,13 @@
       <c r="H264" s="2"/>
       <c r="I264" s="2"/>
     </row>
-    <row r="265" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" ht="11.25" customHeight="1">
       <c r="A265" s="2"/>
       <c r="B265" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" s="7" t="s">
@@ -10832,13 +10762,13 @@
       <c r="H265" s="2"/>
       <c r="I265" s="2"/>
     </row>
-    <row r="266" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" ht="11.25" customHeight="1">
       <c r="A266" s="2"/>
       <c r="B266" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -10849,13 +10779,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" ht="11.25" customHeight="1">
       <c r="A267" s="2"/>
       <c r="B267" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="7" t="s">
@@ -10868,13 +10798,13 @@
       </c>
       <c r="I267" s="2"/>
     </row>
-    <row r="268" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" ht="11.25" customHeight="1">
       <c r="A268" s="2"/>
       <c r="B268" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -10885,13 +10815,13 @@
       </c>
       <c r="I268" s="2"/>
     </row>
-    <row r="269" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" ht="11.25" customHeight="1">
       <c r="A269" s="2"/>
       <c r="B269" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -10900,13 +10830,13 @@
       <c r="H269" s="2"/>
       <c r="I269" s="2"/>
     </row>
-    <row r="270" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" ht="11.25" customHeight="1">
       <c r="A270" s="2"/>
       <c r="B270" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -10917,13 +10847,13 @@
       </c>
       <c r="I270" s="2"/>
     </row>
-    <row r="271" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" ht="11.25" customHeight="1">
       <c r="A271" s="2"/>
       <c r="B271" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -10934,13 +10864,13 @@
       <c r="H271" s="2"/>
       <c r="I271" s="2"/>
     </row>
-    <row r="272" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" ht="11.25" customHeight="1">
       <c r="A272" s="2"/>
       <c r="B272" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -10949,13 +10879,13 @@
       <c r="H272" s="2"/>
       <c r="I272" s="2"/>
     </row>
-    <row r="273" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" ht="11.25" customHeight="1">
       <c r="A273" s="2"/>
       <c r="B273" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -10964,13 +10894,13 @@
       <c r="H273" s="2"/>
       <c r="I273" s="2"/>
     </row>
-    <row r="274" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" ht="11.25" customHeight="1">
       <c r="A274" s="2"/>
       <c r="B274" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -10979,13 +10909,13 @@
       <c r="H274" s="2"/>
       <c r="I274" s="2"/>
     </row>
-    <row r="275" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" ht="11.25" customHeight="1">
       <c r="A275" s="2"/>
       <c r="B275" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -10994,13 +10924,13 @@
       <c r="H275" s="2"/>
       <c r="I275" s="2"/>
     </row>
-    <row r="276" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" ht="11.25" customHeight="1">
       <c r="A276" s="2"/>
       <c r="B276" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -11011,13 +10941,13 @@
       </c>
       <c r="I276" s="2"/>
     </row>
-    <row r="277" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" ht="11.25" customHeight="1">
       <c r="A277" s="2"/>
       <c r="B277" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -11026,13 +10956,13 @@
       <c r="H277" s="2"/>
       <c r="I277" s="2"/>
     </row>
-    <row r="278" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" ht="11.25" customHeight="1">
       <c r="A278" s="2"/>
       <c r="B278" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -11041,13 +10971,13 @@
       <c r="H278" s="2"/>
       <c r="I278" s="2"/>
     </row>
-    <row r="279" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" ht="11.25" customHeight="1">
       <c r="A279" s="2"/>
       <c r="B279" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -11058,13 +10988,13 @@
       <c r="H279" s="2"/>
       <c r="I279" s="2"/>
     </row>
-    <row r="280" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" ht="11.25" customHeight="1">
       <c r="A280" s="2"/>
       <c r="B280" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -11073,15 +11003,15 @@
       <c r="H280" s="2"/>
       <c r="I280" s="2"/>
     </row>
-    <row r="281" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" ht="11.25" customHeight="1">
       <c r="A281" s="2"/>
       <c r="B281" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C281" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="D281" s="19"/>
+      <c r="C281" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="D281" s="27"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
@@ -11090,13 +11020,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" ht="11.25" customHeight="1">
       <c r="A282" s="2"/>
       <c r="B282" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="7" t="s">
@@ -11107,13 +11037,13 @@
       <c r="H282" s="2"/>
       <c r="I282" s="2"/>
     </row>
-    <row r="283" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" ht="11.25" customHeight="1">
       <c r="A283" s="2"/>
       <c r="B283" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" s="7" t="s">
@@ -11124,13 +11054,13 @@
       <c r="H283" s="2"/>
       <c r="I283" s="2"/>
     </row>
-    <row r="284" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" ht="11.25" customHeight="1">
       <c r="A284" s="2"/>
       <c r="B284" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" s="7" t="s">
@@ -11141,13 +11071,13 @@
       <c r="H284" s="2"/>
       <c r="I284" s="2"/>
     </row>
-    <row r="285" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" ht="11.25" customHeight="1">
       <c r="A285" s="2"/>
       <c r="B285" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="7" t="s">
@@ -11158,13 +11088,13 @@
       <c r="H285" s="2"/>
       <c r="I285" s="2"/>
     </row>
-    <row r="286" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" ht="11.25" customHeight="1">
       <c r="A286" s="2"/>
       <c r="B286" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -11173,13 +11103,13 @@
       <c r="H286" s="2"/>
       <c r="I286" s="2"/>
     </row>
-    <row r="287" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" ht="11.25" customHeight="1">
       <c r="A287" s="2"/>
       <c r="B287" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -11188,7 +11118,7 @@
       <c r="H287" s="2"/>
       <c r="I287" s="2"/>
     </row>
-    <row r="288" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" ht="11.25" customHeight="1">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -11201,11 +11131,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" ht="11.25" customHeight="1">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -11214,7 +11144,7 @@
       <c r="H289" s="2"/>
       <c r="I289" s="2"/>
     </row>
-    <row r="290" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" ht="11.25" customHeight="1">
       <c r="A290" s="2"/>
       <c r="B290" s="6" t="s">
         <v>16</v>
@@ -11231,13 +11161,13 @@
       </c>
       <c r="I290" s="2"/>
     </row>
-    <row r="291" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" ht="11.25" customHeight="1">
       <c r="A291" s="2"/>
       <c r="B291" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -11246,13 +11176,13 @@
       <c r="H291" s="2"/>
       <c r="I291" s="2"/>
     </row>
-    <row r="292" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" ht="11.25" customHeight="1">
       <c r="A292" s="2"/>
       <c r="B292" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -11261,7 +11191,7 @@
       <c r="H292" s="2"/>
       <c r="I292" s="2"/>
     </row>
-    <row r="293" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" ht="11.25" customHeight="1">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -11272,7 +11202,7 @@
       <c r="H293" s="2"/>
       <c r="I293" s="2"/>
     </row>
-    <row r="294" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" ht="11.25" customHeight="1">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -11283,11 +11213,11 @@
       <c r="H294" s="2"/>
       <c r="I294" s="2"/>
     </row>
-    <row r="295" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" ht="11.25" customHeight="1">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="8" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -11296,13 +11226,13 @@
       <c r="H295" s="2"/>
       <c r="I295" s="2"/>
     </row>
-    <row r="296" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" ht="11.25" customHeight="1">
       <c r="A296" s="2"/>
       <c r="B296" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -11311,28 +11241,28 @@
       <c r="H296" s="2"/>
       <c r="I296" s="2"/>
     </row>
-    <row r="297" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" ht="11.25" customHeight="1">
       <c r="A297" s="2"/>
       <c r="B297" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C297" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="D297" s="20"/>
-      <c r="E297" s="19"/>
+        <v>223</v>
+      </c>
+      <c r="C297" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="D297" s="26"/>
+      <c r="E297" s="27"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
       <c r="I297" s="2"/>
     </row>
-    <row r="298" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" ht="11.25" customHeight="1">
       <c r="A298" s="2"/>
       <c r="B298" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -11343,13 +11273,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" ht="11.25" customHeight="1">
       <c r="A299" s="2"/>
       <c r="B299" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -11358,15 +11288,15 @@
       <c r="H299" s="2"/>
       <c r="I299" s="2"/>
     </row>
-    <row r="300" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" ht="11.25" customHeight="1">
       <c r="A300" s="2"/>
       <c r="B300" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C300" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="D300" s="19"/>
+        <v>223</v>
+      </c>
+      <c r="C300" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="D300" s="27"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
@@ -11375,13 +11305,13 @@
       </c>
       <c r="I300" s="2"/>
     </row>
-    <row r="301" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" ht="11.25" customHeight="1">
       <c r="A301" s="2"/>
       <c r="B301" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -11392,13 +11322,13 @@
       </c>
       <c r="I301" s="2"/>
     </row>
-    <row r="302" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" ht="11.25" customHeight="1">
       <c r="A302" s="2"/>
       <c r="B302" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -11409,13 +11339,13 @@
       </c>
       <c r="I302" s="2"/>
     </row>
-    <row r="303" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" ht="11.25" customHeight="1">
       <c r="A303" s="2"/>
       <c r="B303" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -11426,13 +11356,13 @@
       </c>
       <c r="I303" s="2"/>
     </row>
-    <row r="304" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" ht="11.25" customHeight="1">
       <c r="A304" s="2"/>
       <c r="B304" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -11441,13 +11371,13 @@
       <c r="H304" s="2"/>
       <c r="I304" s="2"/>
     </row>
-    <row r="305" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" ht="11.25" customHeight="1">
       <c r="A305" s="2"/>
       <c r="B305" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -11456,7 +11386,7 @@
       <c r="H305" s="2"/>
       <c r="I305" s="2"/>
     </row>
-    <row r="306" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" ht="11.25" customHeight="1">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -11469,7 +11399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" ht="11.25" customHeight="1">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -11480,11 +11410,11 @@
       <c r="H307" s="2"/>
       <c r="I307" s="2"/>
     </row>
-    <row r="308" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" ht="11.25" customHeight="1">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="16" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -11493,13 +11423,13 @@
       <c r="H308" s="2"/>
       <c r="I308" s="2"/>
     </row>
-    <row r="309" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" ht="11.25" customHeight="1">
       <c r="A309" s="2"/>
       <c r="B309" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -11508,13 +11438,13 @@
       <c r="H309" s="2"/>
       <c r="I309" s="2"/>
     </row>
-    <row r="310" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" ht="11.25" customHeight="1">
       <c r="A310" s="2"/>
       <c r="B310" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -11523,13 +11453,13 @@
       <c r="H310" s="2"/>
       <c r="I310" s="2"/>
     </row>
-    <row r="311" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" ht="11.25" customHeight="1">
       <c r="A311" s="2"/>
       <c r="B311" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>12</v>
@@ -11542,13 +11472,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" ht="11.25" customHeight="1">
       <c r="A312" s="2"/>
       <c r="B312" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -11557,13 +11487,13 @@
       <c r="H312" s="2"/>
       <c r="I312" s="2"/>
     </row>
-    <row r="313" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" ht="11.25" customHeight="1">
       <c r="A313" s="2"/>
       <c r="B313" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -11572,13 +11502,13 @@
       <c r="H313" s="2"/>
       <c r="I313" s="2"/>
     </row>
-    <row r="314" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" ht="11.25" customHeight="1">
       <c r="A314" s="2"/>
       <c r="B314" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -11587,13 +11517,13 @@
       <c r="H314" s="2"/>
       <c r="I314" s="2"/>
     </row>
-    <row r="315" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" ht="11.25" customHeight="1">
       <c r="A315" s="2"/>
       <c r="B315" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -11604,13 +11534,13 @@
       </c>
       <c r="I315" s="2"/>
     </row>
-    <row r="316" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" ht="11.25" customHeight="1">
       <c r="A316" s="2"/>
       <c r="B316" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -11619,13 +11549,13 @@
       <c r="H316" s="2"/>
       <c r="I316" s="2"/>
     </row>
-    <row r="317" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" ht="11.25" customHeight="1">
       <c r="A317" s="2"/>
       <c r="B317" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>12</v>
@@ -11636,13 +11566,13 @@
       <c r="H317" s="2"/>
       <c r="I317" s="2"/>
     </row>
-    <row r="318" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" ht="11.25" customHeight="1">
       <c r="A318" s="2"/>
       <c r="B318" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -11653,13 +11583,13 @@
       <c r="H318" s="2"/>
       <c r="I318" s="2"/>
     </row>
-    <row r="319" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" ht="11.25" customHeight="1">
       <c r="A319" s="2"/>
       <c r="B319" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -11668,13 +11598,13 @@
       <c r="H319" s="2"/>
       <c r="I319" s="2"/>
     </row>
-    <row r="320" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" ht="11.25" customHeight="1">
       <c r="A320" s="2"/>
       <c r="B320" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -11685,28 +11615,28 @@
       </c>
       <c r="I320" s="2"/>
     </row>
-    <row r="321" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" ht="11.25" customHeight="1">
       <c r="A321" s="2"/>
       <c r="B321" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C321" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D321" s="19"/>
+      <c r="C321" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="D321" s="27"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
       <c r="H321" s="2"/>
       <c r="I321" s="2"/>
     </row>
-    <row r="322" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" ht="11.25" customHeight="1">
       <c r="A322" s="2"/>
       <c r="B322" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -11717,13 +11647,13 @@
       </c>
       <c r="I322" s="2"/>
     </row>
-    <row r="323" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" ht="11.25" customHeight="1">
       <c r="A323" s="2"/>
       <c r="B323" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -11734,13 +11664,13 @@
       </c>
       <c r="I323" s="2"/>
     </row>
-    <row r="324" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" ht="11.25" customHeight="1">
       <c r="A324" s="2"/>
       <c r="B324" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="7" t="s">
@@ -11751,13 +11681,13 @@
       <c r="H324" s="2"/>
       <c r="I324" s="2"/>
     </row>
-    <row r="325" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" ht="11.25" customHeight="1">
       <c r="A325" s="2"/>
       <c r="B325" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -11766,13 +11696,13 @@
       <c r="H325" s="2"/>
       <c r="I325" s="2"/>
     </row>
-    <row r="326" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" ht="11.25" customHeight="1">
       <c r="A326" s="2"/>
       <c r="B326" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -11781,7 +11711,7 @@
       <c r="H326" s="2"/>
       <c r="I326" s="2"/>
     </row>
-    <row r="327" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" ht="11.25" customHeight="1">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -11792,11 +11722,11 @@
       <c r="H327" s="2"/>
       <c r="I327" s="2"/>
     </row>
-    <row r="328" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" ht="12.6" customHeight="1">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -11805,13 +11735,13 @@
       <c r="H328" s="2"/>
       <c r="I328" s="2"/>
     </row>
-    <row r="329" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" ht="11.25" customHeight="1">
       <c r="A329" s="2"/>
       <c r="B329" s="6" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>12</v>
@@ -11822,13 +11752,13 @@
       <c r="H329" s="2"/>
       <c r="I329" s="2"/>
     </row>
-    <row r="330" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" ht="11.25" customHeight="1">
       <c r="A330" s="2"/>
       <c r="B330" s="6" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -11839,13 +11769,13 @@
       <c r="H330" s="2"/>
       <c r="I330" s="2"/>
     </row>
-    <row r="331" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" ht="11.25" customHeight="1">
       <c r="A331" s="2"/>
       <c r="B331" s="6" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -11854,13 +11784,13 @@
       <c r="H331" s="2"/>
       <c r="I331" s="2"/>
     </row>
-    <row r="332" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" ht="11.25" customHeight="1">
       <c r="A332" s="2"/>
       <c r="B332" s="6" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -11871,7 +11801,7 @@
       </c>
       <c r="I332" s="2"/>
     </row>
-    <row r="333" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" ht="11.25" customHeight="1">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -11886,21 +11816,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C206:D206"/>
     <mergeCell ref="C281:D281"/>
     <mergeCell ref="C297:E297"/>
     <mergeCell ref="C300:D300"/>
@@ -11910,6 +11825,21 @@
     <mergeCell ref="C212:E212"/>
     <mergeCell ref="C230:D230"/>
     <mergeCell ref="C249:D249"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C84:D84"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://www.youtube.com/c/arshgoyal" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -11985,6 +11915,11 @@
     <hyperlink ref="C16" r:id="rId71" xr:uid="{B4AE5F29-99D1-4F1F-9896-E12ABEA1357B}"/>
     <hyperlink ref="C17" r:id="rId72" xr:uid="{98C76F2F-B9DD-4B09-ADF4-3BB257CB8870}"/>
     <hyperlink ref="C18" r:id="rId73" xr:uid="{516B7069-E25C-4690-9D57-4AC3584BA599}"/>
+    <hyperlink ref="C37" r:id="rId74" xr:uid="{8B044E09-B3E8-4513-BD24-21F79A1B996A}"/>
+    <hyperlink ref="C39" r:id="rId75" xr:uid="{F5482A8F-4F20-4C2C-AD2E-AB0940CDC768}"/>
+    <hyperlink ref="C40" r:id="rId76" xr:uid="{15D14FAA-F7C9-42A9-89F1-CDFCC7ACA575}"/>
+    <hyperlink ref="C41" r:id="rId77" xr:uid="{67A12604-D5DF-41E3-8A23-9CF5D5724B25}"/>
+    <hyperlink ref="C42" r:id="rId78" xr:uid="{A42BB77C-8F45-45FC-97A7-9A31DDD4BA29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
+++ b/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODING\CrackYourInternship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2958B6A8-DB9D-45D3-84A1-9F50F7EF8988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE339BA2-93DE-4101-BA0B-C19618B5083E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="326">
   <si>
     <r>
       <rPr>
@@ -569,48 +569,6 @@
   <si>
     <r>
       <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/generate-parentheses</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/simplify-path</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="7"/>
         <color rgb="FF1154CC"/>
         <rFont val="Arial MT"/>
@@ -628,27 +586,6 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>https://leetcode.com/problems/reverse-words-in-a-string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>https://www.geeksforgeeks.org/rabin-karp-algorithm-for-pattern-searching</t>
     </r>
     <r>
@@ -670,49 +607,7 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>https://leetcode.com/problems/group-anagrams</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>https://practice.geeksforgeeks.org/problems/word-wrap1646/1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/basic-calculator-ii</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
     </r>
   </si>
   <si>
@@ -5862,13 +5757,28 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/integer-to-roman/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/generate-parentheses/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/simplify-path/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-words-in-a-string/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/group-anagrams/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/basic-calculator-ii/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6151,9 +6061,6 @@
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6165,10 +6072,25 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6177,22 +6099,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6502,11 +6412,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="153" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="161" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
@@ -6517,7 +6427,7 @@
     <col min="9" max="9" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.95" customHeight="1">
+    <row r="1" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6532,7 +6442,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="11.25" customHeight="1">
+    <row r="2" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6547,7 +6457,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="11.25" customHeight="1">
+    <row r="3" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -6558,9 +6468,9 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="12.95" customHeight="1">
+    <row r="4" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -6583,7 +6493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12.6" customHeight="1">
+    <row r="5" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="9" t="s">
@@ -6596,16 +6506,16 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="11.25" customHeight="1">
+    <row r="6" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>308</v>
+      <c r="C6" s="16" t="s">
+        <v>303</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -6615,16 +6525,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="11.25" customHeight="1">
+    <row r="7" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>309</v>
+      <c r="C7" s="16" t="s">
+        <v>304</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>12</v>
@@ -6638,16 +6548,16 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="11.25" customHeight="1">
+    <row r="8" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>311</v>
+      <c r="C8" s="16" t="s">
+        <v>306</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>12</v>
@@ -6657,7 +6567,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="11.25" customHeight="1">
+    <row r="9" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
         <v>11</v>
@@ -6672,16 +6582,16 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="11.25" customHeight="1">
+    <row r="10" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>312</v>
+      <c r="C10" s="16" t="s">
+        <v>307</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>12</v>
@@ -6691,7 +6601,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="11.25" customHeight="1">
+    <row r="11" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
         <v>11</v>
@@ -6700,7 +6610,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -6710,7 +6620,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="11.25" customHeight="1">
+    <row r="12" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>11</v>
@@ -6719,7 +6629,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -6727,18 +6637,18 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="11.25" customHeight="1">
+    <row r="13" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>313</v>
+      <c r="C13" s="16" t="s">
+        <v>308</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -6746,18 +6656,18 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="11.25" customHeight="1">
+    <row r="14" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>315</v>
+      <c r="C14" s="16" t="s">
+        <v>310</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -6767,18 +6677,18 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="11.25" customHeight="1">
+    <row r="15" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>316</v>
+      <c r="C15" s="16" t="s">
+        <v>311</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -6786,18 +6696,18 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="11.25" customHeight="1">
+    <row r="16" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>318</v>
+      <c r="C16" s="16" t="s">
+        <v>313</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -6807,18 +6717,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="11.25" customHeight="1">
+    <row r="17" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>319</v>
+      <c r="C17" s="16" t="s">
+        <v>314</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="10" t="s">
@@ -6828,16 +6738,16 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="11.25" customHeight="1">
+    <row r="18" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>320</v>
+      <c r="C18" s="16" t="s">
+        <v>315</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>12</v>
@@ -6847,7 +6757,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="11.25" customHeight="1">
+    <row r="19" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="6" t="s">
         <v>16</v>
@@ -6864,7 +6774,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="11.25" customHeight="1">
+    <row r="20" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="6" t="s">
         <v>16</v>
@@ -6881,7 +6791,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="11.25" customHeight="1">
+    <row r="21" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="6" t="s">
         <v>16</v>
@@ -6898,7 +6808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="11.25" customHeight="1">
+    <row r="22" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="6" t="s">
         <v>16</v>
@@ -6913,7 +6823,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="11.25" customHeight="1">
+    <row r="23" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="6" t="s">
         <v>16</v>
@@ -6928,7 +6838,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="11.25" customHeight="1">
+    <row r="24" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="6" t="s">
         <v>16</v>
@@ -6943,7 +6853,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="11.25" customHeight="1">
+    <row r="25" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="6" t="s">
         <v>16</v>
@@ -6958,7 +6868,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="11.25" customHeight="1">
+    <row r="26" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="6" t="s">
         <v>16</v>
@@ -6973,7 +6883,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="11.25" customHeight="1">
+    <row r="27" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="6" t="s">
         <v>16</v>
@@ -6990,15 +6900,15 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="11.25" customHeight="1">
+    <row r="28" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="10" t="s">
@@ -7007,7 +6917,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="11.25" customHeight="1">
+    <row r="29" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="6" t="s">
         <v>16</v>
@@ -7024,7 +6934,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="11.25" customHeight="1">
+    <row r="30" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="6" t="s">
         <v>28</v>
@@ -7041,7 +6951,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="11.25" customHeight="1">
+    <row r="31" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="6" t="s">
         <v>28</v>
@@ -7056,7 +6966,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="11.25" customHeight="1">
+    <row r="32" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="6" t="s">
         <v>28</v>
@@ -7071,7 +6981,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="11.25" customHeight="1">
+    <row r="33" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="6" t="s">
         <v>28</v>
@@ -7086,7 +6996,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" ht="11.25" customHeight="1">
+    <row r="34" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -7097,7 +7007,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="11.25" customHeight="1">
+    <row r="35" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -7108,7 +7018,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="11.25" customHeight="1">
+    <row r="36" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="6" t="s">
@@ -7121,18 +7031,18 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="11.25" customHeight="1">
+    <row r="37" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>321</v>
+      <c r="C37" s="16" t="s">
+        <v>316</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -7142,7 +7052,7 @@
       </c>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" ht="11.25" customHeight="1">
+    <row r="38" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="6" t="s">
         <v>11</v>
@@ -7157,18 +7067,18 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" ht="11.25" customHeight="1">
+    <row r="39" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>3</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>322</v>
+      <c r="C39" s="16" t="s">
+        <v>317</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -7178,18 +7088,18 @@
       </c>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" ht="11.25" customHeight="1">
+    <row r="40" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>3</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>323</v>
+      <c r="C40" s="16" t="s">
+        <v>318</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -7197,18 +7107,18 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" ht="11.25" customHeight="1">
+    <row r="41" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>3</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>324</v>
+      <c r="C41" s="16" t="s">
+        <v>319</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>12</v>
@@ -7220,18 +7130,18 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" ht="11.25" customHeight="1">
+    <row r="42" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>3</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="17" t="s">
-        <v>325</v>
+      <c r="C42" s="16" t="s">
+        <v>320</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>12</v>
@@ -7241,15 +7151,19 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A43" s="2"/>
+    <row r="43" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>4</v>
+      </c>
       <c r="B43" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="2"/>
+      <c r="C43" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -7258,15 +7172,19 @@
       </c>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A44" s="2"/>
+    <row r="44" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>4</v>
+      </c>
       <c r="B44" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="2"/>
+      <c r="C44" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="E44" s="10" t="s">
         <v>12</v>
       </c>
@@ -7275,15 +7193,15 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" ht="11.25" customHeight="1">
+    <row r="45" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="21"/>
+      <c r="C45" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="25"/>
       <c r="E45" s="7" t="s">
         <v>12</v>
       </c>
@@ -7292,15 +7210,19 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A46" s="2"/>
+    <row r="46" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>4</v>
+      </c>
       <c r="B46" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="14"/>
+      <c r="C46" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>305</v>
+      </c>
       <c r="E46" s="10" t="s">
         <v>12</v>
       </c>
@@ -7309,13 +7231,13 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" ht="11.25" customHeight="1">
+    <row r="47" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -7326,28 +7248,32 @@
       </c>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A48" s="2"/>
+    <row r="48" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>4</v>
+      </c>
       <c r="B48" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48" s="2"/>
+      <c r="C48" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" ht="11.25" customHeight="1">
+    <row r="49" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -7358,28 +7284,32 @@
       </c>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A50" s="2"/>
+    <row r="50" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>4</v>
+      </c>
       <c r="B50" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" s="2"/>
+      <c r="C50" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" ht="11.25" customHeight="1">
+    <row r="51" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -7390,13 +7320,13 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" ht="11.25" customHeight="1">
+    <row r="52" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -7405,13 +7335,13 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" ht="11.25" customHeight="1">
+    <row r="53" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -7422,13 +7352,13 @@
       </c>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" ht="11.25" customHeight="1">
+    <row r="54" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -7437,13 +7367,13 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" ht="11.25" customHeight="1">
+    <row r="55" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -7454,13 +7384,13 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" ht="11.25" customHeight="1">
+    <row r="56" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -7469,7 +7399,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" ht="11.25" customHeight="1">
+    <row r="57" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -7480,11 +7410,11 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" ht="11.25" customHeight="1">
+    <row r="58" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -7493,13 +7423,13 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" ht="11.25" customHeight="1">
+    <row r="59" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -7508,13 +7438,13 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" ht="11.25" customHeight="1">
+    <row r="60" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -7523,13 +7453,13 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" ht="11.25" customHeight="1">
+    <row r="61" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -7538,7 +7468,7 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" ht="11.25" customHeight="1">
+    <row r="62" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="12" t="s">
         <v>16</v>
@@ -7555,13 +7485,13 @@
       </c>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" ht="11.25" customHeight="1">
+    <row r="63" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -7572,7 +7502,7 @@
       </c>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" ht="11.25" customHeight="1">
+    <row r="64" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -7585,11 +7515,11 @@
       </c>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" ht="11.25" customHeight="1">
+    <row r="65" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -7598,13 +7528,13 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" ht="11.25" customHeight="1">
+    <row r="66" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -7613,13 +7543,13 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" ht="11.25" customHeight="1">
+    <row r="67" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -7628,13 +7558,13 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" ht="11.25" customHeight="1">
+    <row r="68" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -7643,13 +7573,13 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" ht="11.25" customHeight="1">
+    <row r="69" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -7658,13 +7588,13 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" ht="11.25" customHeight="1">
+    <row r="70" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -7675,13 +7605,13 @@
       </c>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" ht="11.25" customHeight="1">
+    <row r="71" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -7690,13 +7620,13 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" ht="11.25" customHeight="1">
+    <row r="72" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="10" t="s">
@@ -7707,13 +7637,13 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" ht="11.25" customHeight="1">
+    <row r="73" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -7722,13 +7652,13 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" ht="11.25" customHeight="1">
+    <row r="74" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -7737,13 +7667,13 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" ht="11.25" customHeight="1">
+    <row r="75" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -7752,13 +7682,13 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" ht="11.25" customHeight="1">
+    <row r="76" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -7769,13 +7699,13 @@
       </c>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:9" ht="11.25" customHeight="1">
+    <row r="77" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -7784,7 +7714,7 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" ht="11.25" customHeight="1">
+    <row r="78" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -7795,11 +7725,11 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9" ht="11.25" customHeight="1">
+    <row r="79" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -7810,16 +7740,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="12.95" customHeight="1">
+    <row r="80" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D80" s="23"/>
-      <c r="E80" s="24"/>
+        <v>62</v>
+      </c>
+      <c r="D80" s="26"/>
+      <c r="E80" s="23"/>
       <c r="F80" s="2"/>
       <c r="G80" s="11" t="s">
         <v>12</v>
@@ -7827,13 +7757,13 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9" ht="11.25" customHeight="1">
+    <row r="81" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -7842,15 +7772,15 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" ht="12.95" customHeight="1">
+    <row r="82" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D82" s="24"/>
+        <v>64</v>
+      </c>
+      <c r="D82" s="23"/>
       <c r="E82" s="2"/>
       <c r="F82" s="11" t="s">
         <v>12</v>
@@ -7861,13 +7791,13 @@
       </c>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9" ht="11.25" customHeight="1">
+    <row r="83" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -7876,28 +7806,28 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9" ht="12.95" customHeight="1">
+    <row r="84" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D84" s="24"/>
+        <v>66</v>
+      </c>
+      <c r="D84" s="23"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="1:9" ht="12.95" customHeight="1">
+    <row r="85" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C85" s="15" t="s">
-        <v>72</v>
+      <c r="C85" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="8" t="s">
@@ -7908,13 +7838,13 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" ht="11.25" customHeight="1">
+    <row r="86" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -7923,15 +7853,15 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:9" ht="12.95" customHeight="1">
+    <row r="87" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D87" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="D87" s="23"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -7940,13 +7870,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="12.95" customHeight="1">
+    <row r="88" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C88" s="15" t="s">
-        <v>75</v>
+      <c r="C88" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -7955,15 +7885,15 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:9" ht="11.25" customHeight="1">
+    <row r="89" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D89" s="19"/>
+      <c r="C89" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D89" s="21"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="11" t="s">
@@ -7972,13 +7902,13 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" ht="11.25" customHeight="1">
+    <row r="90" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -7987,13 +7917,13 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" ht="11.25" customHeight="1">
+    <row r="91" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -8004,13 +7934,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="12.95" customHeight="1">
+    <row r="92" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C92" s="15" t="s">
-        <v>79</v>
+      <c r="C92" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -8021,28 +7951,28 @@
       </c>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="1:9" ht="12.95" customHeight="1">
+    <row r="93" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D93" s="24"/>
+        <v>75</v>
+      </c>
+      <c r="D93" s="23"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="1:9" ht="12.95" customHeight="1">
+    <row r="94" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C94" s="15" t="s">
-        <v>81</v>
+      <c r="C94" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -8053,7 +7983,7 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="1:9" ht="11.25" customHeight="1">
+    <row r="95" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -8064,11 +7994,11 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="1:9" ht="11.25" customHeight="1">
+    <row r="96" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -8077,13 +8007,13 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="1:9" ht="11.25" customHeight="1">
+    <row r="97" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -8092,13 +8022,13 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="1:9" ht="11.25" customHeight="1">
+    <row r="98" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="11" t="s">
@@ -8109,13 +8039,13 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:9" ht="11.25" customHeight="1">
+    <row r="99" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -8126,13 +8056,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="11.25" customHeight="1">
+    <row r="100" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -8141,13 +8071,13 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="1:9" ht="11.25" customHeight="1">
+    <row r="101" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -8156,13 +8086,13 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="1:9" ht="11.25" customHeight="1">
+    <row r="102" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -8173,13 +8103,13 @@
       </c>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="1:9" ht="11.25" customHeight="1">
+    <row r="103" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -8192,13 +8122,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="11.25" customHeight="1">
+    <row r="104" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -8207,13 +8137,13 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="1:9" ht="11.25" customHeight="1">
+    <row r="105" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -8224,28 +8154,28 @@
       </c>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9" ht="11.25" customHeight="1">
+    <row r="106" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C106" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="26"/>
-      <c r="E106" s="27"/>
+      <c r="C106" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D106" s="19"/>
+      <c r="E106" s="18"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9" ht="11.25" customHeight="1">
+    <row r="107" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -8258,13 +8188,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="11.25" customHeight="1">
+    <row r="108" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -8273,13 +8203,13 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="1:9" ht="11.25" customHeight="1">
+    <row r="109" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -8288,13 +8218,13 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" ht="11.25" customHeight="1">
+    <row r="110" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -8305,13 +8235,13 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:9" ht="11.25" customHeight="1">
+    <row r="111" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -8320,13 +8250,13 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" ht="11.25" customHeight="1">
+    <row r="112" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -8335,13 +8265,13 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="1:9" ht="11.25" customHeight="1">
+    <row r="113" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -8352,13 +8282,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="11.25" customHeight="1">
+    <row r="114" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -8369,13 +8299,13 @@
       </c>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="1:9" ht="11.25" customHeight="1">
+    <row r="115" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -8384,13 +8314,13 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="1:9" ht="11.25" customHeight="1">
+    <row r="116" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -8399,13 +8329,13 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="1:9" ht="11.25" customHeight="1">
+    <row r="117" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -8414,13 +8344,13 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:9" ht="11.25" customHeight="1">
+    <row r="118" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -8429,13 +8359,13 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="1:9" ht="11.25" customHeight="1">
+    <row r="119" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -8446,13 +8376,13 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:9" ht="11.25" customHeight="1">
+    <row r="120" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -8463,13 +8393,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="11.25" customHeight="1">
+    <row r="121" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -8478,13 +8408,13 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="1:9" ht="11.25" customHeight="1">
+    <row r="122" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -8493,7 +8423,7 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="1:9" ht="11.25" customHeight="1">
+    <row r="123" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -8504,11 +8434,11 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="1:9" ht="11.25" customHeight="1">
+    <row r="124" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
-      <c r="C124" s="16" t="s">
-        <v>109</v>
+      <c r="C124" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -8517,13 +8447,13 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="1:9" ht="11.25" customHeight="1">
+    <row r="125" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -8532,13 +8462,13 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="1:9" ht="11.25" customHeight="1">
+    <row r="126" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="7" t="s">
@@ -8549,13 +8479,13 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="1:9" ht="11.25" customHeight="1">
+    <row r="127" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -8568,13 +8498,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="11.25" customHeight="1">
+    <row r="128" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -8583,13 +8513,13 @@
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="1:9" ht="11.25" customHeight="1">
+    <row r="129" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -8600,13 +8530,13 @@
       </c>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="1:9" ht="11.25" customHeight="1">
+    <row r="130" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -8615,13 +8545,13 @@
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="1:9" ht="11.25" customHeight="1">
+    <row r="131" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -8630,15 +8560,15 @@
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="1:9" ht="11.25" customHeight="1">
+    <row r="132" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C132" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D132" s="19"/>
+      <c r="C132" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D132" s="21"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -8647,13 +8577,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="11.25" customHeight="1">
+    <row r="133" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="7" t="s">
@@ -8664,13 +8594,13 @@
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="1:9" ht="11.25" customHeight="1">
+    <row r="134" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -8681,13 +8611,13 @@
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="1:9" ht="11.25" customHeight="1">
+    <row r="135" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -8698,13 +8628,13 @@
       </c>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="1:9" ht="11.25" customHeight="1">
+    <row r="136" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -8713,13 +8643,13 @@
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
     </row>
-    <row r="137" spans="1:9" ht="11.25" customHeight="1">
+    <row r="137" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="7" t="s">
@@ -8730,13 +8660,13 @@
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="1:9" ht="11.25" customHeight="1">
+    <row r="138" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -8745,15 +8675,15 @@
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="1:9" ht="11.25" customHeight="1">
+    <row r="139" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C139" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="D139" s="27"/>
+      <c r="C139" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D139" s="18"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="7" t="s">
@@ -8764,13 +8694,13 @@
       </c>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="1:9" ht="11.25" customHeight="1">
+    <row r="140" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -8781,13 +8711,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="11.25" customHeight="1">
+    <row r="141" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -8796,7 +8726,7 @@
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="1:9" ht="11.25" customHeight="1">
+    <row r="142" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -8809,11 +8739,11 @@
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="1:9" ht="11.25" customHeight="1">
+    <row r="143" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
-      <c r="C143" s="16" t="s">
-        <v>127</v>
+      <c r="C143" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -8822,13 +8752,13 @@
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
     </row>
-    <row r="144" spans="1:9" ht="11.25" customHeight="1">
+    <row r="144" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -8837,13 +8767,13 @@
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="1:9" ht="11.25" customHeight="1">
+    <row r="145" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -8854,13 +8784,13 @@
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="1:9" ht="11.25" customHeight="1">
+    <row r="146" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -8873,13 +8803,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="11.25" customHeight="1">
+    <row r="147" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -8888,13 +8818,13 @@
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="1:9" ht="11.25" customHeight="1">
+    <row r="148" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>12</v>
@@ -8907,13 +8837,13 @@
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
     </row>
-    <row r="149" spans="1:9" ht="11.25" customHeight="1">
+    <row r="149" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -8922,13 +8852,13 @@
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
     </row>
-    <row r="150" spans="1:9" ht="11.25" customHeight="1">
+    <row r="150" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -8937,13 +8867,13 @@
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
     </row>
-    <row r="151" spans="1:9" ht="11.25" customHeight="1">
+    <row r="151" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -8952,13 +8882,13 @@
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
     </row>
-    <row r="152" spans="1:9" ht="11.25" customHeight="1">
+    <row r="152" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -8971,13 +8901,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="11.25" customHeight="1">
+    <row r="153" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -8986,13 +8916,13 @@
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
     </row>
-    <row r="154" spans="1:9" ht="11.25" customHeight="1">
+    <row r="154" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>12</v>
@@ -9003,13 +8933,13 @@
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
     </row>
-    <row r="155" spans="1:9" ht="11.25" customHeight="1">
+    <row r="155" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -9018,13 +8948,13 @@
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
     </row>
-    <row r="156" spans="1:9" ht="11.25" customHeight="1">
+    <row r="156" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -9033,13 +8963,13 @@
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
     </row>
-    <row r="157" spans="1:9" ht="11.25" customHeight="1">
+    <row r="157" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -9052,13 +8982,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="11.25" customHeight="1">
+    <row r="158" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -9069,13 +8999,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="11.25" customHeight="1">
+    <row r="159" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -9084,13 +9014,13 @@
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="1:9" ht="11.25" customHeight="1">
+    <row r="160" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -9099,13 +9029,13 @@
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
     </row>
-    <row r="161" spans="1:9" ht="11.25" customHeight="1">
+    <row r="161" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -9114,13 +9044,13 @@
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
     </row>
-    <row r="162" spans="1:9" ht="11.25" customHeight="1">
+    <row r="162" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -9129,13 +9059,13 @@
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
     </row>
-    <row r="163" spans="1:9" ht="11.25" customHeight="1">
+    <row r="163" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -9144,13 +9074,13 @@
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
     </row>
-    <row r="164" spans="1:9" ht="11.25" customHeight="1">
+    <row r="164" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -9159,13 +9089,13 @@
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
     </row>
-    <row r="165" spans="1:9" ht="11.25" customHeight="1">
+    <row r="165" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -9176,13 +9106,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="11.25" customHeight="1">
+    <row r="166" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="7" t="s">
@@ -9193,13 +9123,13 @@
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
     </row>
-    <row r="167" spans="1:9" ht="11.25" customHeight="1">
+    <row r="167" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -9208,13 +9138,13 @@
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
     </row>
-    <row r="168" spans="1:9" ht="11.25" customHeight="1">
+    <row r="168" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -9223,13 +9153,13 @@
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
     </row>
-    <row r="169" spans="1:9" ht="11.25" customHeight="1">
+    <row r="169" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -9238,13 +9168,13 @@
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
     </row>
-    <row r="170" spans="1:9" ht="11.25" customHeight="1">
+    <row r="170" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -9255,15 +9185,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="11.25" customHeight="1">
+    <row r="171" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C171" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="D171" s="27"/>
+      <c r="C171" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D171" s="18"/>
       <c r="E171" s="2"/>
       <c r="F171" s="6" t="s">
         <v>12</v>
@@ -9274,13 +9204,13 @@
       </c>
       <c r="I171" s="2"/>
     </row>
-    <row r="172" spans="1:9" ht="11.25" customHeight="1">
+    <row r="172" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="7" t="s">
@@ -9295,13 +9225,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="11.25" customHeight="1">
+    <row r="173" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -9312,13 +9242,13 @@
       </c>
       <c r="I173" s="2"/>
     </row>
-    <row r="174" spans="1:9" ht="11.25" customHeight="1">
+    <row r="174" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -9333,13 +9263,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="11.25" customHeight="1">
+    <row r="175" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -9348,13 +9278,13 @@
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
     </row>
-    <row r="176" spans="1:9" ht="11.25" customHeight="1">
+    <row r="176" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -9363,15 +9293,15 @@
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
     </row>
-    <row r="177" spans="1:9" ht="11.25" customHeight="1">
+    <row r="177" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C177" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D177" s="19"/>
+      <c r="C177" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D177" s="21"/>
       <c r="E177" s="2"/>
       <c r="F177" s="6" t="s">
         <v>12</v>
@@ -9380,13 +9310,13 @@
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
     </row>
-    <row r="178" spans="1:9" ht="11.25" customHeight="1">
+    <row r="178" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="7" t="s">
@@ -9397,13 +9327,13 @@
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
     </row>
-    <row r="179" spans="1:9" ht="11.25" customHeight="1">
+    <row r="179" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -9414,28 +9344,28 @@
       </c>
       <c r="I179" s="2"/>
     </row>
-    <row r="180" spans="1:9" ht="11.25" customHeight="1">
+    <row r="180" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C180" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D180" s="19"/>
+      <c r="C180" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D180" s="21"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
     </row>
-    <row r="181" spans="1:9" ht="11.25" customHeight="1">
+    <row r="181" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -9448,13 +9378,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="11.25" customHeight="1">
+    <row r="182" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -9463,13 +9393,13 @@
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
     </row>
-    <row r="183" spans="1:9" ht="11.25" customHeight="1">
+    <row r="183" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -9480,13 +9410,13 @@
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
     </row>
-    <row r="184" spans="1:9" ht="11.25" customHeight="1">
+    <row r="184" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -9497,13 +9427,13 @@
       </c>
       <c r="I184" s="2"/>
     </row>
-    <row r="185" spans="1:9" ht="11.25" customHeight="1">
+    <row r="185" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -9516,13 +9446,13 @@
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
     </row>
-    <row r="186" spans="1:9" ht="11.25" customHeight="1">
+    <row r="186" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -9533,13 +9463,13 @@
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
     </row>
-    <row r="187" spans="1:9" ht="11.25" customHeight="1">
+    <row r="187" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -9550,13 +9480,13 @@
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
     </row>
-    <row r="188" spans="1:9" ht="11.25" customHeight="1">
+    <row r="188" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -9567,13 +9497,13 @@
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
     </row>
-    <row r="189" spans="1:9" ht="11.25" customHeight="1">
+    <row r="189" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -9582,13 +9512,13 @@
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
     </row>
-    <row r="190" spans="1:9" ht="11.25" customHeight="1">
+    <row r="190" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -9599,13 +9529,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="11.25" customHeight="1">
+    <row r="191" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -9614,7 +9544,7 @@
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
     </row>
-    <row r="192" spans="1:9" ht="11.25" customHeight="1">
+    <row r="192" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -9625,11 +9555,11 @@
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
     </row>
-    <row r="193" spans="1:9" ht="11.25" customHeight="1">
+    <row r="193" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -9638,13 +9568,13 @@
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
     </row>
-    <row r="194" spans="1:9" ht="11.25" customHeight="1">
+    <row r="194" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -9655,13 +9585,13 @@
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
     </row>
-    <row r="195" spans="1:9" ht="11.25" customHeight="1">
+    <row r="195" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="7" t="s">
@@ -9672,13 +9602,13 @@
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
     </row>
-    <row r="196" spans="1:9" ht="11.25" customHeight="1">
+    <row r="196" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -9687,13 +9617,13 @@
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
     </row>
-    <row r="197" spans="1:9" ht="11.25" customHeight="1">
+    <row r="197" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -9704,13 +9634,13 @@
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
     </row>
-    <row r="198" spans="1:9" ht="11.25" customHeight="1">
+    <row r="198" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -9719,13 +9649,13 @@
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
     </row>
-    <row r="199" spans="1:9" ht="11.25" customHeight="1">
+    <row r="199" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -9734,13 +9664,13 @@
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
     </row>
-    <row r="200" spans="1:9" ht="11.25" customHeight="1">
+    <row r="200" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -9749,13 +9679,13 @@
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
     </row>
-    <row r="201" spans="1:9" ht="11.25" customHeight="1">
+    <row r="201" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="7" t="s">
@@ -9766,13 +9696,13 @@
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
     </row>
-    <row r="202" spans="1:9" ht="11.25" customHeight="1">
+    <row r="202" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="7" t="s">
@@ -9783,13 +9713,13 @@
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
     </row>
-    <row r="203" spans="1:9" ht="11.25" customHeight="1">
+    <row r="203" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="7" t="s">
@@ -9800,13 +9730,13 @@
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
     </row>
-    <row r="204" spans="1:9" ht="11.25" customHeight="1">
+    <row r="204" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="7" t="s">
@@ -9819,13 +9749,13 @@
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
     </row>
-    <row r="205" spans="1:9" ht="11.25" customHeight="1">
+    <row r="205" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -9834,28 +9764,28 @@
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
     </row>
-    <row r="206" spans="1:9" ht="11.25" customHeight="1">
+    <row r="206" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C206" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="D206" s="19"/>
+      <c r="C206" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D206" s="21"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
     </row>
-    <row r="207" spans="1:9" ht="11.25" customHeight="1">
+    <row r="207" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="7" t="s">
@@ -9866,28 +9796,28 @@
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
     </row>
-    <row r="208" spans="1:9" ht="11.25" customHeight="1">
+    <row r="208" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C208" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="D208" s="26"/>
-      <c r="E208" s="26"/>
-      <c r="F208" s="26"/>
-      <c r="G208" s="26"/>
-      <c r="H208" s="27"/>
+      <c r="C208" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D208" s="19"/>
+      <c r="E208" s="19"/>
+      <c r="F208" s="19"/>
+      <c r="G208" s="19"/>
+      <c r="H208" s="18"/>
       <c r="I208" s="2"/>
     </row>
-    <row r="209" spans="1:9" ht="11.25" customHeight="1">
+    <row r="209" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -9896,13 +9826,13 @@
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
     </row>
-    <row r="210" spans="1:9" ht="11.25" customHeight="1">
+    <row r="210" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -9911,43 +9841,43 @@
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
     </row>
-    <row r="211" spans="1:9" ht="11.25" customHeight="1">
+    <row r="211" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C211" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="D211" s="26"/>
-      <c r="E211" s="27"/>
+      <c r="C211" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D211" s="19"/>
+      <c r="E211" s="18"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
     </row>
-    <row r="212" spans="1:9" ht="11.25" customHeight="1">
+    <row r="212" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C212" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="D212" s="26"/>
-      <c r="E212" s="27"/>
+      <c r="C212" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D212" s="19"/>
+      <c r="E212" s="18"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
     </row>
-    <row r="213" spans="1:9" ht="11.25" customHeight="1">
+    <row r="213" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -9958,13 +9888,13 @@
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
     </row>
-    <row r="214" spans="1:9" ht="11.25" customHeight="1">
+    <row r="214" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -9973,13 +9903,13 @@
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
     </row>
-    <row r="215" spans="1:9" ht="11.25" customHeight="1">
+    <row r="215" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -9988,13 +9918,13 @@
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
     </row>
-    <row r="216" spans="1:9" ht="11.25" customHeight="1">
+    <row r="216" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -10003,13 +9933,13 @@
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
     </row>
-    <row r="217" spans="1:9" ht="11.25" customHeight="1">
+    <row r="217" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -10020,13 +9950,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="11.25" customHeight="1">
+    <row r="218" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
       <c r="B218" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -10039,13 +9969,13 @@
       </c>
       <c r="I218" s="2"/>
     </row>
-    <row r="219" spans="1:9" ht="11.25" customHeight="1">
+    <row r="219" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -10054,13 +9984,13 @@
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
     </row>
-    <row r="220" spans="1:9" ht="11.25" customHeight="1">
+    <row r="220" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
       <c r="B220" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -10069,13 +9999,13 @@
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
     </row>
-    <row r="221" spans="1:9" ht="11.25" customHeight="1">
+    <row r="221" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
       <c r="B221" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="7" t="s">
@@ -10086,13 +10016,13 @@
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
     </row>
-    <row r="222" spans="1:9" ht="11.25" customHeight="1">
+    <row r="222" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
       <c r="B222" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -10101,13 +10031,13 @@
       <c r="H222" s="2"/>
       <c r="I222" s="2"/>
     </row>
-    <row r="223" spans="1:9" ht="11.25" customHeight="1">
+    <row r="223" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
       <c r="B223" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -10120,13 +10050,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="11.25" customHeight="1">
+    <row r="224" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
       <c r="B224" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -10137,13 +10067,13 @@
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
     </row>
-    <row r="225" spans="1:9" ht="11.25" customHeight="1">
+    <row r="225" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -10153,16 +10083,16 @@
       </c>
       <c r="H225" s="2"/>
       <c r="I225" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" ht="11.25" customHeight="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
       <c r="B226" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -10171,13 +10101,13 @@
       <c r="H226" s="2"/>
       <c r="I226" s="2"/>
     </row>
-    <row r="227" spans="1:9" ht="11.25" customHeight="1">
+    <row r="227" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
       <c r="B227" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -10192,13 +10122,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="11.25" customHeight="1">
+    <row r="228" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="B228" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -10207,13 +10137,13 @@
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
     </row>
-    <row r="229" spans="1:9" ht="11.25" customHeight="1">
+    <row r="229" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
       <c r="B229" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -10222,22 +10152,22 @@
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
     </row>
-    <row r="230" spans="1:9" ht="11.25" customHeight="1">
+    <row r="230" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="B230" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C230" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="D230" s="27"/>
+      <c r="C230" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D230" s="18"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
       <c r="I230" s="2"/>
     </row>
-    <row r="231" spans="1:9" ht="11.25" customHeight="1">
+    <row r="231" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -10248,11 +10178,11 @@
       <c r="H231" s="2"/>
       <c r="I231" s="2"/>
     </row>
-    <row r="232" spans="1:9" ht="11.25" customHeight="1">
+    <row r="232" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -10261,13 +10191,13 @@
       <c r="H232" s="2"/>
       <c r="I232" s="2"/>
     </row>
-    <row r="233" spans="1:9" ht="11.25" customHeight="1">
+    <row r="233" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
       <c r="B233" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -10276,13 +10206,13 @@
       <c r="H233" s="2"/>
       <c r="I233" s="2"/>
     </row>
-    <row r="234" spans="1:9" ht="11.25" customHeight="1">
+    <row r="234" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
       <c r="B234" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="7" t="s">
@@ -10293,13 +10223,13 @@
       <c r="H234" s="2"/>
       <c r="I234" s="2"/>
     </row>
-    <row r="235" spans="1:9" ht="11.25" customHeight="1">
+    <row r="235" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
       <c r="B235" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="7" t="s">
@@ -10310,13 +10240,13 @@
       <c r="H235" s="2"/>
       <c r="I235" s="2"/>
     </row>
-    <row r="236" spans="1:9" ht="11.25" customHeight="1">
+    <row r="236" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
       <c r="B236" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="7" t="s">
@@ -10327,13 +10257,13 @@
       <c r="H236" s="2"/>
       <c r="I236" s="2"/>
     </row>
-    <row r="237" spans="1:9" ht="11.25" customHeight="1">
+    <row r="237" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
       <c r="B237" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="7" t="s">
@@ -10344,13 +10274,13 @@
       <c r="H237" s="2"/>
       <c r="I237" s="2"/>
     </row>
-    <row r="238" spans="1:9" ht="11.25" customHeight="1">
+    <row r="238" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
       <c r="B238" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -10359,7 +10289,7 @@
       <c r="H238" s="2"/>
       <c r="I238" s="2"/>
     </row>
-    <row r="239" spans="1:9" ht="11.25" customHeight="1">
+    <row r="239" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -10370,11 +10300,11 @@
       <c r="H239" s="2"/>
       <c r="I239" s="2"/>
     </row>
-    <row r="240" spans="1:9" ht="11.25" customHeight="1">
+    <row r="240" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
-      <c r="C240" s="16" t="s">
-        <v>222</v>
+      <c r="C240" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -10383,7 +10313,7 @@
       <c r="H240" s="2"/>
       <c r="I240" s="2"/>
     </row>
-    <row r="241" spans="1:9" ht="11.25" customHeight="1">
+    <row r="241" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -10394,13 +10324,13 @@
       <c r="H241" s="2"/>
       <c r="I241" s="2"/>
     </row>
-    <row r="242" spans="1:9" ht="11.25" customHeight="1">
+    <row r="242" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
       <c r="B242" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -10409,13 +10339,13 @@
       <c r="H242" s="2"/>
       <c r="I242" s="2"/>
     </row>
-    <row r="243" spans="1:9" ht="11.25" customHeight="1">
+    <row r="243" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -10424,13 +10354,13 @@
       <c r="H243" s="2"/>
       <c r="I243" s="2"/>
     </row>
-    <row r="244" spans="1:9" ht="11.25" customHeight="1">
+    <row r="244" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="B244" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -10439,13 +10369,13 @@
       <c r="H244" s="2"/>
       <c r="I244" s="2"/>
     </row>
-    <row r="245" spans="1:9" ht="11.25" customHeight="1">
+    <row r="245" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
       <c r="B245" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -10454,13 +10384,13 @@
       <c r="H245" s="2"/>
       <c r="I245" s="2"/>
     </row>
-    <row r="246" spans="1:9" ht="11.25" customHeight="1">
+    <row r="246" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="B246" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C246" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -10469,13 +10399,13 @@
       <c r="H246" s="2"/>
       <c r="I246" s="2"/>
     </row>
-    <row r="247" spans="1:9" ht="11.25" customHeight="1">
+    <row r="247" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="B247" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -10484,13 +10414,13 @@
       <c r="H247" s="2"/>
       <c r="I247" s="2"/>
     </row>
-    <row r="248" spans="1:9" ht="11.25" customHeight="1">
+    <row r="248" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
       <c r="B248" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -10499,28 +10429,28 @@
       <c r="H248" s="2"/>
       <c r="I248" s="2"/>
     </row>
-    <row r="249" spans="1:9" ht="11.25" customHeight="1">
+    <row r="249" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C249" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="D249" s="27"/>
+        <v>218</v>
+      </c>
+      <c r="C249" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D249" s="18"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
       <c r="H249" s="2"/>
       <c r="I249" s="2"/>
     </row>
-    <row r="250" spans="1:9" ht="11.25" customHeight="1">
+    <row r="250" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
       <c r="B250" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -10531,13 +10461,13 @@
       <c r="H250" s="2"/>
       <c r="I250" s="2"/>
     </row>
-    <row r="251" spans="1:9" ht="11.25" customHeight="1">
+    <row r="251" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="B251" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -10546,13 +10476,13 @@
       <c r="H251" s="2"/>
       <c r="I251" s="2"/>
     </row>
-    <row r="252" spans="1:9" ht="11.25" customHeight="1">
+    <row r="252" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
       <c r="B252" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -10561,13 +10491,13 @@
       <c r="H252" s="2"/>
       <c r="I252" s="2"/>
     </row>
-    <row r="253" spans="1:9" ht="11.25" customHeight="1">
+    <row r="253" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
       <c r="B253" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" s="7" t="s">
@@ -10578,13 +10508,13 @@
       <c r="H253" s="2"/>
       <c r="I253" s="2"/>
     </row>
-    <row r="254" spans="1:9" ht="11.25" customHeight="1">
+    <row r="254" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
       <c r="B254" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -10593,13 +10523,13 @@
       <c r="H254" s="2"/>
       <c r="I254" s="2"/>
     </row>
-    <row r="255" spans="1:9" ht="11.25" customHeight="1">
+    <row r="255" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
       <c r="B255" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -10608,7 +10538,7 @@
       <c r="H255" s="2"/>
       <c r="I255" s="2"/>
     </row>
-    <row r="256" spans="1:9" ht="11.25" customHeight="1">
+    <row r="256" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -10619,11 +10549,11 @@
       <c r="H256" s="2"/>
       <c r="I256" s="2"/>
     </row>
-    <row r="257" spans="1:9" ht="11.25" customHeight="1">
+    <row r="257" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -10632,13 +10562,13 @@
       <c r="H257" s="2"/>
       <c r="I257" s="2"/>
     </row>
-    <row r="258" spans="1:9" ht="11.25" customHeight="1">
+    <row r="258" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
       <c r="B258" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -10647,13 +10577,13 @@
       <c r="H258" s="2"/>
       <c r="I258" s="2"/>
     </row>
-    <row r="259" spans="1:9" ht="11.25" customHeight="1">
+    <row r="259" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
       <c r="B259" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -10664,13 +10594,13 @@
       <c r="H259" s="2"/>
       <c r="I259" s="2"/>
     </row>
-    <row r="260" spans="1:9" ht="11.25" customHeight="1">
+    <row r="260" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
       <c r="B260" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -10681,13 +10611,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="11.25" customHeight="1">
+    <row r="261" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
       <c r="B261" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -10698,13 +10628,13 @@
       </c>
       <c r="I261" s="2"/>
     </row>
-    <row r="262" spans="1:9" ht="11.25" customHeight="1">
+    <row r="262" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
       <c r="B262" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -10713,13 +10643,13 @@
       <c r="H262" s="2"/>
       <c r="I262" s="2"/>
     </row>
-    <row r="263" spans="1:9" ht="11.25" customHeight="1">
+    <row r="263" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
       <c r="B263" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -10728,13 +10658,13 @@
       <c r="H263" s="2"/>
       <c r="I263" s="2"/>
     </row>
-    <row r="264" spans="1:9" ht="11.25" customHeight="1">
+    <row r="264" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
       <c r="B264" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="7" t="s">
@@ -10745,13 +10675,13 @@
       <c r="H264" s="2"/>
       <c r="I264" s="2"/>
     </row>
-    <row r="265" spans="1:9" ht="11.25" customHeight="1">
+    <row r="265" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
       <c r="B265" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" s="7" t="s">
@@ -10762,13 +10692,13 @@
       <c r="H265" s="2"/>
       <c r="I265" s="2"/>
     </row>
-    <row r="266" spans="1:9" ht="11.25" customHeight="1">
+    <row r="266" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
       <c r="B266" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -10779,13 +10709,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="11.25" customHeight="1">
+    <row r="267" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
       <c r="B267" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="7" t="s">
@@ -10798,13 +10728,13 @@
       </c>
       <c r="I267" s="2"/>
     </row>
-    <row r="268" spans="1:9" ht="11.25" customHeight="1">
+    <row r="268" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
       <c r="B268" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -10815,13 +10745,13 @@
       </c>
       <c r="I268" s="2"/>
     </row>
-    <row r="269" spans="1:9" ht="11.25" customHeight="1">
+    <row r="269" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
       <c r="B269" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -10830,13 +10760,13 @@
       <c r="H269" s="2"/>
       <c r="I269" s="2"/>
     </row>
-    <row r="270" spans="1:9" ht="11.25" customHeight="1">
+    <row r="270" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
       <c r="B270" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -10847,13 +10777,13 @@
       </c>
       <c r="I270" s="2"/>
     </row>
-    <row r="271" spans="1:9" ht="11.25" customHeight="1">
+    <row r="271" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
       <c r="B271" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -10864,13 +10794,13 @@
       <c r="H271" s="2"/>
       <c r="I271" s="2"/>
     </row>
-    <row r="272" spans="1:9" ht="11.25" customHeight="1">
+    <row r="272" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
       <c r="B272" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -10879,13 +10809,13 @@
       <c r="H272" s="2"/>
       <c r="I272" s="2"/>
     </row>
-    <row r="273" spans="1:9" ht="11.25" customHeight="1">
+    <row r="273" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
       <c r="B273" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -10894,13 +10824,13 @@
       <c r="H273" s="2"/>
       <c r="I273" s="2"/>
     </row>
-    <row r="274" spans="1:9" ht="11.25" customHeight="1">
+    <row r="274" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
       <c r="B274" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -10909,13 +10839,13 @@
       <c r="H274" s="2"/>
       <c r="I274" s="2"/>
     </row>
-    <row r="275" spans="1:9" ht="11.25" customHeight="1">
+    <row r="275" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -10924,13 +10854,13 @@
       <c r="H275" s="2"/>
       <c r="I275" s="2"/>
     </row>
-    <row r="276" spans="1:9" ht="11.25" customHeight="1">
+    <row r="276" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -10941,13 +10871,13 @@
       </c>
       <c r="I276" s="2"/>
     </row>
-    <row r="277" spans="1:9" ht="11.25" customHeight="1">
+    <row r="277" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
       <c r="B277" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -10956,13 +10886,13 @@
       <c r="H277" s="2"/>
       <c r="I277" s="2"/>
     </row>
-    <row r="278" spans="1:9" ht="11.25" customHeight="1">
+    <row r="278" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
       <c r="B278" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -10971,13 +10901,13 @@
       <c r="H278" s="2"/>
       <c r="I278" s="2"/>
     </row>
-    <row r="279" spans="1:9" ht="11.25" customHeight="1">
+    <row r="279" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
       <c r="B279" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -10988,13 +10918,13 @@
       <c r="H279" s="2"/>
       <c r="I279" s="2"/>
     </row>
-    <row r="280" spans="1:9" ht="11.25" customHeight="1">
+    <row r="280" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
       <c r="B280" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -11003,15 +10933,15 @@
       <c r="H280" s="2"/>
       <c r="I280" s="2"/>
     </row>
-    <row r="281" spans="1:9" ht="11.25" customHeight="1">
+    <row r="281" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
       <c r="B281" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C281" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="D281" s="27"/>
+      <c r="C281" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D281" s="18"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
@@ -11020,13 +10950,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="11.25" customHeight="1">
+    <row r="282" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="B282" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="7" t="s">
@@ -11037,13 +10967,13 @@
       <c r="H282" s="2"/>
       <c r="I282" s="2"/>
     </row>
-    <row r="283" spans="1:9" ht="11.25" customHeight="1">
+    <row r="283" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
       <c r="B283" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" s="7" t="s">
@@ -11054,13 +10984,13 @@
       <c r="H283" s="2"/>
       <c r="I283" s="2"/>
     </row>
-    <row r="284" spans="1:9" ht="11.25" customHeight="1">
+    <row r="284" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
       <c r="B284" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" s="7" t="s">
@@ -11071,13 +11001,13 @@
       <c r="H284" s="2"/>
       <c r="I284" s="2"/>
     </row>
-    <row r="285" spans="1:9" ht="11.25" customHeight="1">
+    <row r="285" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2"/>
       <c r="B285" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="7" t="s">
@@ -11088,13 +11018,13 @@
       <c r="H285" s="2"/>
       <c r="I285" s="2"/>
     </row>
-    <row r="286" spans="1:9" ht="11.25" customHeight="1">
+    <row r="286" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="2"/>
       <c r="B286" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -11103,13 +11033,13 @@
       <c r="H286" s="2"/>
       <c r="I286" s="2"/>
     </row>
-    <row r="287" spans="1:9" ht="11.25" customHeight="1">
+    <row r="287" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
       <c r="B287" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -11118,7 +11048,7 @@
       <c r="H287" s="2"/>
       <c r="I287" s="2"/>
     </row>
-    <row r="288" spans="1:9" ht="11.25" customHeight="1">
+    <row r="288" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -11131,11 +11061,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="11.25" customHeight="1">
+    <row r="289" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="8" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -11144,7 +11074,7 @@
       <c r="H289" s="2"/>
       <c r="I289" s="2"/>
     </row>
-    <row r="290" spans="1:9" ht="11.25" customHeight="1">
+    <row r="290" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2"/>
       <c r="B290" s="6" t="s">
         <v>16</v>
@@ -11161,13 +11091,13 @@
       </c>
       <c r="I290" s="2"/>
     </row>
-    <row r="291" spans="1:9" ht="11.25" customHeight="1">
+    <row r="291" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="2"/>
       <c r="B291" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -11176,13 +11106,13 @@
       <c r="H291" s="2"/>
       <c r="I291" s="2"/>
     </row>
-    <row r="292" spans="1:9" ht="11.25" customHeight="1">
+    <row r="292" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
       <c r="B292" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -11191,7 +11121,7 @@
       <c r="H292" s="2"/>
       <c r="I292" s="2"/>
     </row>
-    <row r="293" spans="1:9" ht="11.25" customHeight="1">
+    <row r="293" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -11202,7 +11132,7 @@
       <c r="H293" s="2"/>
       <c r="I293" s="2"/>
     </row>
-    <row r="294" spans="1:9" ht="11.25" customHeight="1">
+    <row r="294" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -11213,11 +11143,11 @@
       <c r="H294" s="2"/>
       <c r="I294" s="2"/>
     </row>
-    <row r="295" spans="1:9" ht="11.25" customHeight="1">
+    <row r="295" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -11226,13 +11156,13 @@
       <c r="H295" s="2"/>
       <c r="I295" s="2"/>
     </row>
-    <row r="296" spans="1:9" ht="11.25" customHeight="1">
+    <row r="296" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
       <c r="B296" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -11241,28 +11171,28 @@
       <c r="H296" s="2"/>
       <c r="I296" s="2"/>
     </row>
-    <row r="297" spans="1:9" ht="11.25" customHeight="1">
+    <row r="297" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
       <c r="B297" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C297" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="D297" s="26"/>
-      <c r="E297" s="27"/>
+        <v>218</v>
+      </c>
+      <c r="C297" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D297" s="19"/>
+      <c r="E297" s="18"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
       <c r="I297" s="2"/>
     </row>
-    <row r="298" spans="1:9" ht="11.25" customHeight="1">
+    <row r="298" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
       <c r="B298" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -11273,13 +11203,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="11.25" customHeight="1">
+    <row r="299" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2"/>
       <c r="B299" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -11288,15 +11218,15 @@
       <c r="H299" s="2"/>
       <c r="I299" s="2"/>
     </row>
-    <row r="300" spans="1:9" ht="11.25" customHeight="1">
+    <row r="300" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2"/>
       <c r="B300" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C300" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="D300" s="27"/>
+        <v>218</v>
+      </c>
+      <c r="C300" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="D300" s="18"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
@@ -11305,13 +11235,13 @@
       </c>
       <c r="I300" s="2"/>
     </row>
-    <row r="301" spans="1:9" ht="11.25" customHeight="1">
+    <row r="301" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
       <c r="B301" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -11322,13 +11252,13 @@
       </c>
       <c r="I301" s="2"/>
     </row>
-    <row r="302" spans="1:9" ht="11.25" customHeight="1">
+    <row r="302" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
       <c r="B302" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -11339,13 +11269,13 @@
       </c>
       <c r="I302" s="2"/>
     </row>
-    <row r="303" spans="1:9" ht="11.25" customHeight="1">
+    <row r="303" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2"/>
       <c r="B303" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -11356,13 +11286,13 @@
       </c>
       <c r="I303" s="2"/>
     </row>
-    <row r="304" spans="1:9" ht="11.25" customHeight="1">
+    <row r="304" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2"/>
       <c r="B304" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -11371,13 +11301,13 @@
       <c r="H304" s="2"/>
       <c r="I304" s="2"/>
     </row>
-    <row r="305" spans="1:9" ht="11.25" customHeight="1">
+    <row r="305" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2"/>
       <c r="B305" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -11386,7 +11316,7 @@
       <c r="H305" s="2"/>
       <c r="I305" s="2"/>
     </row>
-    <row r="306" spans="1:9" ht="11.25" customHeight="1">
+    <row r="306" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -11399,7 +11329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="11.25" customHeight="1">
+    <row r="307" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -11410,11 +11340,11 @@
       <c r="H307" s="2"/>
       <c r="I307" s="2"/>
     </row>
-    <row r="308" spans="1:9" ht="11.25" customHeight="1">
+    <row r="308" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
-      <c r="C308" s="16" t="s">
-        <v>283</v>
+      <c r="C308" s="15" t="s">
+        <v>278</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -11423,13 +11353,13 @@
       <c r="H308" s="2"/>
       <c r="I308" s="2"/>
     </row>
-    <row r="309" spans="1:9" ht="11.25" customHeight="1">
+    <row r="309" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2"/>
       <c r="B309" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -11438,13 +11368,13 @@
       <c r="H309" s="2"/>
       <c r="I309" s="2"/>
     </row>
-    <row r="310" spans="1:9" ht="11.25" customHeight="1">
+    <row r="310" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="2"/>
       <c r="B310" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -11453,13 +11383,13 @@
       <c r="H310" s="2"/>
       <c r="I310" s="2"/>
     </row>
-    <row r="311" spans="1:9" ht="11.25" customHeight="1">
+    <row r="311" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2"/>
       <c r="B311" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>12</v>
@@ -11472,13 +11402,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="11.25" customHeight="1">
+    <row r="312" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2"/>
       <c r="B312" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -11487,13 +11417,13 @@
       <c r="H312" s="2"/>
       <c r="I312" s="2"/>
     </row>
-    <row r="313" spans="1:9" ht="11.25" customHeight="1">
+    <row r="313" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="2"/>
       <c r="B313" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -11502,13 +11432,13 @@
       <c r="H313" s="2"/>
       <c r="I313" s="2"/>
     </row>
-    <row r="314" spans="1:9" ht="11.25" customHeight="1">
+    <row r="314" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="2"/>
       <c r="B314" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -11517,13 +11447,13 @@
       <c r="H314" s="2"/>
       <c r="I314" s="2"/>
     </row>
-    <row r="315" spans="1:9" ht="11.25" customHeight="1">
+    <row r="315" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="2"/>
       <c r="B315" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -11534,13 +11464,13 @@
       </c>
       <c r="I315" s="2"/>
     </row>
-    <row r="316" spans="1:9" ht="11.25" customHeight="1">
+    <row r="316" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="2"/>
       <c r="B316" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -11549,13 +11479,13 @@
       <c r="H316" s="2"/>
       <c r="I316" s="2"/>
     </row>
-    <row r="317" spans="1:9" ht="11.25" customHeight="1">
+    <row r="317" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="2"/>
       <c r="B317" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>12</v>
@@ -11566,13 +11496,13 @@
       <c r="H317" s="2"/>
       <c r="I317" s="2"/>
     </row>
-    <row r="318" spans="1:9" ht="11.25" customHeight="1">
+    <row r="318" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="2"/>
       <c r="B318" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -11583,13 +11513,13 @@
       <c r="H318" s="2"/>
       <c r="I318" s="2"/>
     </row>
-    <row r="319" spans="1:9" ht="11.25" customHeight="1">
+    <row r="319" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="2"/>
       <c r="B319" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -11598,13 +11528,13 @@
       <c r="H319" s="2"/>
       <c r="I319" s="2"/>
     </row>
-    <row r="320" spans="1:9" ht="11.25" customHeight="1">
+    <row r="320" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="2"/>
       <c r="B320" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -11615,28 +11545,28 @@
       </c>
       <c r="I320" s="2"/>
     </row>
-    <row r="321" spans="1:9" ht="11.25" customHeight="1">
+    <row r="321" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="2"/>
       <c r="B321" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C321" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="D321" s="27"/>
+      <c r="C321" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="D321" s="18"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
       <c r="H321" s="2"/>
       <c r="I321" s="2"/>
     </row>
-    <row r="322" spans="1:9" ht="11.25" customHeight="1">
+    <row r="322" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="2"/>
       <c r="B322" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -11647,13 +11577,13 @@
       </c>
       <c r="I322" s="2"/>
     </row>
-    <row r="323" spans="1:9" ht="11.25" customHeight="1">
+    <row r="323" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="2"/>
       <c r="B323" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -11664,13 +11594,13 @@
       </c>
       <c r="I323" s="2"/>
     </row>
-    <row r="324" spans="1:9" ht="11.25" customHeight="1">
+    <row r="324" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="2"/>
       <c r="B324" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="7" t="s">
@@ -11681,13 +11611,13 @@
       <c r="H324" s="2"/>
       <c r="I324" s="2"/>
     </row>
-    <row r="325" spans="1:9" ht="11.25" customHeight="1">
+    <row r="325" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2"/>
       <c r="B325" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -11696,13 +11626,13 @@
       <c r="H325" s="2"/>
       <c r="I325" s="2"/>
     </row>
-    <row r="326" spans="1:9" ht="11.25" customHeight="1">
+    <row r="326" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="2"/>
       <c r="B326" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -11711,7 +11641,7 @@
       <c r="H326" s="2"/>
       <c r="I326" s="2"/>
     </row>
-    <row r="327" spans="1:9" ht="11.25" customHeight="1">
+    <row r="327" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -11722,11 +11652,11 @@
       <c r="H327" s="2"/>
       <c r="I327" s="2"/>
     </row>
-    <row r="328" spans="1:9" ht="12.6" customHeight="1">
+    <row r="328" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -11735,13 +11665,13 @@
       <c r="H328" s="2"/>
       <c r="I328" s="2"/>
     </row>
-    <row r="329" spans="1:9" ht="11.25" customHeight="1">
+    <row r="329" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="2"/>
       <c r="B329" s="6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>12</v>
@@ -11752,13 +11682,13 @@
       <c r="H329" s="2"/>
       <c r="I329" s="2"/>
     </row>
-    <row r="330" spans="1:9" ht="11.25" customHeight="1">
+    <row r="330" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2"/>
       <c r="B330" s="6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -11769,13 +11699,13 @@
       <c r="H330" s="2"/>
       <c r="I330" s="2"/>
     </row>
-    <row r="331" spans="1:9" ht="11.25" customHeight="1">
+    <row r="331" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="2"/>
       <c r="B331" s="6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -11784,13 +11714,13 @@
       <c r="H331" s="2"/>
       <c r="I331" s="2"/>
     </row>
-    <row r="332" spans="1:9" ht="11.25" customHeight="1">
+    <row r="332" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="2"/>
       <c r="B332" s="6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -11801,7 +11731,7 @@
       </c>
       <c r="I332" s="2"/>
     </row>
-    <row r="333" spans="1:9" ht="11.25" customHeight="1">
+    <row r="333" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -11816,6 +11746,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C206:D206"/>
     <mergeCell ref="C281:D281"/>
     <mergeCell ref="C297:E297"/>
     <mergeCell ref="C300:D300"/>
@@ -11825,21 +11770,6 @@
     <mergeCell ref="C212:E212"/>
     <mergeCell ref="C230:D230"/>
     <mergeCell ref="C249:D249"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C84:D84"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://www.youtube.com/c/arshgoyal" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -11920,6 +11850,11 @@
     <hyperlink ref="C40" r:id="rId76" xr:uid="{15D14FAA-F7C9-42A9-89F1-CDFCC7ACA575}"/>
     <hyperlink ref="C41" r:id="rId77" xr:uid="{67A12604-D5DF-41E3-8A23-9CF5D5724B25}"/>
     <hyperlink ref="C42" r:id="rId78" xr:uid="{A42BB77C-8F45-45FC-97A7-9A31DDD4BA29}"/>
+    <hyperlink ref="C43" r:id="rId79" xr:uid="{FB00379F-FBB1-4E43-9A89-7F8B740A2876}"/>
+    <hyperlink ref="C44" r:id="rId80" xr:uid="{C918D62B-3903-401F-83B7-D4BE60B3D64D}"/>
+    <hyperlink ref="C46" r:id="rId81" xr:uid="{13A0FE93-8A3D-4041-B0BC-A6CFFBC2C462}"/>
+    <hyperlink ref="C48" r:id="rId82" xr:uid="{56046174-AB55-4FD6-99DC-0AE505461B2F}"/>
+    <hyperlink ref="C50" r:id="rId83" xr:uid="{D08F95A3-5C3E-4954-B805-17552150E695}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
+++ b/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODING\CrackYourInternship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE339BA2-93DE-4101-BA0B-C19618B5083E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED25902-B6AF-4504-8E05-963BD0BCE3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="326">
   <si>
     <r>
       <rPr>
@@ -849,196 +849,7 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>https://leetcode.com/problems/minimum-moves-to-equal-array-elements</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/add-binary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/maximum-product-of-three-numbers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/excel-sheet-column-title</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/happy-number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/palindrome-number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/missing-number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/reverse-integer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>https://leetcode.com/problems/power-of-two</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/max-points-on-a-line</t>
     </r>
     <r>
       <rPr>
@@ -5772,6 +5583,33 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/basic-calculator-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-moves-to-equal-array-elements/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-binary/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-product-of-three-numbers/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/excel-sheet-column-title/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/happy-number/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-number/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/missing-number/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-integer/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-points-on-a-line/</t>
   </si>
 </sst>
 </file>
@@ -6072,6 +5910,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6100,9 +5941,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6412,8 +6250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="161" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="170" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6470,7 +6308,7 @@
     </row>
     <row r="4" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -6512,10 +6350,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -6531,10 +6369,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>12</v>
@@ -6554,10 +6392,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>12</v>
@@ -6588,10 +6426,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>12</v>
@@ -6610,7 +6448,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -6629,7 +6467,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -6645,10 +6483,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -6664,10 +6502,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -6685,10 +6523,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -6704,10 +6542,10 @@
         <v>16</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -6725,10 +6563,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="10" t="s">
@@ -6744,10 +6582,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>12</v>
@@ -6905,10 +6743,10 @@
       <c r="B28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="21"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="10" t="s">
@@ -7039,10 +6877,10 @@
         <v>11</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -7075,10 +6913,10 @@
         <v>11</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -7096,10 +6934,10 @@
         <v>11</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -7115,10 +6953,10 @@
         <v>11</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>12</v>
@@ -7138,10 +6976,10 @@
         <v>16</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>12</v>
@@ -7159,10 +6997,10 @@
         <v>16</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -7180,10 +7018,10 @@
         <v>16</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>12</v>
@@ -7198,10 +7036,10 @@
       <c r="B45" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="25"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="7" t="s">
         <v>12</v>
       </c>
@@ -7217,11 +7055,11 @@
       <c r="B46" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="27" t="s">
-        <v>323</v>
+      <c r="C46" s="17" t="s">
+        <v>314</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>12</v>
@@ -7256,10 +7094,10 @@
         <v>16</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -7292,10 +7130,10 @@
         <v>16</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -7529,14 +7367,18 @@
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
+      <c r="A66" s="2">
+        <v>5</v>
+      </c>
       <c r="B66" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D66" s="2"/>
+      <c r="C66" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -7544,14 +7386,18 @@
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
+      <c r="A67" s="2">
+        <v>5</v>
+      </c>
       <c r="B67" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D67" s="2"/>
+      <c r="C67" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -7559,14 +7405,18 @@
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
+      <c r="A68" s="2">
+        <v>5</v>
+      </c>
       <c r="B68" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D68" s="2"/>
+      <c r="C68" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -7578,8 +7428,8 @@
       <c r="B69" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>52</v>
+      <c r="C69" s="16" t="s">
+        <v>320</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -7589,14 +7439,18 @@
       <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
+      <c r="A70" s="2">
+        <v>5</v>
+      </c>
       <c r="B70" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D70" s="2"/>
+      <c r="C70" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -7606,14 +7460,18 @@
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
+      <c r="A71" s="2">
+        <v>5</v>
+      </c>
       <c r="B71" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D71" s="2"/>
+      <c r="C71" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -7625,8 +7483,8 @@
       <c r="B72" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>55</v>
+      <c r="C72" s="16" t="s">
+        <v>323</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="10" t="s">
@@ -7638,14 +7496,18 @@
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
+      <c r="A73" s="2">
+        <v>5</v>
+      </c>
       <c r="B73" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" s="2"/>
+      <c r="C73" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -7658,7 +7520,7 @@
         <v>11</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -7672,8 +7534,8 @@
       <c r="B75" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>58</v>
+      <c r="C75" s="16" t="s">
+        <v>325</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -7688,7 +7550,7 @@
         <v>16</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -7705,7 +7567,7 @@
         <v>16</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -7729,7 +7591,7 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -7745,11 +7607,11 @@
       <c r="B80" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D80" s="26"/>
-      <c r="E80" s="23"/>
+      <c r="C80" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="27"/>
+      <c r="E80" s="24"/>
       <c r="F80" s="2"/>
       <c r="G80" s="11" t="s">
         <v>12</v>
@@ -7763,7 +7625,7 @@
         <v>11</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -7777,10 +7639,10 @@
       <c r="B82" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D82" s="23"/>
+      <c r="C82" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" s="24"/>
       <c r="E82" s="2"/>
       <c r="F82" s="11" t="s">
         <v>12</v>
@@ -7797,7 +7659,7 @@
         <v>11</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -7811,10 +7673,10 @@
       <c r="B84" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D84" s="23"/>
+      <c r="C84" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D84" s="24"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -7827,7 +7689,7 @@
         <v>16</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="8" t="s">
@@ -7844,7 +7706,7 @@
         <v>16</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -7858,10 +7720,10 @@
       <c r="B87" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C87" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D87" s="23"/>
+      <c r="C87" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D87" s="24"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -7876,7 +7738,7 @@
         <v>16</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -7890,10 +7752,10 @@
       <c r="B89" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D89" s="21"/>
+      <c r="C89" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D89" s="22"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="11" t="s">
@@ -7908,7 +7770,7 @@
         <v>28</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -7923,7 +7785,7 @@
         <v>28</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -7940,7 +7802,7 @@
         <v>28</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -7956,10 +7818,10 @@
       <c r="B93" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D93" s="23"/>
+      <c r="C93" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D93" s="24"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -7972,7 +7834,7 @@
         <v>28</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -7998,7 +7860,7 @@
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -8013,7 +7875,7 @@
         <v>11</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -8028,7 +7890,7 @@
         <v>11</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="11" t="s">
@@ -8045,7 +7907,7 @@
         <v>11</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -8062,7 +7924,7 @@
         <v>11</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -8077,7 +7939,7 @@
         <v>11</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -8092,7 +7954,7 @@
         <v>11</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -8109,7 +7971,7 @@
         <v>11</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -8128,7 +7990,7 @@
         <v>11</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -8143,7 +8005,7 @@
         <v>11</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -8159,11 +8021,11 @@
       <c r="B106" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C106" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D106" s="19"/>
-      <c r="E106" s="18"/>
+      <c r="C106" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D106" s="20"/>
+      <c r="E106" s="19"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -8175,7 +8037,7 @@
         <v>11</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -8194,7 +8056,7 @@
         <v>16</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -8209,7 +8071,7 @@
         <v>16</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -8224,7 +8086,7 @@
         <v>16</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -8241,7 +8103,7 @@
         <v>16</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -8256,7 +8118,7 @@
         <v>16</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -8271,7 +8133,7 @@
         <v>16</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -8288,7 +8150,7 @@
         <v>16</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -8305,7 +8167,7 @@
         <v>16</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -8320,7 +8182,7 @@
         <v>16</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -8335,7 +8197,7 @@
         <v>16</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -8350,7 +8212,7 @@
         <v>28</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -8365,7 +8227,7 @@
         <v>28</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -8382,7 +8244,7 @@
         <v>28</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -8399,7 +8261,7 @@
         <v>28</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -8414,7 +8276,7 @@
         <v>28</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -8438,7 +8300,7 @@
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="15" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -8453,7 +8315,7 @@
         <v>11</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -8468,7 +8330,7 @@
         <v>11</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="7" t="s">
@@ -8485,7 +8347,7 @@
         <v>11</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -8504,7 +8366,7 @@
         <v>11</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -8519,7 +8381,7 @@
         <v>11</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -8536,7 +8398,7 @@
         <v>11</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -8551,7 +8413,7 @@
         <v>16</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -8565,10 +8427,10 @@
       <c r="B132" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C132" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D132" s="21"/>
+      <c r="C132" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D132" s="22"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -8583,7 +8445,7 @@
         <v>16</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="7" t="s">
@@ -8600,7 +8462,7 @@
         <v>16</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -8617,7 +8479,7 @@
         <v>16</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -8634,7 +8496,7 @@
         <v>16</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -8649,7 +8511,7 @@
         <v>16</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="7" t="s">
@@ -8666,7 +8528,7 @@
         <v>16</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -8680,10 +8542,10 @@
       <c r="B139" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C139" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D139" s="18"/>
+      <c r="C139" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D139" s="19"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="7" t="s">
@@ -8700,7 +8562,7 @@
         <v>28</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -8717,7 +8579,7 @@
         <v>28</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -8743,7 +8605,7 @@
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="15" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -8758,7 +8620,7 @@
         <v>11</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -8773,7 +8635,7 @@
         <v>11</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -8790,7 +8652,7 @@
         <v>11</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -8809,7 +8671,7 @@
         <v>11</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -8824,7 +8686,7 @@
         <v>11</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>12</v>
@@ -8843,7 +8705,7 @@
         <v>11</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -8858,7 +8720,7 @@
         <v>11</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -8873,7 +8735,7 @@
         <v>11</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -8888,7 +8750,7 @@
         <v>11</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -8907,7 +8769,7 @@
         <v>11</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -8922,7 +8784,7 @@
         <v>11</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>12</v>
@@ -8939,7 +8801,7 @@
         <v>11</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -8954,7 +8816,7 @@
         <v>11</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -8969,7 +8831,7 @@
         <v>11</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -8988,7 +8850,7 @@
         <v>11</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -9005,7 +8867,7 @@
         <v>11</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -9020,7 +8882,7 @@
         <v>11</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -9035,7 +8897,7 @@
         <v>11</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -9050,7 +8912,7 @@
         <v>16</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -9065,7 +8927,7 @@
         <v>16</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -9080,7 +8942,7 @@
         <v>16</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -9095,7 +8957,7 @@
         <v>16</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -9112,7 +8974,7 @@
         <v>16</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="7" t="s">
@@ -9129,7 +8991,7 @@
         <v>16</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -9144,7 +9006,7 @@
         <v>16</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -9159,7 +9021,7 @@
         <v>16</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -9174,7 +9036,7 @@
         <v>16</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -9190,10 +9052,10 @@
       <c r="B171" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C171" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D171" s="18"/>
+      <c r="C171" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D171" s="19"/>
       <c r="E171" s="2"/>
       <c r="F171" s="6" t="s">
         <v>12</v>
@@ -9210,7 +9072,7 @@
         <v>16</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="7" t="s">
@@ -9231,7 +9093,7 @@
         <v>16</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -9248,7 +9110,7 @@
         <v>16</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -9269,7 +9131,7 @@
         <v>16</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -9284,7 +9146,7 @@
         <v>16</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -9298,10 +9160,10 @@
       <c r="B177" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C177" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D177" s="21"/>
+      <c r="C177" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D177" s="22"/>
       <c r="E177" s="2"/>
       <c r="F177" s="6" t="s">
         <v>12</v>
@@ -9316,7 +9178,7 @@
         <v>16</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="7" t="s">
@@ -9333,7 +9195,7 @@
         <v>16</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -9349,10 +9211,10 @@
       <c r="B180" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C180" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="D180" s="21"/>
+      <c r="C180" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D180" s="22"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
@@ -9365,7 +9227,7 @@
         <v>16</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -9384,7 +9246,7 @@
         <v>28</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -9399,7 +9261,7 @@
         <v>28</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -9416,7 +9278,7 @@
         <v>28</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -9433,7 +9295,7 @@
         <v>28</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -9452,7 +9314,7 @@
         <v>28</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -9469,7 +9331,7 @@
         <v>28</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -9486,7 +9348,7 @@
         <v>28</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -9503,7 +9365,7 @@
         <v>28</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -9518,7 +9380,7 @@
         <v>28</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -9535,7 +9397,7 @@
         <v>28</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -9559,7 +9421,7 @@
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="6" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -9574,7 +9436,7 @@
         <v>11</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -9591,7 +9453,7 @@
         <v>11</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="7" t="s">
@@ -9608,7 +9470,7 @@
         <v>11</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -9623,7 +9485,7 @@
         <v>11</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -9640,7 +9502,7 @@
         <v>11</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -9655,7 +9517,7 @@
         <v>11</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -9670,7 +9532,7 @@
         <v>11</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -9685,7 +9547,7 @@
         <v>16</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="7" t="s">
@@ -9702,7 +9564,7 @@
         <v>16</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="7" t="s">
@@ -9719,7 +9581,7 @@
         <v>16</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="7" t="s">
@@ -9736,7 +9598,7 @@
         <v>16</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="7" t="s">
@@ -9755,7 +9617,7 @@
         <v>16</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -9769,10 +9631,10 @@
       <c r="B206" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C206" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="D206" s="21"/>
+      <c r="C206" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D206" s="22"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
@@ -9785,7 +9647,7 @@
         <v>16</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="7" t="s">
@@ -9801,14 +9663,14 @@
       <c r="B208" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C208" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="D208" s="19"/>
-      <c r="E208" s="19"/>
-      <c r="F208" s="19"/>
-      <c r="G208" s="19"/>
-      <c r="H208" s="18"/>
+      <c r="C208" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D208" s="20"/>
+      <c r="E208" s="20"/>
+      <c r="F208" s="20"/>
+      <c r="G208" s="20"/>
+      <c r="H208" s="19"/>
       <c r="I208" s="2"/>
     </row>
     <row r="209" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9817,7 +9679,7 @@
         <v>16</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -9832,7 +9694,7 @@
         <v>16</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -9846,11 +9708,11 @@
       <c r="B211" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C211" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D211" s="19"/>
-      <c r="E211" s="18"/>
+      <c r="C211" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D211" s="20"/>
+      <c r="E211" s="19"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
@@ -9861,11 +9723,11 @@
       <c r="B212" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C212" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D212" s="19"/>
-      <c r="E212" s="18"/>
+      <c r="C212" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D212" s="20"/>
+      <c r="E212" s="19"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
@@ -9877,7 +9739,7 @@
         <v>16</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -9894,7 +9756,7 @@
         <v>16</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -9909,7 +9771,7 @@
         <v>16</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -9924,7 +9786,7 @@
         <v>16</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -9939,7 +9801,7 @@
         <v>16</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -9956,7 +9818,7 @@
         <v>16</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -9975,7 +9837,7 @@
         <v>16</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -9990,7 +9852,7 @@
         <v>16</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -10005,7 +9867,7 @@
         <v>28</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="7" t="s">
@@ -10022,7 +9884,7 @@
         <v>28</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -10037,7 +9899,7 @@
         <v>28</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -10056,7 +9918,7 @@
         <v>28</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -10073,7 +9935,7 @@
         <v>28</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -10083,7 +9945,7 @@
       </c>
       <c r="H225" s="2"/>
       <c r="I225" s="8" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10092,7 +9954,7 @@
         <v>28</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -10107,7 +9969,7 @@
         <v>28</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -10128,7 +9990,7 @@
         <v>28</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -10143,7 +10005,7 @@
         <v>28</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -10157,10 +10019,10 @@
       <c r="B230" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C230" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="D230" s="18"/>
+      <c r="C230" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D230" s="19"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
@@ -10182,7 +10044,7 @@
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="6" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -10197,7 +10059,7 @@
         <v>16</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -10212,7 +10074,7 @@
         <v>16</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="7" t="s">
@@ -10229,7 +10091,7 @@
         <v>16</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="7" t="s">
@@ -10246,7 +10108,7 @@
         <v>16</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="7" t="s">
@@ -10263,7 +10125,7 @@
         <v>28</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="7" t="s">
@@ -10280,7 +10142,7 @@
         <v>28</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -10304,7 +10166,7 @@
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="15" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -10327,10 +10189,10 @@
     <row r="242" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
       <c r="B242" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -10342,10 +10204,10 @@
     <row r="243" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -10357,10 +10219,10 @@
     <row r="244" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="B244" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -10372,10 +10234,10 @@
     <row r="245" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
       <c r="B245" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -10387,10 +10249,10 @@
     <row r="246" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="B246" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -10402,10 +10264,10 @@
     <row r="247" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="B247" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -10417,10 +10279,10 @@
     <row r="248" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
       <c r="B248" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -10432,12 +10294,12 @@
     <row r="249" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C249" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="D249" s="18"/>
+        <v>209</v>
+      </c>
+      <c r="C249" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="D249" s="19"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
@@ -10447,10 +10309,10 @@
     <row r="250" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
       <c r="B250" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C250" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -10464,10 +10326,10 @@
     <row r="251" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="B251" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -10482,7 +10344,7 @@
         <v>28</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -10497,7 +10359,7 @@
         <v>28</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" s="7" t="s">
@@ -10514,7 +10376,7 @@
         <v>28</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -10529,7 +10391,7 @@
         <v>28</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -10553,7 +10415,7 @@
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="6" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -10568,7 +10430,7 @@
         <v>11</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -10583,7 +10445,7 @@
         <v>11</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -10600,7 +10462,7 @@
         <v>11</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -10617,7 +10479,7 @@
         <v>11</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -10634,7 +10496,7 @@
         <v>16</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -10649,7 +10511,7 @@
         <v>16</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -10664,7 +10526,7 @@
         <v>16</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="7" t="s">
@@ -10681,7 +10543,7 @@
         <v>16</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" s="7" t="s">
@@ -10698,7 +10560,7 @@
         <v>16</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -10715,7 +10577,7 @@
         <v>16</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="7" t="s">
@@ -10734,7 +10596,7 @@
         <v>16</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -10751,7 +10613,7 @@
         <v>16</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -10766,7 +10628,7 @@
         <v>16</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -10783,7 +10645,7 @@
         <v>16</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -10800,7 +10662,7 @@
         <v>16</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -10815,7 +10677,7 @@
         <v>16</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -10830,7 +10692,7 @@
         <v>16</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -10845,7 +10707,7 @@
         <v>16</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -10860,7 +10722,7 @@
         <v>16</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -10877,7 +10739,7 @@
         <v>28</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -10892,7 +10754,7 @@
         <v>28</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -10907,7 +10769,7 @@
         <v>28</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -10924,7 +10786,7 @@
         <v>28</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -10938,10 +10800,10 @@
       <c r="B281" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C281" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="D281" s="18"/>
+      <c r="C281" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="D281" s="19"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
@@ -10956,7 +10818,7 @@
         <v>28</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="7" t="s">
@@ -10973,7 +10835,7 @@
         <v>28</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" s="7" t="s">
@@ -10990,7 +10852,7 @@
         <v>28</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" s="7" t="s">
@@ -11007,7 +10869,7 @@
         <v>28</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="7" t="s">
@@ -11024,7 +10886,7 @@
         <v>28</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -11039,7 +10901,7 @@
         <v>28</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -11065,7 +10927,7 @@
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="8" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -11097,7 +10959,7 @@
         <v>16</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -11112,7 +10974,7 @@
         <v>16</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -11147,7 +11009,7 @@
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="8" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -11159,10 +11021,10 @@
     <row r="296" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
       <c r="B296" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -11174,13 +11036,13 @@
     <row r="297" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
       <c r="B297" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C297" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="D297" s="19"/>
-      <c r="E297" s="18"/>
+        <v>209</v>
+      </c>
+      <c r="C297" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="D297" s="20"/>
+      <c r="E297" s="19"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
@@ -11189,10 +11051,10 @@
     <row r="298" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
       <c r="B298" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -11206,10 +11068,10 @@
     <row r="299" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2"/>
       <c r="B299" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -11221,12 +11083,12 @@
     <row r="300" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2"/>
       <c r="B300" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C300" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="D300" s="18"/>
+        <v>209</v>
+      </c>
+      <c r="C300" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="D300" s="19"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
@@ -11238,10 +11100,10 @@
     <row r="301" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
       <c r="B301" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -11255,10 +11117,10 @@
     <row r="302" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
       <c r="B302" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -11272,10 +11134,10 @@
     <row r="303" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2"/>
       <c r="B303" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -11289,10 +11151,10 @@
     <row r="304" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2"/>
       <c r="B304" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -11304,10 +11166,10 @@
     <row r="305" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2"/>
       <c r="B305" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -11344,7 +11206,7 @@
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="15" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -11359,7 +11221,7 @@
         <v>16</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -11374,7 +11236,7 @@
         <v>16</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -11389,7 +11251,7 @@
         <v>16</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>12</v>
@@ -11408,7 +11270,7 @@
         <v>16</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -11423,7 +11285,7 @@
         <v>16</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -11438,7 +11300,7 @@
         <v>16</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -11453,7 +11315,7 @@
         <v>16</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -11470,7 +11332,7 @@
         <v>16</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -11485,7 +11347,7 @@
         <v>28</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>12</v>
@@ -11502,7 +11364,7 @@
         <v>28</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -11519,7 +11381,7 @@
         <v>28</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -11534,7 +11396,7 @@
         <v>28</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -11550,10 +11412,10 @@
       <c r="B321" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C321" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="D321" s="18"/>
+      <c r="C321" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="D321" s="19"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
@@ -11566,7 +11428,7 @@
         <v>28</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -11583,7 +11445,7 @@
         <v>28</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -11600,7 +11462,7 @@
         <v>28</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="7" t="s">
@@ -11617,7 +11479,7 @@
         <v>28</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -11632,7 +11494,7 @@
         <v>28</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -11656,7 +11518,7 @@
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="9" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -11668,10 +11530,10 @@
     <row r="329" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="2"/>
       <c r="B329" s="6" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>12</v>
@@ -11685,10 +11547,10 @@
     <row r="330" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2"/>
       <c r="B330" s="6" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -11702,10 +11564,10 @@
     <row r="331" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="2"/>
       <c r="B331" s="6" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -11717,10 +11579,10 @@
     <row r="332" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="2"/>
       <c r="B332" s="6" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -11855,6 +11717,15 @@
     <hyperlink ref="C46" r:id="rId81" xr:uid="{13A0FE93-8A3D-4041-B0BC-A6CFFBC2C462}"/>
     <hyperlink ref="C48" r:id="rId82" xr:uid="{56046174-AB55-4FD6-99DC-0AE505461B2F}"/>
     <hyperlink ref="C50" r:id="rId83" xr:uid="{D08F95A3-5C3E-4954-B805-17552150E695}"/>
+    <hyperlink ref="C66" r:id="rId84" xr:uid="{9420457A-4A50-4D42-91EA-39929FC5C876}"/>
+    <hyperlink ref="C67" r:id="rId85" xr:uid="{16F31692-83C7-46A8-90EE-F180D4F50BFD}"/>
+    <hyperlink ref="C68" r:id="rId86" xr:uid="{6C01DAE1-BF89-45B3-8B0F-9622A8FF2B19}"/>
+    <hyperlink ref="C69" r:id="rId87" xr:uid="{7885B62F-03A7-4BA6-952D-8360CFCBEEFD}"/>
+    <hyperlink ref="C70" r:id="rId88" xr:uid="{14B111CE-AAF7-40BC-BF25-E3BAADCECB2F}"/>
+    <hyperlink ref="C71" r:id="rId89" xr:uid="{A56E2FCA-CF52-42FB-84AC-3870BA339135}"/>
+    <hyperlink ref="C72" r:id="rId90" xr:uid="{47F6A47E-DC06-4361-A0EE-009B428984A2}"/>
+    <hyperlink ref="C73" r:id="rId91" xr:uid="{7D908E6B-D573-4EE4-B539-ABF87DC8A0FB}"/>
+    <hyperlink ref="C75" r:id="rId92" xr:uid="{F728FF8C-30FA-4A04-AC32-5651BEF01613}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
+++ b/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODING\CrackYourInternship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED25902-B6AF-4504-8E05-963BD0BCE3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17311A9-B122-453D-8F7D-42E43F8136F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="326">
   <si>
     <r>
       <rPr>
@@ -843,69 +843,6 @@
   <si>
     <r>
       <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/power-of-two</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/valid-square</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/the-kth-factor-of-n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="7"/>
         <rFont val="Arial MT"/>
         <family val="2"/>
@@ -5610,13 +5547,22 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/max-points-on-a-line/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/power-of-two/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-square/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/the-kth-factor-of-n/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6250,11 +6196,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="170" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="190" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
@@ -6265,7 +6211,7 @@
     <col min="9" max="9" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="12.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6280,7 +6226,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="11.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6295,7 +6241,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="11.25" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -6306,9 +6252,9 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="12.95" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -6331,7 +6277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="12.6" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="9" t="s">
@@ -6344,16 +6290,16 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="11.25" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -6363,16 +6309,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="11.25" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>12</v>
@@ -6386,16 +6332,16 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="11.25" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>12</v>
@@ -6405,7 +6351,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="11.25" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
         <v>11</v>
@@ -6420,16 +6366,16 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="11.25" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>12</v>
@@ -6439,7 +6385,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="11.25" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
         <v>11</v>
@@ -6448,7 +6394,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -6458,7 +6404,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="11.25" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>11</v>
@@ -6467,7 +6413,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -6475,7 +6421,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="11.25" customHeight="1">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -6483,10 +6429,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -6494,7 +6440,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="11.25" customHeight="1">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -6502,10 +6448,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -6515,7 +6461,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="11.25" customHeight="1">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -6523,10 +6469,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -6534,7 +6480,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="11.25" customHeight="1">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -6542,10 +6488,10 @@
         <v>16</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -6555,7 +6501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="11.25" customHeight="1">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -6563,10 +6509,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="10" t="s">
@@ -6576,16 +6522,16 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="11.25" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>12</v>
@@ -6595,7 +6541,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="11.25" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="6" t="s">
         <v>16</v>
@@ -6612,7 +6558,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="11.25" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="6" t="s">
         <v>16</v>
@@ -6629,7 +6575,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="11.25" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="6" t="s">
         <v>16</v>
@@ -6646,7 +6592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="11.25" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="6" t="s">
         <v>16</v>
@@ -6661,7 +6607,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="11.25" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="6" t="s">
         <v>16</v>
@@ -6676,7 +6622,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="11.25" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="6" t="s">
         <v>16</v>
@@ -6691,7 +6637,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="11.25" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="6" t="s">
         <v>16</v>
@@ -6706,7 +6652,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="11.25" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="6" t="s">
         <v>16</v>
@@ -6721,7 +6667,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="11.25" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="6" t="s">
         <v>16</v>
@@ -6738,7 +6684,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="11.25" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="6" t="s">
         <v>16</v>
@@ -6755,7 +6701,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="11.25" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="6" t="s">
         <v>16</v>
@@ -6772,7 +6718,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="11.25" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="6" t="s">
         <v>28</v>
@@ -6789,7 +6735,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="11.25" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="6" t="s">
         <v>28</v>
@@ -6804,7 +6750,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="11.25" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="6" t="s">
         <v>28</v>
@@ -6819,7 +6765,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="11.25" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="6" t="s">
         <v>28</v>
@@ -6834,7 +6780,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="11.25" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -6845,7 +6791,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="11.25" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -6856,7 +6802,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="11.25" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="6" t="s">
@@ -6869,7 +6815,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="11.25" customHeight="1">
       <c r="A37" s="2">
         <v>3</v>
       </c>
@@ -6877,10 +6823,10 @@
         <v>11</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -6890,7 +6836,7 @@
       </c>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="11.25" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="6" t="s">
         <v>11</v>
@@ -6905,7 +6851,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="11.25" customHeight="1">
       <c r="A39" s="2">
         <v>3</v>
       </c>
@@ -6913,10 +6859,10 @@
         <v>11</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -6926,7 +6872,7 @@
       </c>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="11.25" customHeight="1">
       <c r="A40" s="2">
         <v>3</v>
       </c>
@@ -6934,10 +6880,10 @@
         <v>11</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -6945,7 +6891,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="11.25" customHeight="1">
       <c r="A41" s="2">
         <v>3</v>
       </c>
@@ -6953,10 +6899,10 @@
         <v>11</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>12</v>
@@ -6968,7 +6914,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="11.25" customHeight="1">
       <c r="A42" s="2">
         <v>3</v>
       </c>
@@ -6976,10 +6922,10 @@
         <v>16</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>12</v>
@@ -6989,7 +6935,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="11.25" customHeight="1">
       <c r="A43" s="2">
         <v>4</v>
       </c>
@@ -6997,10 +6943,10 @@
         <v>16</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -7010,7 +6956,7 @@
       </c>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="11.25" customHeight="1">
       <c r="A44" s="2">
         <v>4</v>
       </c>
@@ -7018,10 +6964,10 @@
         <v>16</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>12</v>
@@ -7031,7 +6977,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="11.25" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="12" t="s">
         <v>16</v>
@@ -7048,7 +6994,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="11.25" customHeight="1">
       <c r="A46" s="2">
         <v>4</v>
       </c>
@@ -7056,10 +7002,10 @@
         <v>16</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>12</v>
@@ -7069,7 +7015,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="11.25" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="12" t="s">
         <v>16</v>
@@ -7086,7 +7032,7 @@
       </c>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="11.25" customHeight="1">
       <c r="A48" s="2">
         <v>4</v>
       </c>
@@ -7094,10 +7040,10 @@
         <v>16</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -7105,7 +7051,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="11.25" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="12" t="s">
         <v>16</v>
@@ -7122,7 +7068,7 @@
       </c>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="11.25" customHeight="1">
       <c r="A50" s="2">
         <v>4</v>
       </c>
@@ -7130,10 +7076,10 @@
         <v>16</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -7141,7 +7087,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="11.25" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="6" t="s">
         <v>28</v>
@@ -7158,7 +7104,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="11.25" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="6" t="s">
         <v>28</v>
@@ -7173,7 +7119,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="11.25" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="6" t="s">
         <v>28</v>
@@ -7190,7 +7136,7 @@
       </c>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="11.25" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="6" t="s">
         <v>28</v>
@@ -7205,7 +7151,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="11.25" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="6" t="s">
         <v>28</v>
@@ -7222,7 +7168,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="11.25" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="6" t="s">
         <v>28</v>
@@ -7237,7 +7183,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="11.25" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -7248,7 +7194,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="11.25" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="8" t="s">
@@ -7261,7 +7207,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="11.25" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="12" t="s">
         <v>16</v>
@@ -7276,7 +7222,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="11.25" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="12" t="s">
         <v>16</v>
@@ -7291,7 +7237,7 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="11.25" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="12" t="s">
         <v>16</v>
@@ -7306,7 +7252,7 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="11.25" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="12" t="s">
         <v>16</v>
@@ -7323,7 +7269,7 @@
       </c>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="11.25" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" s="12" t="s">
         <v>16</v>
@@ -7340,7 +7286,7 @@
       </c>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="11.25" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -7353,7 +7299,7 @@
       </c>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="11.25" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="6" t="s">
@@ -7366,7 +7312,7 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="11.25" customHeight="1">
       <c r="A66" s="2">
         <v>5</v>
       </c>
@@ -7374,10 +7320,10 @@
         <v>11</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -7385,7 +7331,7 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="11.25" customHeight="1">
       <c r="A67" s="2">
         <v>5</v>
       </c>
@@ -7393,10 +7339,10 @@
         <v>11</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -7404,7 +7350,7 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="11.25" customHeight="1">
       <c r="A68" s="2">
         <v>5</v>
       </c>
@@ -7412,10 +7358,10 @@
         <v>11</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -7423,22 +7369,26 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
+    <row r="69" spans="1:9" ht="11.25" customHeight="1">
+      <c r="A69" s="2">
+        <v>6</v>
+      </c>
       <c r="B69" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="D69" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="11.25" customHeight="1">
       <c r="A70" s="2">
         <v>5</v>
       </c>
@@ -7446,10 +7396,10 @@
         <v>11</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -7459,7 +7409,7 @@
       </c>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="11.25" customHeight="1">
       <c r="A71" s="2">
         <v>5</v>
       </c>
@@ -7467,10 +7417,10 @@
         <v>11</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -7478,15 +7428,19 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
+    <row r="72" spans="1:9" ht="11.25" customHeight="1">
+      <c r="A72" s="2">
+        <v>6</v>
+      </c>
       <c r="B72" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D72" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="E72" s="10" t="s">
         <v>12</v>
       </c>
@@ -7495,7 +7449,7 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="11.25" customHeight="1">
       <c r="A73" s="2">
         <v>5</v>
       </c>
@@ -7503,10 +7457,10 @@
         <v>11</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -7514,45 +7468,57 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
+    <row r="74" spans="1:9" ht="11.25" customHeight="1">
+      <c r="A74" s="2">
+        <v>6</v>
+      </c>
       <c r="B74" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" s="2"/>
+      <c r="C74" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
+    <row r="75" spans="1:9" ht="11.25" customHeight="1">
+      <c r="A75" s="2">
+        <v>6</v>
+      </c>
       <c r="B75" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="D75" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
+    <row r="76" spans="1:9" ht="11.25" customHeight="1">
+      <c r="A76" s="2">
+        <v>6</v>
+      </c>
       <c r="B76" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D76" s="2"/>
+      <c r="C76" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -7561,22 +7527,26 @@
       </c>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
+    <row r="77" spans="1:9" ht="11.25" customHeight="1">
+      <c r="A77" s="2">
+        <v>6</v>
+      </c>
       <c r="B77" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D77" s="2"/>
+      <c r="C77" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="11.25" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -7587,11 +7557,11 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="11.25" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -7602,13 +7572,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="12.95" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D80" s="27"/>
       <c r="E80" s="24"/>
@@ -7619,13 +7589,13 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="11.25" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -7634,13 +7604,13 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="12.95" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D82" s="24"/>
       <c r="E82" s="2"/>
@@ -7653,13 +7623,13 @@
       </c>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="11.25" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -7668,13 +7638,13 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="12.95" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D84" s="24"/>
       <c r="E84" s="2"/>
@@ -7683,13 +7653,13 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="12.95" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="8" t="s">
@@ -7700,13 +7670,13 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="11.25" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -7715,13 +7685,13 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="12.95" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D87" s="24"/>
       <c r="E87" s="2"/>
@@ -7732,13 +7702,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="12.95" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -7747,13 +7717,13 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="11.25" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D89" s="22"/>
       <c r="E89" s="2"/>
@@ -7764,13 +7734,13 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="11.25" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -7779,13 +7749,13 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="11.25" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -7796,13 +7766,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="12.95" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -7813,13 +7783,13 @@
       </c>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="12.95" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D93" s="24"/>
       <c r="E93" s="2"/>
@@ -7828,13 +7798,13 @@
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="12.95" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -7845,7 +7815,7 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="11.25" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -7856,11 +7826,11 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="11.25" customHeight="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -7869,13 +7839,13 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="11.25" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -7884,13 +7854,13 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="11.25" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="11" t="s">
@@ -7901,13 +7871,13 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="11.25" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -7918,13 +7888,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="11.25" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -7933,13 +7903,13 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="11.25" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -7948,13 +7918,13 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="11.25" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -7965,13 +7935,13 @@
       </c>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="11.25" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -7984,13 +7954,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="11.25" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -7999,13 +7969,13 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="11.25" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -8016,13 +7986,13 @@
       </c>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="11.25" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D106" s="20"/>
       <c r="E106" s="19"/>
@@ -8031,13 +8001,13 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="11.25" customHeight="1">
       <c r="A107" s="2"/>
       <c r="B107" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -8050,13 +8020,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="11.25" customHeight="1">
       <c r="A108" s="2"/>
       <c r="B108" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -8065,13 +8035,13 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="11.25" customHeight="1">
       <c r="A109" s="2"/>
       <c r="B109" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -8080,13 +8050,13 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="11.25" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -8097,13 +8067,13 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="11.25" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -8112,13 +8082,13 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="11.25" customHeight="1">
       <c r="A112" s="2"/>
       <c r="B112" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -8127,13 +8097,13 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="11.25" customHeight="1">
       <c r="A113" s="2"/>
       <c r="B113" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -8144,13 +8114,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="11.25" customHeight="1">
       <c r="A114" s="2"/>
       <c r="B114" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -8161,13 +8131,13 @@
       </c>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="11.25" customHeight="1">
       <c r="A115" s="2"/>
       <c r="B115" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -8176,13 +8146,13 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="11.25" customHeight="1">
       <c r="A116" s="2"/>
       <c r="B116" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -8191,13 +8161,13 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="11.25" customHeight="1">
       <c r="A117" s="2"/>
       <c r="B117" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -8206,13 +8176,13 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="11.25" customHeight="1">
       <c r="A118" s="2"/>
       <c r="B118" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -8221,13 +8191,13 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="11.25" customHeight="1">
       <c r="A119" s="2"/>
       <c r="B119" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -8238,13 +8208,13 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="11.25" customHeight="1">
       <c r="A120" s="2"/>
       <c r="B120" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -8255,13 +8225,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="11.25" customHeight="1">
       <c r="A121" s="2"/>
       <c r="B121" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -8270,13 +8240,13 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="11.25" customHeight="1">
       <c r="A122" s="2"/>
       <c r="B122" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -8285,7 +8255,7 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="11.25" customHeight="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -8296,11 +8266,11 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="11.25" customHeight="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -8309,13 +8279,13 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="11.25" customHeight="1">
       <c r="A125" s="2"/>
       <c r="B125" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -8324,13 +8294,13 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="11.25" customHeight="1">
       <c r="A126" s="2"/>
       <c r="B126" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="7" t="s">
@@ -8341,13 +8311,13 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="11.25" customHeight="1">
       <c r="A127" s="2"/>
       <c r="B127" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -8360,13 +8330,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="11.25" customHeight="1">
       <c r="A128" s="2"/>
       <c r="B128" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -8375,13 +8345,13 @@
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="11.25" customHeight="1">
       <c r="A129" s="2"/>
       <c r="B129" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -8392,13 +8362,13 @@
       </c>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="11.25" customHeight="1">
       <c r="A130" s="2"/>
       <c r="B130" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -8407,13 +8377,13 @@
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="11.25" customHeight="1">
       <c r="A131" s="2"/>
       <c r="B131" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -8422,13 +8392,13 @@
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="11.25" customHeight="1">
       <c r="A132" s="2"/>
       <c r="B132" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D132" s="22"/>
       <c r="E132" s="2"/>
@@ -8439,13 +8409,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="11.25" customHeight="1">
       <c r="A133" s="2"/>
       <c r="B133" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="7" t="s">
@@ -8456,13 +8426,13 @@
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="11.25" customHeight="1">
       <c r="A134" s="2"/>
       <c r="B134" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -8473,13 +8443,13 @@
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="11.25" customHeight="1">
       <c r="A135" s="2"/>
       <c r="B135" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -8490,13 +8460,13 @@
       </c>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="11.25" customHeight="1">
       <c r="A136" s="2"/>
       <c r="B136" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -8505,13 +8475,13 @@
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
     </row>
-    <row r="137" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="11.25" customHeight="1">
       <c r="A137" s="2"/>
       <c r="B137" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="7" t="s">
@@ -8522,13 +8492,13 @@
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="11.25" customHeight="1">
       <c r="A138" s="2"/>
       <c r="B138" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -8537,13 +8507,13 @@
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="11.25" customHeight="1">
       <c r="A139" s="2"/>
       <c r="B139" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D139" s="19"/>
       <c r="E139" s="2"/>
@@ -8556,13 +8526,13 @@
       </c>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="11.25" customHeight="1">
       <c r="A140" s="2"/>
       <c r="B140" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -8573,13 +8543,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="11.25" customHeight="1">
       <c r="A141" s="2"/>
       <c r="B141" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -8588,7 +8558,7 @@
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="11.25" customHeight="1">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -8601,11 +8571,11 @@
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="11.25" customHeight="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -8614,13 +8584,13 @@
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
     </row>
-    <row r="144" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="11.25" customHeight="1">
       <c r="A144" s="2"/>
       <c r="B144" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -8629,13 +8599,13 @@
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="11.25" customHeight="1">
       <c r="A145" s="2"/>
       <c r="B145" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -8646,13 +8616,13 @@
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="11.25" customHeight="1">
       <c r="A146" s="2"/>
       <c r="B146" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -8665,13 +8635,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="11.25" customHeight="1">
       <c r="A147" s="2"/>
       <c r="B147" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -8680,13 +8650,13 @@
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="11.25" customHeight="1">
       <c r="A148" s="2"/>
       <c r="B148" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>12</v>
@@ -8699,13 +8669,13 @@
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
     </row>
-    <row r="149" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="11.25" customHeight="1">
       <c r="A149" s="2"/>
       <c r="B149" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -8714,13 +8684,13 @@
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
     </row>
-    <row r="150" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" ht="11.25" customHeight="1">
       <c r="A150" s="2"/>
       <c r="B150" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -8729,13 +8699,13 @@
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
     </row>
-    <row r="151" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="11.25" customHeight="1">
       <c r="A151" s="2"/>
       <c r="B151" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -8744,13 +8714,13 @@
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
     </row>
-    <row r="152" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="11.25" customHeight="1">
       <c r="A152" s="2"/>
       <c r="B152" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -8763,13 +8733,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="11.25" customHeight="1">
       <c r="A153" s="2"/>
       <c r="B153" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -8778,13 +8748,13 @@
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
     </row>
-    <row r="154" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="11.25" customHeight="1">
       <c r="A154" s="2"/>
       <c r="B154" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>12</v>
@@ -8795,13 +8765,13 @@
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
     </row>
-    <row r="155" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="11.25" customHeight="1">
       <c r="A155" s="2"/>
       <c r="B155" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -8810,13 +8780,13 @@
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
     </row>
-    <row r="156" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="11.25" customHeight="1">
       <c r="A156" s="2"/>
       <c r="B156" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -8825,13 +8795,13 @@
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
     </row>
-    <row r="157" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="11.25" customHeight="1">
       <c r="A157" s="2"/>
       <c r="B157" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -8844,13 +8814,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="11.25" customHeight="1">
       <c r="A158" s="2"/>
       <c r="B158" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -8861,13 +8831,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="11.25" customHeight="1">
       <c r="A159" s="2"/>
       <c r="B159" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -8876,13 +8846,13 @@
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="11.25" customHeight="1">
       <c r="A160" s="2"/>
       <c r="B160" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -8891,13 +8861,13 @@
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
     </row>
-    <row r="161" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="11.25" customHeight="1">
       <c r="A161" s="2"/>
       <c r="B161" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -8906,13 +8876,13 @@
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
     </row>
-    <row r="162" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" ht="11.25" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -8921,13 +8891,13 @@
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
     </row>
-    <row r="163" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" ht="11.25" customHeight="1">
       <c r="A163" s="2"/>
       <c r="B163" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -8936,13 +8906,13 @@
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
     </row>
-    <row r="164" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" ht="11.25" customHeight="1">
       <c r="A164" s="2"/>
       <c r="B164" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -8951,13 +8921,13 @@
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
     </row>
-    <row r="165" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="11.25" customHeight="1">
       <c r="A165" s="2"/>
       <c r="B165" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -8968,13 +8938,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="11.25" customHeight="1">
       <c r="A166" s="2"/>
       <c r="B166" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="7" t="s">
@@ -8985,13 +8955,13 @@
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
     </row>
-    <row r="167" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="11.25" customHeight="1">
       <c r="A167" s="2"/>
       <c r="B167" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -9000,13 +8970,13 @@
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
     </row>
-    <row r="168" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="11.25" customHeight="1">
       <c r="A168" s="2"/>
       <c r="B168" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -9015,13 +8985,13 @@
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
     </row>
-    <row r="169" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="11.25" customHeight="1">
       <c r="A169" s="2"/>
       <c r="B169" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -9030,13 +9000,13 @@
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
     </row>
-    <row r="170" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="11.25" customHeight="1">
       <c r="A170" s="2"/>
       <c r="B170" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -9047,13 +9017,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="11.25" customHeight="1">
       <c r="A171" s="2"/>
       <c r="B171" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D171" s="19"/>
       <c r="E171" s="2"/>
@@ -9066,13 +9036,13 @@
       </c>
       <c r="I171" s="2"/>
     </row>
-    <row r="172" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="11.25" customHeight="1">
       <c r="A172" s="2"/>
       <c r="B172" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="7" t="s">
@@ -9087,13 +9057,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="11.25" customHeight="1">
       <c r="A173" s="2"/>
       <c r="B173" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -9104,13 +9074,13 @@
       </c>
       <c r="I173" s="2"/>
     </row>
-    <row r="174" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="11.25" customHeight="1">
       <c r="A174" s="2"/>
       <c r="B174" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -9125,13 +9095,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="11.25" customHeight="1">
       <c r="A175" s="2"/>
       <c r="B175" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -9140,13 +9110,13 @@
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
     </row>
-    <row r="176" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="11.25" customHeight="1">
       <c r="A176" s="2"/>
       <c r="B176" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -9155,13 +9125,13 @@
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
     </row>
-    <row r="177" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="11.25" customHeight="1">
       <c r="A177" s="2"/>
       <c r="B177" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D177" s="22"/>
       <c r="E177" s="2"/>
@@ -9172,13 +9142,13 @@
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
     </row>
-    <row r="178" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="11.25" customHeight="1">
       <c r="A178" s="2"/>
       <c r="B178" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="7" t="s">
@@ -9189,13 +9159,13 @@
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
     </row>
-    <row r="179" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" ht="11.25" customHeight="1">
       <c r="A179" s="2"/>
       <c r="B179" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -9206,13 +9176,13 @@
       </c>
       <c r="I179" s="2"/>
     </row>
-    <row r="180" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" ht="11.25" customHeight="1">
       <c r="A180" s="2"/>
       <c r="B180" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D180" s="22"/>
       <c r="E180" s="2"/>
@@ -9221,13 +9191,13 @@
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
     </row>
-    <row r="181" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" ht="11.25" customHeight="1">
       <c r="A181" s="2"/>
       <c r="B181" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -9240,13 +9210,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" ht="11.25" customHeight="1">
       <c r="A182" s="2"/>
       <c r="B182" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -9255,13 +9225,13 @@
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
     </row>
-    <row r="183" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" ht="11.25" customHeight="1">
       <c r="A183" s="2"/>
       <c r="B183" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -9272,13 +9242,13 @@
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
     </row>
-    <row r="184" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="11.25" customHeight="1">
       <c r="A184" s="2"/>
       <c r="B184" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -9289,13 +9259,13 @@
       </c>
       <c r="I184" s="2"/>
     </row>
-    <row r="185" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="11.25" customHeight="1">
       <c r="A185" s="2"/>
       <c r="B185" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -9308,13 +9278,13 @@
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
     </row>
-    <row r="186" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="11.25" customHeight="1">
       <c r="A186" s="2"/>
       <c r="B186" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -9325,13 +9295,13 @@
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
     </row>
-    <row r="187" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="11.25" customHeight="1">
       <c r="A187" s="2"/>
       <c r="B187" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -9342,13 +9312,13 @@
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
     </row>
-    <row r="188" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="11.25" customHeight="1">
       <c r="A188" s="2"/>
       <c r="B188" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -9359,13 +9329,13 @@
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
     </row>
-    <row r="189" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="11.25" customHeight="1">
       <c r="A189" s="2"/>
       <c r="B189" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -9374,13 +9344,13 @@
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
     </row>
-    <row r="190" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="11.25" customHeight="1">
       <c r="A190" s="2"/>
       <c r="B190" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -9391,13 +9361,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="11.25" customHeight="1">
       <c r="A191" s="2"/>
       <c r="B191" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -9406,7 +9376,7 @@
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
     </row>
-    <row r="192" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="11.25" customHeight="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -9417,11 +9387,11 @@
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
     </row>
-    <row r="193" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" ht="11.25" customHeight="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -9430,13 +9400,13 @@
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
     </row>
-    <row r="194" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" ht="11.25" customHeight="1">
       <c r="A194" s="2"/>
       <c r="B194" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -9447,13 +9417,13 @@
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
     </row>
-    <row r="195" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" ht="11.25" customHeight="1">
       <c r="A195" s="2"/>
       <c r="B195" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="7" t="s">
@@ -9464,13 +9434,13 @@
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
     </row>
-    <row r="196" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" ht="11.25" customHeight="1">
       <c r="A196" s="2"/>
       <c r="B196" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -9479,13 +9449,13 @@
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
     </row>
-    <row r="197" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" ht="11.25" customHeight="1">
       <c r="A197" s="2"/>
       <c r="B197" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -9496,13 +9466,13 @@
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
     </row>
-    <row r="198" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" ht="11.25" customHeight="1">
       <c r="A198" s="2"/>
       <c r="B198" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -9511,13 +9481,13 @@
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
     </row>
-    <row r="199" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" ht="11.25" customHeight="1">
       <c r="A199" s="2"/>
       <c r="B199" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -9526,13 +9496,13 @@
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
     </row>
-    <row r="200" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" ht="11.25" customHeight="1">
       <c r="A200" s="2"/>
       <c r="B200" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -9541,13 +9511,13 @@
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
     </row>
-    <row r="201" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" ht="11.25" customHeight="1">
       <c r="A201" s="2"/>
       <c r="B201" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="7" t="s">
@@ -9558,13 +9528,13 @@
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
     </row>
-    <row r="202" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" ht="11.25" customHeight="1">
       <c r="A202" s="2"/>
       <c r="B202" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="7" t="s">
@@ -9575,13 +9545,13 @@
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
     </row>
-    <row r="203" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" ht="11.25" customHeight="1">
       <c r="A203" s="2"/>
       <c r="B203" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="7" t="s">
@@ -9592,13 +9562,13 @@
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
     </row>
-    <row r="204" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" ht="11.25" customHeight="1">
       <c r="A204" s="2"/>
       <c r="B204" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="7" t="s">
@@ -9611,13 +9581,13 @@
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
     </row>
-    <row r="205" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" ht="11.25" customHeight="1">
       <c r="A205" s="2"/>
       <c r="B205" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -9626,13 +9596,13 @@
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
     </row>
-    <row r="206" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" ht="11.25" customHeight="1">
       <c r="A206" s="2"/>
       <c r="B206" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D206" s="22"/>
       <c r="E206" s="2"/>
@@ -9641,13 +9611,13 @@
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
     </row>
-    <row r="207" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" ht="11.25" customHeight="1">
       <c r="A207" s="2"/>
       <c r="B207" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="7" t="s">
@@ -9658,13 +9628,13 @@
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
     </row>
-    <row r="208" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" ht="11.25" customHeight="1">
       <c r="A208" s="2"/>
       <c r="B208" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C208" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D208" s="20"/>
       <c r="E208" s="20"/>
@@ -9673,13 +9643,13 @@
       <c r="H208" s="19"/>
       <c r="I208" s="2"/>
     </row>
-    <row r="209" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="11.25" customHeight="1">
       <c r="A209" s="2"/>
       <c r="B209" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -9688,13 +9658,13 @@
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
     </row>
-    <row r="210" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" ht="11.25" customHeight="1">
       <c r="A210" s="2"/>
       <c r="B210" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -9703,13 +9673,13 @@
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
     </row>
-    <row r="211" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" ht="11.25" customHeight="1">
       <c r="A211" s="2"/>
       <c r="B211" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C211" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D211" s="20"/>
       <c r="E211" s="19"/>
@@ -9718,13 +9688,13 @@
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
     </row>
-    <row r="212" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="11.25" customHeight="1">
       <c r="A212" s="2"/>
       <c r="B212" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C212" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D212" s="20"/>
       <c r="E212" s="19"/>
@@ -9733,13 +9703,13 @@
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
     </row>
-    <row r="213" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="11.25" customHeight="1">
       <c r="A213" s="2"/>
       <c r="B213" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -9750,13 +9720,13 @@
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
     </row>
-    <row r="214" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" ht="11.25" customHeight="1">
       <c r="A214" s="2"/>
       <c r="B214" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -9765,13 +9735,13 @@
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
     </row>
-    <row r="215" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" ht="11.25" customHeight="1">
       <c r="A215" s="2"/>
       <c r="B215" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -9780,13 +9750,13 @@
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
     </row>
-    <row r="216" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" ht="11.25" customHeight="1">
       <c r="A216" s="2"/>
       <c r="B216" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -9795,13 +9765,13 @@
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
     </row>
-    <row r="217" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" ht="11.25" customHeight="1">
       <c r="A217" s="2"/>
       <c r="B217" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -9812,13 +9782,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" ht="11.25" customHeight="1">
       <c r="A218" s="2"/>
       <c r="B218" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -9831,13 +9801,13 @@
       </c>
       <c r="I218" s="2"/>
     </row>
-    <row r="219" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" ht="11.25" customHeight="1">
       <c r="A219" s="2"/>
       <c r="B219" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -9846,13 +9816,13 @@
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
     </row>
-    <row r="220" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" ht="11.25" customHeight="1">
       <c r="A220" s="2"/>
       <c r="B220" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -9861,13 +9831,13 @@
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
     </row>
-    <row r="221" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" ht="11.25" customHeight="1">
       <c r="A221" s="2"/>
       <c r="B221" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="7" t="s">
@@ -9878,13 +9848,13 @@
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
     </row>
-    <row r="222" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" ht="11.25" customHeight="1">
       <c r="A222" s="2"/>
       <c r="B222" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -9893,13 +9863,13 @@
       <c r="H222" s="2"/>
       <c r="I222" s="2"/>
     </row>
-    <row r="223" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" ht="11.25" customHeight="1">
       <c r="A223" s="2"/>
       <c r="B223" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -9912,13 +9882,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" ht="11.25" customHeight="1">
       <c r="A224" s="2"/>
       <c r="B224" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -9929,13 +9899,13 @@
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
     </row>
-    <row r="225" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" ht="11.25" customHeight="1">
       <c r="A225" s="2"/>
       <c r="B225" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -9945,16 +9915,16 @@
       </c>
       <c r="H225" s="2"/>
       <c r="I225" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="11.25" customHeight="1">
       <c r="A226" s="2"/>
       <c r="B226" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -9963,13 +9933,13 @@
       <c r="H226" s="2"/>
       <c r="I226" s="2"/>
     </row>
-    <row r="227" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" ht="11.25" customHeight="1">
       <c r="A227" s="2"/>
       <c r="B227" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -9984,13 +9954,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" ht="11.25" customHeight="1">
       <c r="A228" s="2"/>
       <c r="B228" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -9999,13 +9969,13 @@
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
     </row>
-    <row r="229" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" ht="11.25" customHeight="1">
       <c r="A229" s="2"/>
       <c r="B229" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -10014,13 +9984,13 @@
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
     </row>
-    <row r="230" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" ht="11.25" customHeight="1">
       <c r="A230" s="2"/>
       <c r="B230" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C230" s="18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D230" s="19"/>
       <c r="E230" s="2"/>
@@ -10029,7 +9999,7 @@
       <c r="H230" s="2"/>
       <c r="I230" s="2"/>
     </row>
-    <row r="231" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" ht="11.25" customHeight="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -10040,11 +10010,11 @@
       <c r="H231" s="2"/>
       <c r="I231" s="2"/>
     </row>
-    <row r="232" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" ht="11.25" customHeight="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -10053,13 +10023,13 @@
       <c r="H232" s="2"/>
       <c r="I232" s="2"/>
     </row>
-    <row r="233" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" ht="11.25" customHeight="1">
       <c r="A233" s="2"/>
       <c r="B233" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -10068,13 +10038,13 @@
       <c r="H233" s="2"/>
       <c r="I233" s="2"/>
     </row>
-    <row r="234" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" ht="11.25" customHeight="1">
       <c r="A234" s="2"/>
       <c r="B234" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="7" t="s">
@@ -10085,13 +10055,13 @@
       <c r="H234" s="2"/>
       <c r="I234" s="2"/>
     </row>
-    <row r="235" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" ht="11.25" customHeight="1">
       <c r="A235" s="2"/>
       <c r="B235" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="7" t="s">
@@ -10102,13 +10072,13 @@
       <c r="H235" s="2"/>
       <c r="I235" s="2"/>
     </row>
-    <row r="236" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" ht="11.25" customHeight="1">
       <c r="A236" s="2"/>
       <c r="B236" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="7" t="s">
@@ -10119,13 +10089,13 @@
       <c r="H236" s="2"/>
       <c r="I236" s="2"/>
     </row>
-    <row r="237" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" ht="11.25" customHeight="1">
       <c r="A237" s="2"/>
       <c r="B237" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="7" t="s">
@@ -10136,13 +10106,13 @@
       <c r="H237" s="2"/>
       <c r="I237" s="2"/>
     </row>
-    <row r="238" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" ht="11.25" customHeight="1">
       <c r="A238" s="2"/>
       <c r="B238" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -10151,7 +10121,7 @@
       <c r="H238" s="2"/>
       <c r="I238" s="2"/>
     </row>
-    <row r="239" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" ht="11.25" customHeight="1">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -10162,11 +10132,11 @@
       <c r="H239" s="2"/>
       <c r="I239" s="2"/>
     </row>
-    <row r="240" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" ht="11.25" customHeight="1">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -10175,7 +10145,7 @@
       <c r="H240" s="2"/>
       <c r="I240" s="2"/>
     </row>
-    <row r="241" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" ht="11.25" customHeight="1">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -10186,13 +10156,13 @@
       <c r="H241" s="2"/>
       <c r="I241" s="2"/>
     </row>
-    <row r="242" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" ht="11.25" customHeight="1">
       <c r="A242" s="2"/>
       <c r="B242" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -10201,13 +10171,13 @@
       <c r="H242" s="2"/>
       <c r="I242" s="2"/>
     </row>
-    <row r="243" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" ht="11.25" customHeight="1">
       <c r="A243" s="2"/>
       <c r="B243" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -10216,13 +10186,13 @@
       <c r="H243" s="2"/>
       <c r="I243" s="2"/>
     </row>
-    <row r="244" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" ht="11.25" customHeight="1">
       <c r="A244" s="2"/>
       <c r="B244" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C244" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -10231,13 +10201,13 @@
       <c r="H244" s="2"/>
       <c r="I244" s="2"/>
     </row>
-    <row r="245" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" ht="11.25" customHeight="1">
       <c r="A245" s="2"/>
       <c r="B245" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -10246,13 +10216,13 @@
       <c r="H245" s="2"/>
       <c r="I245" s="2"/>
     </row>
-    <row r="246" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" ht="11.25" customHeight="1">
       <c r="A246" s="2"/>
       <c r="B246" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -10261,13 +10231,13 @@
       <c r="H246" s="2"/>
       <c r="I246" s="2"/>
     </row>
-    <row r="247" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" ht="11.25" customHeight="1">
       <c r="A247" s="2"/>
       <c r="B247" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -10276,13 +10246,13 @@
       <c r="H247" s="2"/>
       <c r="I247" s="2"/>
     </row>
-    <row r="248" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" ht="11.25" customHeight="1">
       <c r="A248" s="2"/>
       <c r="B248" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -10291,13 +10261,13 @@
       <c r="H248" s="2"/>
       <c r="I248" s="2"/>
     </row>
-    <row r="249" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" ht="11.25" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C249" s="18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D249" s="19"/>
       <c r="E249" s="2"/>
@@ -10306,13 +10276,13 @@
       <c r="H249" s="2"/>
       <c r="I249" s="2"/>
     </row>
-    <row r="250" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" ht="11.25" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -10323,13 +10293,13 @@
       <c r="H250" s="2"/>
       <c r="I250" s="2"/>
     </row>
-    <row r="251" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" ht="11.25" customHeight="1">
       <c r="A251" s="2"/>
       <c r="B251" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -10338,13 +10308,13 @@
       <c r="H251" s="2"/>
       <c r="I251" s="2"/>
     </row>
-    <row r="252" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" ht="11.25" customHeight="1">
       <c r="A252" s="2"/>
       <c r="B252" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -10353,13 +10323,13 @@
       <c r="H252" s="2"/>
       <c r="I252" s="2"/>
     </row>
-    <row r="253" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" ht="11.25" customHeight="1">
       <c r="A253" s="2"/>
       <c r="B253" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" s="7" t="s">
@@ -10370,13 +10340,13 @@
       <c r="H253" s="2"/>
       <c r="I253" s="2"/>
     </row>
-    <row r="254" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" ht="11.25" customHeight="1">
       <c r="A254" s="2"/>
       <c r="B254" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -10385,13 +10355,13 @@
       <c r="H254" s="2"/>
       <c r="I254" s="2"/>
     </row>
-    <row r="255" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" ht="11.25" customHeight="1">
       <c r="A255" s="2"/>
       <c r="B255" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -10400,7 +10370,7 @@
       <c r="H255" s="2"/>
       <c r="I255" s="2"/>
     </row>
-    <row r="256" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" ht="11.25" customHeight="1">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -10411,11 +10381,11 @@
       <c r="H256" s="2"/>
       <c r="I256" s="2"/>
     </row>
-    <row r="257" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" ht="11.25" customHeight="1">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -10424,13 +10394,13 @@
       <c r="H257" s="2"/>
       <c r="I257" s="2"/>
     </row>
-    <row r="258" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" ht="11.25" customHeight="1">
       <c r="A258" s="2"/>
       <c r="B258" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -10439,13 +10409,13 @@
       <c r="H258" s="2"/>
       <c r="I258" s="2"/>
     </row>
-    <row r="259" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" ht="11.25" customHeight="1">
       <c r="A259" s="2"/>
       <c r="B259" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -10456,13 +10426,13 @@
       <c r="H259" s="2"/>
       <c r="I259" s="2"/>
     </row>
-    <row r="260" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" ht="11.25" customHeight="1">
       <c r="A260" s="2"/>
       <c r="B260" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -10473,13 +10443,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" ht="11.25" customHeight="1">
       <c r="A261" s="2"/>
       <c r="B261" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -10490,13 +10460,13 @@
       </c>
       <c r="I261" s="2"/>
     </row>
-    <row r="262" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" ht="11.25" customHeight="1">
       <c r="A262" s="2"/>
       <c r="B262" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -10505,13 +10475,13 @@
       <c r="H262" s="2"/>
       <c r="I262" s="2"/>
     </row>
-    <row r="263" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" ht="11.25" customHeight="1">
       <c r="A263" s="2"/>
       <c r="B263" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -10520,13 +10490,13 @@
       <c r="H263" s="2"/>
       <c r="I263" s="2"/>
     </row>
-    <row r="264" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" ht="11.25" customHeight="1">
       <c r="A264" s="2"/>
       <c r="B264" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="7" t="s">
@@ -10537,13 +10507,13 @@
       <c r="H264" s="2"/>
       <c r="I264" s="2"/>
     </row>
-    <row r="265" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" ht="11.25" customHeight="1">
       <c r="A265" s="2"/>
       <c r="B265" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" s="7" t="s">
@@ -10554,13 +10524,13 @@
       <c r="H265" s="2"/>
       <c r="I265" s="2"/>
     </row>
-    <row r="266" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" ht="11.25" customHeight="1">
       <c r="A266" s="2"/>
       <c r="B266" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -10571,13 +10541,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" ht="11.25" customHeight="1">
       <c r="A267" s="2"/>
       <c r="B267" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="7" t="s">
@@ -10590,13 +10560,13 @@
       </c>
       <c r="I267" s="2"/>
     </row>
-    <row r="268" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" ht="11.25" customHeight="1">
       <c r="A268" s="2"/>
       <c r="B268" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -10607,13 +10577,13 @@
       </c>
       <c r="I268" s="2"/>
     </row>
-    <row r="269" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" ht="11.25" customHeight="1">
       <c r="A269" s="2"/>
       <c r="B269" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -10622,13 +10592,13 @@
       <c r="H269" s="2"/>
       <c r="I269" s="2"/>
     </row>
-    <row r="270" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" ht="11.25" customHeight="1">
       <c r="A270" s="2"/>
       <c r="B270" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -10639,13 +10609,13 @@
       </c>
       <c r="I270" s="2"/>
     </row>
-    <row r="271" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" ht="11.25" customHeight="1">
       <c r="A271" s="2"/>
       <c r="B271" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -10656,13 +10626,13 @@
       <c r="H271" s="2"/>
       <c r="I271" s="2"/>
     </row>
-    <row r="272" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" ht="11.25" customHeight="1">
       <c r="A272" s="2"/>
       <c r="B272" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -10671,13 +10641,13 @@
       <c r="H272" s="2"/>
       <c r="I272" s="2"/>
     </row>
-    <row r="273" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" ht="11.25" customHeight="1">
       <c r="A273" s="2"/>
       <c r="B273" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -10686,13 +10656,13 @@
       <c r="H273" s="2"/>
       <c r="I273" s="2"/>
     </row>
-    <row r="274" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" ht="11.25" customHeight="1">
       <c r="A274" s="2"/>
       <c r="B274" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -10701,13 +10671,13 @@
       <c r="H274" s="2"/>
       <c r="I274" s="2"/>
     </row>
-    <row r="275" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" ht="11.25" customHeight="1">
       <c r="A275" s="2"/>
       <c r="B275" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -10716,13 +10686,13 @@
       <c r="H275" s="2"/>
       <c r="I275" s="2"/>
     </row>
-    <row r="276" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" ht="11.25" customHeight="1">
       <c r="A276" s="2"/>
       <c r="B276" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -10733,13 +10703,13 @@
       </c>
       <c r="I276" s="2"/>
     </row>
-    <row r="277" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" ht="11.25" customHeight="1">
       <c r="A277" s="2"/>
       <c r="B277" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -10748,13 +10718,13 @@
       <c r="H277" s="2"/>
       <c r="I277" s="2"/>
     </row>
-    <row r="278" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" ht="11.25" customHeight="1">
       <c r="A278" s="2"/>
       <c r="B278" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -10763,13 +10733,13 @@
       <c r="H278" s="2"/>
       <c r="I278" s="2"/>
     </row>
-    <row r="279" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" ht="11.25" customHeight="1">
       <c r="A279" s="2"/>
       <c r="B279" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -10780,13 +10750,13 @@
       <c r="H279" s="2"/>
       <c r="I279" s="2"/>
     </row>
-    <row r="280" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" ht="11.25" customHeight="1">
       <c r="A280" s="2"/>
       <c r="B280" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -10795,13 +10765,13 @@
       <c r="H280" s="2"/>
       <c r="I280" s="2"/>
     </row>
-    <row r="281" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" ht="11.25" customHeight="1">
       <c r="A281" s="2"/>
       <c r="B281" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C281" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D281" s="19"/>
       <c r="E281" s="2"/>
@@ -10812,13 +10782,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" ht="11.25" customHeight="1">
       <c r="A282" s="2"/>
       <c r="B282" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="7" t="s">
@@ -10829,13 +10799,13 @@
       <c r="H282" s="2"/>
       <c r="I282" s="2"/>
     </row>
-    <row r="283" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" ht="11.25" customHeight="1">
       <c r="A283" s="2"/>
       <c r="B283" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" s="7" t="s">
@@ -10846,13 +10816,13 @@
       <c r="H283" s="2"/>
       <c r="I283" s="2"/>
     </row>
-    <row r="284" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" ht="11.25" customHeight="1">
       <c r="A284" s="2"/>
       <c r="B284" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" s="7" t="s">
@@ -10863,13 +10833,13 @@
       <c r="H284" s="2"/>
       <c r="I284" s="2"/>
     </row>
-    <row r="285" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" ht="11.25" customHeight="1">
       <c r="A285" s="2"/>
       <c r="B285" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="7" t="s">
@@ -10880,13 +10850,13 @@
       <c r="H285" s="2"/>
       <c r="I285" s="2"/>
     </row>
-    <row r="286" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" ht="11.25" customHeight="1">
       <c r="A286" s="2"/>
       <c r="B286" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -10895,13 +10865,13 @@
       <c r="H286" s="2"/>
       <c r="I286" s="2"/>
     </row>
-    <row r="287" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" ht="11.25" customHeight="1">
       <c r="A287" s="2"/>
       <c r="B287" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -10910,7 +10880,7 @@
       <c r="H287" s="2"/>
       <c r="I287" s="2"/>
     </row>
-    <row r="288" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" ht="11.25" customHeight="1">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -10923,11 +10893,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" ht="11.25" customHeight="1">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -10936,7 +10906,7 @@
       <c r="H289" s="2"/>
       <c r="I289" s="2"/>
     </row>
-    <row r="290" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" ht="11.25" customHeight="1">
       <c r="A290" s="2"/>
       <c r="B290" s="6" t="s">
         <v>16</v>
@@ -10953,13 +10923,13 @@
       </c>
       <c r="I290" s="2"/>
     </row>
-    <row r="291" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" ht="11.25" customHeight="1">
       <c r="A291" s="2"/>
       <c r="B291" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -10968,13 +10938,13 @@
       <c r="H291" s="2"/>
       <c r="I291" s="2"/>
     </row>
-    <row r="292" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" ht="11.25" customHeight="1">
       <c r="A292" s="2"/>
       <c r="B292" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -10983,7 +10953,7 @@
       <c r="H292" s="2"/>
       <c r="I292" s="2"/>
     </row>
-    <row r="293" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" ht="11.25" customHeight="1">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -10994,7 +10964,7 @@
       <c r="H293" s="2"/>
       <c r="I293" s="2"/>
     </row>
-    <row r="294" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" ht="11.25" customHeight="1">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -11005,11 +10975,11 @@
       <c r="H294" s="2"/>
       <c r="I294" s="2"/>
     </row>
-    <row r="295" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" ht="11.25" customHeight="1">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -11018,13 +10988,13 @@
       <c r="H295" s="2"/>
       <c r="I295" s="2"/>
     </row>
-    <row r="296" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" ht="11.25" customHeight="1">
       <c r="A296" s="2"/>
       <c r="B296" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -11033,13 +11003,13 @@
       <c r="H296" s="2"/>
       <c r="I296" s="2"/>
     </row>
-    <row r="297" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" ht="11.25" customHeight="1">
       <c r="A297" s="2"/>
       <c r="B297" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C297" s="18" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D297" s="20"/>
       <c r="E297" s="19"/>
@@ -11048,13 +11018,13 @@
       <c r="H297" s="2"/>
       <c r="I297" s="2"/>
     </row>
-    <row r="298" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" ht="11.25" customHeight="1">
       <c r="A298" s="2"/>
       <c r="B298" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -11065,13 +11035,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" ht="11.25" customHeight="1">
       <c r="A299" s="2"/>
       <c r="B299" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -11080,13 +11050,13 @@
       <c r="H299" s="2"/>
       <c r="I299" s="2"/>
     </row>
-    <row r="300" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" ht="11.25" customHeight="1">
       <c r="A300" s="2"/>
       <c r="B300" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C300" s="18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D300" s="19"/>
       <c r="E300" s="2"/>
@@ -11097,13 +11067,13 @@
       </c>
       <c r="I300" s="2"/>
     </row>
-    <row r="301" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" ht="11.25" customHeight="1">
       <c r="A301" s="2"/>
       <c r="B301" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -11114,13 +11084,13 @@
       </c>
       <c r="I301" s="2"/>
     </row>
-    <row r="302" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" ht="11.25" customHeight="1">
       <c r="A302" s="2"/>
       <c r="B302" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -11131,13 +11101,13 @@
       </c>
       <c r="I302" s="2"/>
     </row>
-    <row r="303" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" ht="11.25" customHeight="1">
       <c r="A303" s="2"/>
       <c r="B303" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -11148,13 +11118,13 @@
       </c>
       <c r="I303" s="2"/>
     </row>
-    <row r="304" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" ht="11.25" customHeight="1">
       <c r="A304" s="2"/>
       <c r="B304" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -11163,13 +11133,13 @@
       <c r="H304" s="2"/>
       <c r="I304" s="2"/>
     </row>
-    <row r="305" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" ht="11.25" customHeight="1">
       <c r="A305" s="2"/>
       <c r="B305" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -11178,7 +11148,7 @@
       <c r="H305" s="2"/>
       <c r="I305" s="2"/>
     </row>
-    <row r="306" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" ht="11.25" customHeight="1">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -11191,7 +11161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" ht="11.25" customHeight="1">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -11202,11 +11172,11 @@
       <c r="H307" s="2"/>
       <c r="I307" s="2"/>
     </row>
-    <row r="308" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" ht="11.25" customHeight="1">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -11215,13 +11185,13 @@
       <c r="H308" s="2"/>
       <c r="I308" s="2"/>
     </row>
-    <row r="309" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" ht="11.25" customHeight="1">
       <c r="A309" s="2"/>
       <c r="B309" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -11230,13 +11200,13 @@
       <c r="H309" s="2"/>
       <c r="I309" s="2"/>
     </row>
-    <row r="310" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" ht="11.25" customHeight="1">
       <c r="A310" s="2"/>
       <c r="B310" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -11245,13 +11215,13 @@
       <c r="H310" s="2"/>
       <c r="I310" s="2"/>
     </row>
-    <row r="311" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" ht="11.25" customHeight="1">
       <c r="A311" s="2"/>
       <c r="B311" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>12</v>
@@ -11264,13 +11234,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" ht="11.25" customHeight="1">
       <c r="A312" s="2"/>
       <c r="B312" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -11279,13 +11249,13 @@
       <c r="H312" s="2"/>
       <c r="I312" s="2"/>
     </row>
-    <row r="313" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" ht="11.25" customHeight="1">
       <c r="A313" s="2"/>
       <c r="B313" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -11294,13 +11264,13 @@
       <c r="H313" s="2"/>
       <c r="I313" s="2"/>
     </row>
-    <row r="314" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" ht="11.25" customHeight="1">
       <c r="A314" s="2"/>
       <c r="B314" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -11309,13 +11279,13 @@
       <c r="H314" s="2"/>
       <c r="I314" s="2"/>
     </row>
-    <row r="315" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" ht="11.25" customHeight="1">
       <c r="A315" s="2"/>
       <c r="B315" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -11326,13 +11296,13 @@
       </c>
       <c r="I315" s="2"/>
     </row>
-    <row r="316" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" ht="11.25" customHeight="1">
       <c r="A316" s="2"/>
       <c r="B316" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -11341,13 +11311,13 @@
       <c r="H316" s="2"/>
       <c r="I316" s="2"/>
     </row>
-    <row r="317" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" ht="11.25" customHeight="1">
       <c r="A317" s="2"/>
       <c r="B317" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>12</v>
@@ -11358,13 +11328,13 @@
       <c r="H317" s="2"/>
       <c r="I317" s="2"/>
     </row>
-    <row r="318" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" ht="11.25" customHeight="1">
       <c r="A318" s="2"/>
       <c r="B318" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -11375,13 +11345,13 @@
       <c r="H318" s="2"/>
       <c r="I318" s="2"/>
     </row>
-    <row r="319" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" ht="11.25" customHeight="1">
       <c r="A319" s="2"/>
       <c r="B319" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -11390,13 +11360,13 @@
       <c r="H319" s="2"/>
       <c r="I319" s="2"/>
     </row>
-    <row r="320" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" ht="11.25" customHeight="1">
       <c r="A320" s="2"/>
       <c r="B320" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -11407,13 +11377,13 @@
       </c>
       <c r="I320" s="2"/>
     </row>
-    <row r="321" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" ht="11.25" customHeight="1">
       <c r="A321" s="2"/>
       <c r="B321" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C321" s="18" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D321" s="19"/>
       <c r="E321" s="2"/>
@@ -11422,13 +11392,13 @@
       <c r="H321" s="2"/>
       <c r="I321" s="2"/>
     </row>
-    <row r="322" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" ht="11.25" customHeight="1">
       <c r="A322" s="2"/>
       <c r="B322" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -11439,13 +11409,13 @@
       </c>
       <c r="I322" s="2"/>
     </row>
-    <row r="323" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" ht="11.25" customHeight="1">
       <c r="A323" s="2"/>
       <c r="B323" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -11456,13 +11426,13 @@
       </c>
       <c r="I323" s="2"/>
     </row>
-    <row r="324" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" ht="11.25" customHeight="1">
       <c r="A324" s="2"/>
       <c r="B324" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="7" t="s">
@@ -11473,13 +11443,13 @@
       <c r="H324" s="2"/>
       <c r="I324" s="2"/>
     </row>
-    <row r="325" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" ht="11.25" customHeight="1">
       <c r="A325" s="2"/>
       <c r="B325" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -11488,13 +11458,13 @@
       <c r="H325" s="2"/>
       <c r="I325" s="2"/>
     </row>
-    <row r="326" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" ht="11.25" customHeight="1">
       <c r="A326" s="2"/>
       <c r="B326" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -11503,7 +11473,7 @@
       <c r="H326" s="2"/>
       <c r="I326" s="2"/>
     </row>
-    <row r="327" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" ht="11.25" customHeight="1">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -11514,11 +11484,11 @@
       <c r="H327" s="2"/>
       <c r="I327" s="2"/>
     </row>
-    <row r="328" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" ht="12.6" customHeight="1">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -11527,13 +11497,13 @@
       <c r="H328" s="2"/>
       <c r="I328" s="2"/>
     </row>
-    <row r="329" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" ht="11.25" customHeight="1">
       <c r="A329" s="2"/>
       <c r="B329" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>12</v>
@@ -11544,13 +11514,13 @@
       <c r="H329" s="2"/>
       <c r="I329" s="2"/>
     </row>
-    <row r="330" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" ht="11.25" customHeight="1">
       <c r="A330" s="2"/>
       <c r="B330" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -11561,13 +11531,13 @@
       <c r="H330" s="2"/>
       <c r="I330" s="2"/>
     </row>
-    <row r="331" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" ht="11.25" customHeight="1">
       <c r="A331" s="2"/>
       <c r="B331" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C331" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="C331" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -11576,13 +11546,13 @@
       <c r="H331" s="2"/>
       <c r="I331" s="2"/>
     </row>
-    <row r="332" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" ht="11.25" customHeight="1">
       <c r="A332" s="2"/>
       <c r="B332" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -11593,7 +11563,7 @@
       </c>
       <c r="I332" s="2"/>
     </row>
-    <row r="333" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" ht="11.25" customHeight="1">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -11726,6 +11696,9 @@
     <hyperlink ref="C72" r:id="rId90" xr:uid="{47F6A47E-DC06-4361-A0EE-009B428984A2}"/>
     <hyperlink ref="C73" r:id="rId91" xr:uid="{7D908E6B-D573-4EE4-B539-ABF87DC8A0FB}"/>
     <hyperlink ref="C75" r:id="rId92" xr:uid="{F728FF8C-30FA-4A04-AC32-5651BEF01613}"/>
+    <hyperlink ref="C74" r:id="rId93" xr:uid="{483AFCB3-635D-4D95-92A1-E723255BC579}"/>
+    <hyperlink ref="C76" r:id="rId94" xr:uid="{DB7053DD-905C-41A6-8A9B-425296C93938}"/>
+    <hyperlink ref="C77" r:id="rId95" xr:uid="{8D451444-11A6-4185-8454-7D06C6694EE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
+++ b/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODING\CrackYourInternship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17311A9-B122-453D-8F7D-42E43F8136F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDCC5C3-2BA1-4793-9832-5A874CED735E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="326">
   <si>
     <r>
       <rPr>
@@ -1095,238 +1095,7 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>https://leetcode.com/problems/middle-of-the-linked-list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/linked-list-cycle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/convert-binary-number-in-a-linked-list-to-integer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.geeksforgeeks.org/sort-a-linked-list-of-0s-1s-or-2s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/reverse-linked-list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/merge-two-sorted-lists</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.geeksforgeeks.org/multiply-two-numbers-represented-linked-lists</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/intersection-of-two-linked-lists</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>https://www.geeksforgeeks.org/given-only-a-pointer-to-a-node-to-be-deleted-in-a-singly-linked-list-how-do-you-delete-it</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/palindrome-linked-list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/copy-list-with-random-pointer</t>
     </r>
     <r>
       <rPr>
@@ -5556,6 +5325,39 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/the-kth-factor-of-n/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/middle-of-the-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-binary-number-in-a-linked-list-to-integer/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-two-sorted-lists/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/multiply-two-numbers-represented-linked-lists/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/intersection-of-two-linked-lists/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/copy-list-with-random-pointer/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/sort-a-linked-list-of-0s-1s-or-2s/</t>
   </si>
 </sst>
 </file>
@@ -5859,25 +5661,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5886,7 +5673,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6196,8 +5998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="190" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="153" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6254,7 +6056,7 @@
     </row>
     <row r="4" spans="1:9" ht="12.95" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -6296,10 +6098,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -6315,10 +6117,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>12</v>
@@ -6338,10 +6140,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>12</v>
@@ -6372,10 +6174,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>12</v>
@@ -6394,7 +6196,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -6413,7 +6215,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -6429,10 +6231,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -6448,10 +6250,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -6469,10 +6271,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -6488,10 +6290,10 @@
         <v>16</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -6509,10 +6311,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="10" t="s">
@@ -6528,10 +6330,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>12</v>
@@ -6689,10 +6491,10 @@
       <c r="B28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="22"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="10" t="s">
@@ -6823,10 +6625,10 @@
         <v>11</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -6859,10 +6661,10 @@
         <v>11</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -6880,10 +6682,10 @@
         <v>11</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -6899,10 +6701,10 @@
         <v>11</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>12</v>
@@ -6922,10 +6724,10 @@
         <v>16</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>12</v>
@@ -6943,10 +6745,10 @@
         <v>16</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -6964,10 +6766,10 @@
         <v>16</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>12</v>
@@ -6982,10 +6784,10 @@
       <c r="B45" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="26"/>
+      <c r="D45" s="21"/>
       <c r="E45" s="7" t="s">
         <v>12</v>
       </c>
@@ -7002,10 +6804,10 @@
         <v>16</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>12</v>
@@ -7040,10 +6842,10 @@
         <v>16</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -7076,10 +6878,10 @@
         <v>16</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -7320,10 +7122,10 @@
         <v>11</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -7339,10 +7141,10 @@
         <v>11</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -7358,10 +7160,10 @@
         <v>11</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -7377,10 +7179,10 @@
         <v>11</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -7396,10 +7198,10 @@
         <v>11</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -7417,10 +7219,10 @@
         <v>11</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -7436,10 +7238,10 @@
         <v>11</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>12</v>
@@ -7457,10 +7259,10 @@
         <v>11</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -7476,10 +7278,10 @@
         <v>11</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -7495,10 +7297,10 @@
         <v>16</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -7514,10 +7316,10 @@
         <v>16</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -7535,10 +7337,10 @@
         <v>16</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -7577,10 +7379,10 @@
       <c r="B80" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="C80" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D80" s="27"/>
+      <c r="D80" s="23"/>
       <c r="E80" s="24"/>
       <c r="F80" s="2"/>
       <c r="G80" s="11" t="s">
@@ -7609,7 +7411,7 @@
       <c r="B82" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="22" t="s">
         <v>52</v>
       </c>
       <c r="D82" s="24"/>
@@ -7643,7 +7445,7 @@
       <c r="B84" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C84" s="22" t="s">
         <v>54</v>
       </c>
       <c r="D84" s="24"/>
@@ -7690,7 +7492,7 @@
       <c r="B87" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C87" s="23" t="s">
+      <c r="C87" s="22" t="s">
         <v>57</v>
       </c>
       <c r="D87" s="24"/>
@@ -7722,10 +7524,10 @@
       <c r="B89" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D89" s="22"/>
+      <c r="D89" s="19"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="11" t="s">
@@ -7788,7 +7590,7 @@
       <c r="B93" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C93" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D93" s="24"/>
@@ -7840,14 +7642,18 @@
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A97" s="2"/>
+      <c r="A97" s="2">
+        <v>7</v>
+      </c>
       <c r="B97" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D97" s="2"/>
+      <c r="C97" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -7855,14 +7661,18 @@
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A98" s="2"/>
+      <c r="A98" s="2">
+        <v>7</v>
+      </c>
       <c r="B98" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D98" s="2"/>
+      <c r="C98" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="E98" s="11" t="s">
         <v>12</v>
       </c>
@@ -7872,14 +7682,18 @@
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A99" s="2"/>
+      <c r="A99" s="2">
+        <v>7</v>
+      </c>
       <c r="B99" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D99" s="2"/>
+      <c r="C99" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -7889,14 +7703,18 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A100" s="2"/>
+      <c r="A100" s="2">
+        <v>7</v>
+      </c>
       <c r="B100" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D100" s="2"/>
+      <c r="C100" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -7904,14 +7722,18 @@
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A101" s="2"/>
+      <c r="A101" s="2">
+        <v>7</v>
+      </c>
       <c r="B101" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D101" s="2"/>
+      <c r="C101" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -7919,14 +7741,18 @@
       <c r="I101" s="2"/>
     </row>
     <row r="102" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A102" s="2"/>
+      <c r="A102" s="2">
+        <v>7</v>
+      </c>
       <c r="B102" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D102" s="2"/>
+      <c r="C102" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -7936,14 +7762,18 @@
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A103" s="2"/>
+      <c r="A103" s="2">
+        <v>7</v>
+      </c>
       <c r="B103" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D103" s="2"/>
+      <c r="C103" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -7959,8 +7789,8 @@
       <c r="B104" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C104" s="4" t="s">
-        <v>73</v>
+      <c r="C104" s="16" t="s">
+        <v>321</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -7970,14 +7800,18 @@
       <c r="I104" s="2"/>
     </row>
     <row r="105" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A105" s="2"/>
+      <c r="A105" s="2">
+        <v>7</v>
+      </c>
       <c r="B105" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D105" s="2"/>
+      <c r="C105" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -7991,11 +7825,11 @@
       <c r="B106" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C106" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D106" s="20"/>
-      <c r="E106" s="19"/>
+      <c r="C106" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D106" s="26"/>
+      <c r="E106" s="27"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -8006,8 +7840,8 @@
       <c r="B107" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>76</v>
+      <c r="C107" s="16" t="s">
+        <v>323</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -8025,8 +7859,8 @@
       <c r="B108" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>77</v>
+      <c r="C108" s="16" t="s">
+        <v>324</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -8041,7 +7875,7 @@
         <v>16</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -8056,7 +7890,7 @@
         <v>16</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -8073,7 +7907,7 @@
         <v>16</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -8088,7 +7922,7 @@
         <v>16</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -8103,7 +7937,7 @@
         <v>16</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -8120,7 +7954,7 @@
         <v>16</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -8137,7 +7971,7 @@
         <v>16</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -8152,7 +7986,7 @@
         <v>16</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -8167,7 +8001,7 @@
         <v>16</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -8182,7 +8016,7 @@
         <v>28</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -8197,7 +8031,7 @@
         <v>28</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -8214,7 +8048,7 @@
         <v>28</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -8231,7 +8065,7 @@
         <v>28</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -8246,7 +8080,7 @@
         <v>28</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -8270,7 +8104,7 @@
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="15" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -8285,7 +8119,7 @@
         <v>11</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -8300,7 +8134,7 @@
         <v>11</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="7" t="s">
@@ -8317,7 +8151,7 @@
         <v>11</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -8336,7 +8170,7 @@
         <v>11</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -8351,7 +8185,7 @@
         <v>11</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -8368,7 +8202,7 @@
         <v>11</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -8383,7 +8217,7 @@
         <v>16</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -8397,10 +8231,10 @@
       <c r="B132" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C132" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D132" s="22"/>
+      <c r="C132" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D132" s="19"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -8415,7 +8249,7 @@
         <v>16</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="7" t="s">
@@ -8432,7 +8266,7 @@
         <v>16</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -8449,7 +8283,7 @@
         <v>16</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -8466,7 +8300,7 @@
         <v>16</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -8481,7 +8315,7 @@
         <v>16</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="7" t="s">
@@ -8498,7 +8332,7 @@
         <v>16</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -8512,10 +8346,10 @@
       <c r="B139" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C139" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D139" s="19"/>
+      <c r="C139" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D139" s="27"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="7" t="s">
@@ -8532,7 +8366,7 @@
         <v>28</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -8549,7 +8383,7 @@
         <v>28</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -8575,7 +8409,7 @@
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="15" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -8590,7 +8424,7 @@
         <v>11</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -8605,7 +8439,7 @@
         <v>11</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -8622,7 +8456,7 @@
         <v>11</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -8641,7 +8475,7 @@
         <v>11</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -8656,7 +8490,7 @@
         <v>11</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>12</v>
@@ -8675,7 +8509,7 @@
         <v>11</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -8690,7 +8524,7 @@
         <v>11</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -8705,7 +8539,7 @@
         <v>11</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -8720,7 +8554,7 @@
         <v>11</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -8739,7 +8573,7 @@
         <v>11</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -8754,7 +8588,7 @@
         <v>11</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>12</v>
@@ -8771,7 +8605,7 @@
         <v>11</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -8786,7 +8620,7 @@
         <v>11</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -8801,7 +8635,7 @@
         <v>11</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -8820,7 +8654,7 @@
         <v>11</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -8837,7 +8671,7 @@
         <v>11</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -8852,7 +8686,7 @@
         <v>11</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -8867,7 +8701,7 @@
         <v>11</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -8882,7 +8716,7 @@
         <v>16</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -8897,7 +8731,7 @@
         <v>16</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -8912,7 +8746,7 @@
         <v>16</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -8927,7 +8761,7 @@
         <v>16</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -8944,7 +8778,7 @@
         <v>16</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="7" t="s">
@@ -8961,7 +8795,7 @@
         <v>16</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -8976,7 +8810,7 @@
         <v>16</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -8991,7 +8825,7 @@
         <v>16</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -9006,7 +8840,7 @@
         <v>16</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -9022,10 +8856,10 @@
       <c r="B171" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C171" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="D171" s="19"/>
+      <c r="C171" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D171" s="27"/>
       <c r="E171" s="2"/>
       <c r="F171" s="6" t="s">
         <v>12</v>
@@ -9042,7 +8876,7 @@
         <v>16</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="7" t="s">
@@ -9063,7 +8897,7 @@
         <v>16</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -9080,7 +8914,7 @@
         <v>16</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -9101,7 +8935,7 @@
         <v>16</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -9116,7 +8950,7 @@
         <v>16</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -9130,10 +8964,10 @@
       <c r="B177" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C177" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D177" s="22"/>
+      <c r="C177" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D177" s="19"/>
       <c r="E177" s="2"/>
       <c r="F177" s="6" t="s">
         <v>12</v>
@@ -9148,7 +8982,7 @@
         <v>16</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="7" t="s">
@@ -9165,7 +8999,7 @@
         <v>16</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -9181,10 +9015,10 @@
       <c r="B180" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C180" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D180" s="22"/>
+      <c r="C180" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D180" s="19"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
@@ -9197,7 +9031,7 @@
         <v>16</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -9216,7 +9050,7 @@
         <v>28</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -9231,7 +9065,7 @@
         <v>28</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -9248,7 +9082,7 @@
         <v>28</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -9265,7 +9099,7 @@
         <v>28</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -9284,7 +9118,7 @@
         <v>28</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -9301,7 +9135,7 @@
         <v>28</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -9318,7 +9152,7 @@
         <v>28</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -9335,7 +9169,7 @@
         <v>28</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -9350,7 +9184,7 @@
         <v>28</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -9367,7 +9201,7 @@
         <v>28</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -9391,7 +9225,7 @@
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="6" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -9406,7 +9240,7 @@
         <v>11</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -9423,7 +9257,7 @@
         <v>11</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="7" t="s">
@@ -9440,7 +9274,7 @@
         <v>11</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -9455,7 +9289,7 @@
         <v>11</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -9472,7 +9306,7 @@
         <v>11</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -9487,7 +9321,7 @@
         <v>11</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -9502,7 +9336,7 @@
         <v>11</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -9517,7 +9351,7 @@
         <v>16</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="7" t="s">
@@ -9534,7 +9368,7 @@
         <v>16</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="7" t="s">
@@ -9551,7 +9385,7 @@
         <v>16</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="7" t="s">
@@ -9568,7 +9402,7 @@
         <v>16</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="7" t="s">
@@ -9587,7 +9421,7 @@
         <v>16</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -9601,10 +9435,10 @@
       <c r="B206" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C206" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="D206" s="22"/>
+      <c r="C206" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D206" s="19"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
@@ -9617,7 +9451,7 @@
         <v>16</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="7" t="s">
@@ -9633,14 +9467,14 @@
       <c r="B208" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C208" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D208" s="20"/>
-      <c r="E208" s="20"/>
-      <c r="F208" s="20"/>
-      <c r="G208" s="20"/>
-      <c r="H208" s="19"/>
+      <c r="C208" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D208" s="26"/>
+      <c r="E208" s="26"/>
+      <c r="F208" s="26"/>
+      <c r="G208" s="26"/>
+      <c r="H208" s="27"/>
       <c r="I208" s="2"/>
     </row>
     <row r="209" spans="1:9" ht="11.25" customHeight="1">
@@ -9649,7 +9483,7 @@
         <v>16</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -9664,7 +9498,7 @@
         <v>16</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -9678,11 +9512,11 @@
       <c r="B211" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C211" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D211" s="20"/>
-      <c r="E211" s="19"/>
+      <c r="C211" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D211" s="26"/>
+      <c r="E211" s="27"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
@@ -9693,11 +9527,11 @@
       <c r="B212" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C212" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D212" s="20"/>
-      <c r="E212" s="19"/>
+      <c r="C212" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D212" s="26"/>
+      <c r="E212" s="27"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
@@ -9709,7 +9543,7 @@
         <v>16</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -9726,7 +9560,7 @@
         <v>16</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -9741,7 +9575,7 @@
         <v>16</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -9756,7 +9590,7 @@
         <v>16</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -9771,7 +9605,7 @@
         <v>16</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -9788,7 +9622,7 @@
         <v>16</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -9807,7 +9641,7 @@
         <v>16</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -9822,7 +9656,7 @@
         <v>16</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -9837,7 +9671,7 @@
         <v>28</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="7" t="s">
@@ -9854,7 +9688,7 @@
         <v>28</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -9869,7 +9703,7 @@
         <v>28</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -9888,7 +9722,7 @@
         <v>28</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -9905,7 +9739,7 @@
         <v>28</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -9915,7 +9749,7 @@
       </c>
       <c r="H225" s="2"/>
       <c r="I225" s="8" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="11.25" customHeight="1">
@@ -9924,7 +9758,7 @@
         <v>28</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -9939,7 +9773,7 @@
         <v>28</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -9960,7 +9794,7 @@
         <v>28</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -9975,7 +9809,7 @@
         <v>28</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -9989,10 +9823,10 @@
       <c r="B230" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C230" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="D230" s="19"/>
+      <c r="C230" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D230" s="27"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
@@ -10014,7 +9848,7 @@
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="6" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -10029,7 +9863,7 @@
         <v>16</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -10044,7 +9878,7 @@
         <v>16</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="7" t="s">
@@ -10061,7 +9895,7 @@
         <v>16</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="7" t="s">
@@ -10078,7 +9912,7 @@
         <v>16</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="7" t="s">
@@ -10095,7 +9929,7 @@
         <v>28</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="7" t="s">
@@ -10112,7 +9946,7 @@
         <v>28</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -10136,7 +9970,7 @@
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="15" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -10159,10 +9993,10 @@
     <row r="242" spans="1:9" ht="11.25" customHeight="1">
       <c r="A242" s="2"/>
       <c r="B242" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -10174,10 +10008,10 @@
     <row r="243" spans="1:9" ht="11.25" customHeight="1">
       <c r="A243" s="2"/>
       <c r="B243" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -10189,10 +10023,10 @@
     <row r="244" spans="1:9" ht="11.25" customHeight="1">
       <c r="A244" s="2"/>
       <c r="B244" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -10204,10 +10038,10 @@
     <row r="245" spans="1:9" ht="11.25" customHeight="1">
       <c r="A245" s="2"/>
       <c r="B245" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -10219,10 +10053,10 @@
     <row r="246" spans="1:9" ht="11.25" customHeight="1">
       <c r="A246" s="2"/>
       <c r="B246" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -10234,10 +10068,10 @@
     <row r="247" spans="1:9" ht="11.25" customHeight="1">
       <c r="A247" s="2"/>
       <c r="B247" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -10249,10 +10083,10 @@
     <row r="248" spans="1:9" ht="11.25" customHeight="1">
       <c r="A248" s="2"/>
       <c r="B248" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -10264,12 +10098,12 @@
     <row r="249" spans="1:9" ht="11.25" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C249" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="D249" s="19"/>
+        <v>195</v>
+      </c>
+      <c r="C249" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D249" s="27"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
@@ -10279,10 +10113,10 @@
     <row r="250" spans="1:9" ht="11.25" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -10296,10 +10130,10 @@
     <row r="251" spans="1:9" ht="11.25" customHeight="1">
       <c r="A251" s="2"/>
       <c r="B251" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -10314,7 +10148,7 @@
         <v>28</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -10329,7 +10163,7 @@
         <v>28</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" s="7" t="s">
@@ -10346,7 +10180,7 @@
         <v>28</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -10361,7 +10195,7 @@
         <v>28</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -10385,7 +10219,7 @@
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="6" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -10400,7 +10234,7 @@
         <v>11</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -10415,7 +10249,7 @@
         <v>11</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -10432,7 +10266,7 @@
         <v>11</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -10449,7 +10283,7 @@
         <v>11</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -10466,7 +10300,7 @@
         <v>16</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -10481,7 +10315,7 @@
         <v>16</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -10496,7 +10330,7 @@
         <v>16</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="7" t="s">
@@ -10513,7 +10347,7 @@
         <v>16</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" s="7" t="s">
@@ -10530,7 +10364,7 @@
         <v>16</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -10547,7 +10381,7 @@
         <v>16</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="7" t="s">
@@ -10566,7 +10400,7 @@
         <v>16</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -10583,7 +10417,7 @@
         <v>16</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -10598,7 +10432,7 @@
         <v>16</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -10615,7 +10449,7 @@
         <v>16</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -10632,7 +10466,7 @@
         <v>16</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -10647,7 +10481,7 @@
         <v>16</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -10662,7 +10496,7 @@
         <v>16</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -10677,7 +10511,7 @@
         <v>16</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -10692,7 +10526,7 @@
         <v>16</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -10709,7 +10543,7 @@
         <v>28</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -10724,7 +10558,7 @@
         <v>28</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -10739,7 +10573,7 @@
         <v>28</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -10756,7 +10590,7 @@
         <v>28</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -10770,10 +10604,10 @@
       <c r="B281" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C281" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="D281" s="19"/>
+      <c r="C281" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D281" s="27"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
@@ -10788,7 +10622,7 @@
         <v>28</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="7" t="s">
@@ -10805,7 +10639,7 @@
         <v>28</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" s="7" t="s">
@@ -10822,7 +10656,7 @@
         <v>28</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" s="7" t="s">
@@ -10839,7 +10673,7 @@
         <v>28</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="7" t="s">
@@ -10856,7 +10690,7 @@
         <v>28</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -10871,7 +10705,7 @@
         <v>28</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -10897,7 +10731,7 @@
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="8" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -10929,7 +10763,7 @@
         <v>16</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -10944,7 +10778,7 @@
         <v>16</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -10979,7 +10813,7 @@
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="8" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -10991,10 +10825,10 @@
     <row r="296" spans="1:9" ht="11.25" customHeight="1">
       <c r="A296" s="2"/>
       <c r="B296" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -11006,13 +10840,13 @@
     <row r="297" spans="1:9" ht="11.25" customHeight="1">
       <c r="A297" s="2"/>
       <c r="B297" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C297" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="D297" s="20"/>
-      <c r="E297" s="19"/>
+        <v>195</v>
+      </c>
+      <c r="C297" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="D297" s="26"/>
+      <c r="E297" s="27"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
@@ -11021,10 +10855,10 @@
     <row r="298" spans="1:9" ht="11.25" customHeight="1">
       <c r="A298" s="2"/>
       <c r="B298" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -11038,10 +10872,10 @@
     <row r="299" spans="1:9" ht="11.25" customHeight="1">
       <c r="A299" s="2"/>
       <c r="B299" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -11053,12 +10887,12 @@
     <row r="300" spans="1:9" ht="11.25" customHeight="1">
       <c r="A300" s="2"/>
       <c r="B300" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C300" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="D300" s="19"/>
+        <v>195</v>
+      </c>
+      <c r="C300" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D300" s="27"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
@@ -11070,10 +10904,10 @@
     <row r="301" spans="1:9" ht="11.25" customHeight="1">
       <c r="A301" s="2"/>
       <c r="B301" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -11087,10 +10921,10 @@
     <row r="302" spans="1:9" ht="11.25" customHeight="1">
       <c r="A302" s="2"/>
       <c r="B302" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -11104,10 +10938,10 @@
     <row r="303" spans="1:9" ht="11.25" customHeight="1">
       <c r="A303" s="2"/>
       <c r="B303" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -11121,10 +10955,10 @@
     <row r="304" spans="1:9" ht="11.25" customHeight="1">
       <c r="A304" s="2"/>
       <c r="B304" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -11136,10 +10970,10 @@
     <row r="305" spans="1:9" ht="11.25" customHeight="1">
       <c r="A305" s="2"/>
       <c r="B305" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -11176,7 +11010,7 @@
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="15" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -11191,7 +11025,7 @@
         <v>16</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -11206,7 +11040,7 @@
         <v>16</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -11221,7 +11055,7 @@
         <v>16</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>12</v>
@@ -11240,7 +11074,7 @@
         <v>16</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -11255,7 +11089,7 @@
         <v>16</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -11270,7 +11104,7 @@
         <v>16</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -11285,7 +11119,7 @@
         <v>16</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -11302,7 +11136,7 @@
         <v>16</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -11317,7 +11151,7 @@
         <v>28</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>12</v>
@@ -11334,7 +11168,7 @@
         <v>28</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -11351,7 +11185,7 @@
         <v>28</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -11366,7 +11200,7 @@
         <v>28</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -11382,10 +11216,10 @@
       <c r="B321" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C321" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="D321" s="19"/>
+      <c r="C321" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D321" s="27"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
@@ -11398,7 +11232,7 @@
         <v>28</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -11415,7 +11249,7 @@
         <v>28</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -11432,7 +11266,7 @@
         <v>28</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="7" t="s">
@@ -11449,7 +11283,7 @@
         <v>28</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -11464,7 +11298,7 @@
         <v>28</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -11488,7 +11322,7 @@
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="9" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -11500,10 +11334,10 @@
     <row r="329" spans="1:9" ht="11.25" customHeight="1">
       <c r="A329" s="2"/>
       <c r="B329" s="6" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>12</v>
@@ -11517,10 +11351,10 @@
     <row r="330" spans="1:9" ht="11.25" customHeight="1">
       <c r="A330" s="2"/>
       <c r="B330" s="6" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -11534,10 +11368,10 @@
     <row r="331" spans="1:9" ht="11.25" customHeight="1">
       <c r="A331" s="2"/>
       <c r="B331" s="6" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -11549,10 +11383,10 @@
     <row r="332" spans="1:9" ht="11.25" customHeight="1">
       <c r="A332" s="2"/>
       <c r="B332" s="6" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -11578,21 +11412,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C206:D206"/>
     <mergeCell ref="C281:D281"/>
     <mergeCell ref="C297:E297"/>
     <mergeCell ref="C300:D300"/>
@@ -11602,6 +11421,21 @@
     <mergeCell ref="C212:E212"/>
     <mergeCell ref="C230:D230"/>
     <mergeCell ref="C249:D249"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C84:D84"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://www.youtube.com/c/arshgoyal" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -11623,8 +11457,8 @@
     <hyperlink ref="C87" r:id="rId17" display="http://www.geeksforgeeks.org/make-array-elements-equal-minimum-cost/" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="C90" r:id="rId18" display="http://www.geeksforgeeks.org/minimum-number-swaps-required-sort-array/" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="C91" r:id="rId19" display="http://www.spoj.com/problems/AGGRCOW/" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C101" r:id="rId20" display="http://www.geeksforgeeks.org/sort-a-linked-list-of-0s-1s-or-2s/" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C104" r:id="rId21" display="http://www.geeksforgeeks.org/multiply-two-numbers-represented-linked-lists/" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C101" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C104" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="C106" r:id="rId22" display="http://www.geeksforgeeks.org/given-only-a-pointer-to-a-node-to-be-deleted-in-a-singly-linked-list-how-do-you-delete-it/" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="C115" r:id="rId23" display="http://www.geeksforgeeks.org/linked-list-in-zig-zag-fashion/" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="C116" r:id="rId24" display="http://www.geeksforgeeks.org/segregate-even-and-odd-elements-in-a-linked-list/" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
@@ -11699,6 +11533,15 @@
     <hyperlink ref="C74" r:id="rId93" xr:uid="{483AFCB3-635D-4D95-92A1-E723255BC579}"/>
     <hyperlink ref="C76" r:id="rId94" xr:uid="{DB7053DD-905C-41A6-8A9B-425296C93938}"/>
     <hyperlink ref="C77" r:id="rId95" xr:uid="{8D451444-11A6-4185-8454-7D06C6694EE8}"/>
+    <hyperlink ref="C97" r:id="rId96" xr:uid="{7578B2F0-8038-4062-8C49-BAF25FFE36B2}"/>
+    <hyperlink ref="C98" r:id="rId97" xr:uid="{D216CD0F-2C54-4437-961F-17C432372218}"/>
+    <hyperlink ref="C99" r:id="rId98" xr:uid="{92E7FBA6-7906-4E0D-9E8C-09E079C0553A}"/>
+    <hyperlink ref="C100" r:id="rId99" xr:uid="{433BE5B0-EA99-466C-A72E-0E8EBD7706AE}"/>
+    <hyperlink ref="C102" r:id="rId100" xr:uid="{8800A9F1-DD0C-44B0-A341-52D45B7F311B}"/>
+    <hyperlink ref="C103" r:id="rId101" xr:uid="{F1D3DE05-7A72-4847-8DA9-B34B36061262}"/>
+    <hyperlink ref="C105" r:id="rId102" xr:uid="{69F7AC9C-42AD-4831-A340-ED2E8C4E7AB2}"/>
+    <hyperlink ref="C107" r:id="rId103" xr:uid="{3503FCDA-2D51-4B78-A733-A5112020D738}"/>
+    <hyperlink ref="C108" r:id="rId104" xr:uid="{F3803B59-7BE3-48B2-A667-21267EE6D12A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
+++ b/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODING\CrackYourInternship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDCC5C3-2BA1-4793-9832-5A874CED735E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA48E50-3D65-4646-BDA8-E37E768803F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="326">
   <si>
     <r>
       <rPr>
@@ -1116,153 +1116,6 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>https://leetcode.com/problems/add-two-numbers-ii</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/reverse-linked-list-ii</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/remove-nth-node-from-end-of-list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/flatten-a-multilevel-doubly-linked-list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/partition-list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.geeksforgeeks.org/linked-list-in-zig-zag-fashion</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>https://www.geeksforgeeks.org/segregate-even-and-odd-elements-in-a-linked-list</t>
     </r>
     <r>
@@ -1285,48 +1138,6 @@
         <family val="2"/>
       </rPr>
       <t>https://www.geeksforgeeks.org/rearrange-a-given-linked-list-in-place</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/merge-k-sorted-lists</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/reverse-nodes-in-k-group</t>
     </r>
     <r>
       <rPr>
@@ -5358,6 +5169,33 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/sort-a-linked-list-of-0s-1s-or-2s/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-two-numbers-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-linked-list-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-nth-node-from-end-of-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flatten-a-multilevel-doubly-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partition-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/linked-list-in-zig-zag-fashion/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-k-sorted-lists/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-nodes-in-k-group/</t>
   </si>
 </sst>
 </file>
@@ -5661,10 +5499,25 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5673,22 +5526,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5998,8 +5836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="153" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="153" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6056,7 +5894,7 @@
     </row>
     <row r="4" spans="1:9" ht="12.95" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -6098,10 +5936,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -6117,10 +5955,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>12</v>
@@ -6140,10 +5978,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>12</v>
@@ -6174,10 +6012,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>12</v>
@@ -6196,7 +6034,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -6215,7 +6053,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -6231,10 +6069,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -6250,10 +6088,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -6271,10 +6109,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -6290,10 +6128,10 @@
         <v>16</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -6311,10 +6149,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="10" t="s">
@@ -6330,10 +6168,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>12</v>
@@ -6491,10 +6329,10 @@
       <c r="B28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="10" t="s">
@@ -6625,10 +6463,10 @@
         <v>11</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -6661,10 +6499,10 @@
         <v>11</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -6682,10 +6520,10 @@
         <v>11</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -6701,10 +6539,10 @@
         <v>11</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>12</v>
@@ -6724,10 +6562,10 @@
         <v>16</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>12</v>
@@ -6745,10 +6583,10 @@
         <v>16</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -6766,10 +6604,10 @@
         <v>16</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>12</v>
@@ -6784,10 +6622,10 @@
       <c r="B45" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="21"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="7" t="s">
         <v>12</v>
       </c>
@@ -6804,10 +6642,10 @@
         <v>16</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>12</v>
@@ -6842,10 +6680,10 @@
         <v>16</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -6878,10 +6716,10 @@
         <v>16</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -7122,10 +6960,10 @@
         <v>11</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -7141,10 +6979,10 @@
         <v>11</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -7160,10 +6998,10 @@
         <v>11</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -7179,10 +7017,10 @@
         <v>11</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -7198,10 +7036,10 @@
         <v>11</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -7219,10 +7057,10 @@
         <v>11</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -7238,10 +7076,10 @@
         <v>11</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>12</v>
@@ -7259,10 +7097,10 @@
         <v>11</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -7278,10 +7116,10 @@
         <v>11</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -7297,10 +7135,10 @@
         <v>16</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -7316,10 +7154,10 @@
         <v>16</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -7337,10 +7175,10 @@
         <v>16</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -7379,10 +7217,10 @@
       <c r="B80" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D80" s="23"/>
+      <c r="D80" s="27"/>
       <c r="E80" s="24"/>
       <c r="F80" s="2"/>
       <c r="G80" s="11" t="s">
@@ -7411,7 +7249,7 @@
       <c r="B82" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="23" t="s">
         <v>52</v>
       </c>
       <c r="D82" s="24"/>
@@ -7445,7 +7283,7 @@
       <c r="B84" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="23" t="s">
         <v>54</v>
       </c>
       <c r="D84" s="24"/>
@@ -7492,7 +7330,7 @@
       <c r="B87" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D87" s="24"/>
@@ -7524,10 +7362,10 @@
       <c r="B89" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D89" s="19"/>
+      <c r="D89" s="22"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="11" t="s">
@@ -7590,7 +7428,7 @@
       <c r="B93" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="23" t="s">
         <v>63</v>
       </c>
       <c r="D93" s="24"/>
@@ -7649,10 +7487,10 @@
         <v>11</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -7668,10 +7506,10 @@
         <v>11</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>12</v>
@@ -7689,10 +7527,10 @@
         <v>11</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -7710,10 +7548,10 @@
         <v>11</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -7729,10 +7567,10 @@
         <v>11</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -7748,10 +7586,10 @@
         <v>11</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -7769,10 +7607,10 @@
         <v>11</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -7790,7 +7628,7 @@
         <v>11</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -7807,10 +7645,10 @@
         <v>11</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -7825,25 +7663,29 @@
       <c r="B106" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C106" s="25" t="s">
+      <c r="C106" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D106" s="26"/>
-      <c r="E106" s="27"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="19"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
     <row r="107" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A107" s="2"/>
+      <c r="A107" s="2">
+        <v>8</v>
+      </c>
       <c r="B107" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D107" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -7855,14 +7697,18 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A108" s="2"/>
+      <c r="A108" s="2">
+        <v>8</v>
+      </c>
       <c r="B108" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="D108" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -7870,14 +7716,18 @@
       <c r="I108" s="2"/>
     </row>
     <row r="109" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A109" s="2"/>
+      <c r="A109" s="2">
+        <v>8</v>
+      </c>
       <c r="B109" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D109" s="2"/>
+      <c r="C109" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -7885,14 +7735,18 @@
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A110" s="2"/>
+      <c r="A110" s="2">
+        <v>8</v>
+      </c>
       <c r="B110" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D110" s="2"/>
+      <c r="C110" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="E110" s="2"/>
       <c r="F110" s="6" t="s">
         <v>12</v>
@@ -7906,8 +7760,8 @@
       <c r="B111" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>69</v>
+      <c r="C111" s="16" t="s">
+        <v>319</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -7921,8 +7775,8 @@
       <c r="B112" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>70</v>
+      <c r="C112" s="16" t="s">
+        <v>320</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -7936,8 +7790,8 @@
       <c r="B113" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>71</v>
+      <c r="C113" s="16" t="s">
+        <v>321</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -7953,8 +7807,8 @@
       <c r="B114" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>72</v>
+      <c r="C114" s="16" t="s">
+        <v>322</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -7970,8 +7824,8 @@
       <c r="B115" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>73</v>
+      <c r="C115" s="16" t="s">
+        <v>323</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -7986,7 +7840,7 @@
         <v>16</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -8001,7 +7855,7 @@
         <v>16</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -8015,8 +7869,8 @@
       <c r="B118" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>76</v>
+      <c r="C118" s="16" t="s">
+        <v>324</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -8030,8 +7884,8 @@
       <c r="B119" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C119" s="4" t="s">
-        <v>77</v>
+      <c r="C119" s="16" t="s">
+        <v>325</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -8048,7 +7902,7 @@
         <v>28</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -8065,7 +7919,7 @@
         <v>28</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -8080,7 +7934,7 @@
         <v>28</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -8104,7 +7958,7 @@
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="15" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -8119,7 +7973,7 @@
         <v>11</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -8134,7 +7988,7 @@
         <v>11</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="7" t="s">
@@ -8151,7 +8005,7 @@
         <v>11</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -8170,7 +8024,7 @@
         <v>11</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -8185,7 +8039,7 @@
         <v>11</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -8202,7 +8056,7 @@
         <v>11</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -8217,7 +8071,7 @@
         <v>16</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -8231,10 +8085,10 @@
       <c r="B132" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C132" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D132" s="19"/>
+      <c r="C132" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D132" s="22"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -8249,7 +8103,7 @@
         <v>16</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="7" t="s">
@@ -8266,7 +8120,7 @@
         <v>16</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -8283,7 +8137,7 @@
         <v>16</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -8300,7 +8154,7 @@
         <v>16</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -8315,7 +8169,7 @@
         <v>16</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="7" t="s">
@@ -8332,7 +8186,7 @@
         <v>16</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -8346,10 +8200,10 @@
       <c r="B139" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C139" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D139" s="27"/>
+      <c r="C139" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D139" s="19"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="7" t="s">
@@ -8366,7 +8220,7 @@
         <v>28</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -8383,7 +8237,7 @@
         <v>28</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -8409,7 +8263,7 @@
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="15" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -8424,7 +8278,7 @@
         <v>11</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -8439,7 +8293,7 @@
         <v>11</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -8456,7 +8310,7 @@
         <v>11</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -8475,7 +8329,7 @@
         <v>11</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -8490,7 +8344,7 @@
         <v>11</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>12</v>
@@ -8509,7 +8363,7 @@
         <v>11</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -8524,7 +8378,7 @@
         <v>11</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -8539,7 +8393,7 @@
         <v>11</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -8554,7 +8408,7 @@
         <v>11</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -8573,7 +8427,7 @@
         <v>11</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -8588,7 +8442,7 @@
         <v>11</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>12</v>
@@ -8605,7 +8459,7 @@
         <v>11</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -8620,7 +8474,7 @@
         <v>11</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -8635,7 +8489,7 @@
         <v>11</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -8654,7 +8508,7 @@
         <v>11</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -8671,7 +8525,7 @@
         <v>11</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -8686,7 +8540,7 @@
         <v>11</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -8701,7 +8555,7 @@
         <v>11</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -8716,7 +8570,7 @@
         <v>16</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -8731,7 +8585,7 @@
         <v>16</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -8746,7 +8600,7 @@
         <v>16</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -8761,7 +8615,7 @@
         <v>16</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -8778,7 +8632,7 @@
         <v>16</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="7" t="s">
@@ -8795,7 +8649,7 @@
         <v>16</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -8810,7 +8664,7 @@
         <v>16</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -8825,7 +8679,7 @@
         <v>16</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -8840,7 +8694,7 @@
         <v>16</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -8856,10 +8710,10 @@
       <c r="B171" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C171" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D171" s="27"/>
+      <c r="C171" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D171" s="19"/>
       <c r="E171" s="2"/>
       <c r="F171" s="6" t="s">
         <v>12</v>
@@ -8876,7 +8730,7 @@
         <v>16</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="7" t="s">
@@ -8897,7 +8751,7 @@
         <v>16</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -8914,7 +8768,7 @@
         <v>16</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -8935,7 +8789,7 @@
         <v>16</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -8950,7 +8804,7 @@
         <v>16</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -8964,10 +8818,10 @@
       <c r="B177" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C177" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D177" s="19"/>
+      <c r="C177" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D177" s="22"/>
       <c r="E177" s="2"/>
       <c r="F177" s="6" t="s">
         <v>12</v>
@@ -8982,7 +8836,7 @@
         <v>16</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="7" t="s">
@@ -8999,7 +8853,7 @@
         <v>16</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -9015,10 +8869,10 @@
       <c r="B180" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C180" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D180" s="19"/>
+      <c r="C180" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D180" s="22"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
@@ -9031,7 +8885,7 @@
         <v>16</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -9050,7 +8904,7 @@
         <v>28</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -9065,7 +8919,7 @@
         <v>28</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -9082,7 +8936,7 @@
         <v>28</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -9099,7 +8953,7 @@
         <v>28</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -9118,7 +8972,7 @@
         <v>28</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -9135,7 +8989,7 @@
         <v>28</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -9152,7 +9006,7 @@
         <v>28</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -9169,7 +9023,7 @@
         <v>28</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -9184,7 +9038,7 @@
         <v>28</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -9201,7 +9055,7 @@
         <v>28</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -9225,7 +9079,7 @@
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -9240,7 +9094,7 @@
         <v>11</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -9257,7 +9111,7 @@
         <v>11</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="7" t="s">
@@ -9274,7 +9128,7 @@
         <v>11</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -9289,7 +9143,7 @@
         <v>11</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -9306,7 +9160,7 @@
         <v>11</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -9321,7 +9175,7 @@
         <v>11</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -9336,7 +9190,7 @@
         <v>11</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -9351,7 +9205,7 @@
         <v>16</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="7" t="s">
@@ -9368,7 +9222,7 @@
         <v>16</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="7" t="s">
@@ -9385,7 +9239,7 @@
         <v>16</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="7" t="s">
@@ -9402,7 +9256,7 @@
         <v>16</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="7" t="s">
@@ -9421,7 +9275,7 @@
         <v>16</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -9435,10 +9289,10 @@
       <c r="B206" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C206" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D206" s="19"/>
+      <c r="C206" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D206" s="22"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
@@ -9451,7 +9305,7 @@
         <v>16</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="7" t="s">
@@ -9467,14 +9321,14 @@
       <c r="B208" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C208" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="D208" s="26"/>
-      <c r="E208" s="26"/>
-      <c r="F208" s="26"/>
-      <c r="G208" s="26"/>
-      <c r="H208" s="27"/>
+      <c r="C208" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D208" s="20"/>
+      <c r="E208" s="20"/>
+      <c r="F208" s="20"/>
+      <c r="G208" s="20"/>
+      <c r="H208" s="19"/>
       <c r="I208" s="2"/>
     </row>
     <row r="209" spans="1:9" ht="11.25" customHeight="1">
@@ -9483,7 +9337,7 @@
         <v>16</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -9498,7 +9352,7 @@
         <v>16</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -9512,11 +9366,11 @@
       <c r="B211" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C211" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="D211" s="26"/>
-      <c r="E211" s="27"/>
+      <c r="C211" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D211" s="20"/>
+      <c r="E211" s="19"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
@@ -9527,11 +9381,11 @@
       <c r="B212" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C212" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="D212" s="26"/>
-      <c r="E212" s="27"/>
+      <c r="C212" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D212" s="20"/>
+      <c r="E212" s="19"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
@@ -9543,7 +9397,7 @@
         <v>16</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -9560,7 +9414,7 @@
         <v>16</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -9575,7 +9429,7 @@
         <v>16</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -9590,7 +9444,7 @@
         <v>16</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -9605,7 +9459,7 @@
         <v>16</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -9622,7 +9476,7 @@
         <v>16</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -9641,7 +9495,7 @@
         <v>16</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -9656,7 +9510,7 @@
         <v>16</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -9671,7 +9525,7 @@
         <v>28</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="7" t="s">
@@ -9688,7 +9542,7 @@
         <v>28</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -9703,7 +9557,7 @@
         <v>28</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -9722,7 +9576,7 @@
         <v>28</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -9739,7 +9593,7 @@
         <v>28</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -9749,7 +9603,7 @@
       </c>
       <c r="H225" s="2"/>
       <c r="I225" s="8" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="11.25" customHeight="1">
@@ -9758,7 +9612,7 @@
         <v>28</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -9773,7 +9627,7 @@
         <v>28</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -9794,7 +9648,7 @@
         <v>28</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -9809,7 +9663,7 @@
         <v>28</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -9823,10 +9677,10 @@
       <c r="B230" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C230" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="D230" s="27"/>
+      <c r="C230" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D230" s="19"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
@@ -9848,7 +9702,7 @@
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -9863,7 +9717,7 @@
         <v>16</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -9878,7 +9732,7 @@
         <v>16</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="7" t="s">
@@ -9895,7 +9749,7 @@
         <v>16</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="7" t="s">
@@ -9912,7 +9766,7 @@
         <v>16</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="7" t="s">
@@ -9929,7 +9783,7 @@
         <v>28</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="7" t="s">
@@ -9946,7 +9800,7 @@
         <v>28</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -9970,7 +9824,7 @@
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="15" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -9993,10 +9847,10 @@
     <row r="242" spans="1:9" ht="11.25" customHeight="1">
       <c r="A242" s="2"/>
       <c r="B242" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -10008,10 +9862,10 @@
     <row r="243" spans="1:9" ht="11.25" customHeight="1">
       <c r="A243" s="2"/>
       <c r="B243" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -10023,10 +9877,10 @@
     <row r="244" spans="1:9" ht="11.25" customHeight="1">
       <c r="A244" s="2"/>
       <c r="B244" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -10038,10 +9892,10 @@
     <row r="245" spans="1:9" ht="11.25" customHeight="1">
       <c r="A245" s="2"/>
       <c r="B245" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -10053,10 +9907,10 @@
     <row r="246" spans="1:9" ht="11.25" customHeight="1">
       <c r="A246" s="2"/>
       <c r="B246" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -10068,10 +9922,10 @@
     <row r="247" spans="1:9" ht="11.25" customHeight="1">
       <c r="A247" s="2"/>
       <c r="B247" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -10083,10 +9937,10 @@
     <row r="248" spans="1:9" ht="11.25" customHeight="1">
       <c r="A248" s="2"/>
       <c r="B248" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -10098,12 +9952,12 @@
     <row r="249" spans="1:9" ht="11.25" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C249" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="D249" s="27"/>
+        <v>186</v>
+      </c>
+      <c r="C249" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D249" s="19"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
@@ -10113,10 +9967,10 @@
     <row r="250" spans="1:9" ht="11.25" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C250" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -10130,10 +9984,10 @@
     <row r="251" spans="1:9" ht="11.25" customHeight="1">
       <c r="A251" s="2"/>
       <c r="B251" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -10148,7 +10002,7 @@
         <v>28</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -10163,7 +10017,7 @@
         <v>28</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" s="7" t="s">
@@ -10180,7 +10034,7 @@
         <v>28</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -10195,7 +10049,7 @@
         <v>28</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -10219,7 +10073,7 @@
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="6" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -10234,7 +10088,7 @@
         <v>11</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -10249,7 +10103,7 @@
         <v>11</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -10266,7 +10120,7 @@
         <v>11</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -10283,7 +10137,7 @@
         <v>11</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -10300,7 +10154,7 @@
         <v>16</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -10315,7 +10169,7 @@
         <v>16</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -10330,7 +10184,7 @@
         <v>16</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="7" t="s">
@@ -10347,7 +10201,7 @@
         <v>16</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" s="7" t="s">
@@ -10364,7 +10218,7 @@
         <v>16</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -10381,7 +10235,7 @@
         <v>16</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="7" t="s">
@@ -10400,7 +10254,7 @@
         <v>16</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -10417,7 +10271,7 @@
         <v>16</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -10432,7 +10286,7 @@
         <v>16</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -10449,7 +10303,7 @@
         <v>16</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -10466,7 +10320,7 @@
         <v>16</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -10481,7 +10335,7 @@
         <v>16</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -10496,7 +10350,7 @@
         <v>16</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -10511,7 +10365,7 @@
         <v>16</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -10526,7 +10380,7 @@
         <v>16</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -10543,7 +10397,7 @@
         <v>28</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -10558,7 +10412,7 @@
         <v>28</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -10573,7 +10427,7 @@
         <v>28</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -10590,7 +10444,7 @@
         <v>28</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -10604,10 +10458,10 @@
       <c r="B281" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C281" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="D281" s="27"/>
+      <c r="C281" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D281" s="19"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
@@ -10622,7 +10476,7 @@
         <v>28</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="7" t="s">
@@ -10639,7 +10493,7 @@
         <v>28</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" s="7" t="s">
@@ -10656,7 +10510,7 @@
         <v>28</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" s="7" t="s">
@@ -10673,7 +10527,7 @@
         <v>28</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="7" t="s">
@@ -10690,7 +10544,7 @@
         <v>28</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -10705,7 +10559,7 @@
         <v>28</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -10731,7 +10585,7 @@
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="8" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -10763,7 +10617,7 @@
         <v>16</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -10778,7 +10632,7 @@
         <v>16</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -10813,7 +10667,7 @@
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="8" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -10825,10 +10679,10 @@
     <row r="296" spans="1:9" ht="11.25" customHeight="1">
       <c r="A296" s="2"/>
       <c r="B296" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -10840,13 +10694,13 @@
     <row r="297" spans="1:9" ht="11.25" customHeight="1">
       <c r="A297" s="2"/>
       <c r="B297" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C297" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="D297" s="26"/>
-      <c r="E297" s="27"/>
+        <v>186</v>
+      </c>
+      <c r="C297" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D297" s="20"/>
+      <c r="E297" s="19"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
@@ -10855,10 +10709,10 @@
     <row r="298" spans="1:9" ht="11.25" customHeight="1">
       <c r="A298" s="2"/>
       <c r="B298" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -10872,10 +10726,10 @@
     <row r="299" spans="1:9" ht="11.25" customHeight="1">
       <c r="A299" s="2"/>
       <c r="B299" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -10887,12 +10741,12 @@
     <row r="300" spans="1:9" ht="11.25" customHeight="1">
       <c r="A300" s="2"/>
       <c r="B300" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C300" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D300" s="27"/>
+        <v>186</v>
+      </c>
+      <c r="C300" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D300" s="19"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
@@ -10904,10 +10758,10 @@
     <row r="301" spans="1:9" ht="11.25" customHeight="1">
       <c r="A301" s="2"/>
       <c r="B301" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -10921,10 +10775,10 @@
     <row r="302" spans="1:9" ht="11.25" customHeight="1">
       <c r="A302" s="2"/>
       <c r="B302" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -10938,10 +10792,10 @@
     <row r="303" spans="1:9" ht="11.25" customHeight="1">
       <c r="A303" s="2"/>
       <c r="B303" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -10955,10 +10809,10 @@
     <row r="304" spans="1:9" ht="11.25" customHeight="1">
       <c r="A304" s="2"/>
       <c r="B304" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -10970,10 +10824,10 @@
     <row r="305" spans="1:9" ht="11.25" customHeight="1">
       <c r="A305" s="2"/>
       <c r="B305" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -11010,7 +10864,7 @@
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="15" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -11025,7 +10879,7 @@
         <v>16</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -11040,7 +10894,7 @@
         <v>16</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -11055,7 +10909,7 @@
         <v>16</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>12</v>
@@ -11074,7 +10928,7 @@
         <v>16</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -11089,7 +10943,7 @@
         <v>16</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -11104,7 +10958,7 @@
         <v>16</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -11119,7 +10973,7 @@
         <v>16</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -11136,7 +10990,7 @@
         <v>16</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -11151,7 +11005,7 @@
         <v>28</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>12</v>
@@ -11168,7 +11022,7 @@
         <v>28</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -11185,7 +11039,7 @@
         <v>28</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -11200,7 +11054,7 @@
         <v>28</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -11216,10 +11070,10 @@
       <c r="B321" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C321" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="D321" s="27"/>
+      <c r="C321" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="D321" s="19"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
@@ -11232,7 +11086,7 @@
         <v>28</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -11249,7 +11103,7 @@
         <v>28</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -11266,7 +11120,7 @@
         <v>28</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="7" t="s">
@@ -11283,7 +11137,7 @@
         <v>28</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -11298,7 +11152,7 @@
         <v>28</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -11322,7 +11176,7 @@
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="9" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -11334,10 +11188,10 @@
     <row r="329" spans="1:9" ht="11.25" customHeight="1">
       <c r="A329" s="2"/>
       <c r="B329" s="6" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>12</v>
@@ -11351,10 +11205,10 @@
     <row r="330" spans="1:9" ht="11.25" customHeight="1">
       <c r="A330" s="2"/>
       <c r="B330" s="6" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -11368,10 +11222,10 @@
     <row r="331" spans="1:9" ht="11.25" customHeight="1">
       <c r="A331" s="2"/>
       <c r="B331" s="6" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -11383,10 +11237,10 @@
     <row r="332" spans="1:9" ht="11.25" customHeight="1">
       <c r="A332" s="2"/>
       <c r="B332" s="6" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -11412,6 +11266,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C206:D206"/>
     <mergeCell ref="C281:D281"/>
     <mergeCell ref="C297:E297"/>
     <mergeCell ref="C300:D300"/>
@@ -11421,21 +11290,6 @@
     <mergeCell ref="C212:E212"/>
     <mergeCell ref="C230:D230"/>
     <mergeCell ref="C249:D249"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C84:D84"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://www.youtube.com/c/arshgoyal" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -11460,7 +11314,7 @@
     <hyperlink ref="C101" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="C104" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="C106" r:id="rId22" display="http://www.geeksforgeeks.org/given-only-a-pointer-to-a-node-to-be-deleted-in-a-singly-linked-list-how-do-you-delete-it/" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C115" r:id="rId23" display="http://www.geeksforgeeks.org/linked-list-in-zig-zag-fashion/" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C115" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="C116" r:id="rId24" display="http://www.geeksforgeeks.org/segregate-even-and-odd-elements-in-a-linked-list/" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="C117" r:id="rId25" display="http://www.geeksforgeeks.org/rearrange-a-given-linked-list-in-place/" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="C120" r:id="rId26" display="http://www.geeksforgeeks.org/merge-sort-for-linked-list/" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
@@ -11542,6 +11396,14 @@
     <hyperlink ref="C105" r:id="rId102" xr:uid="{69F7AC9C-42AD-4831-A340-ED2E8C4E7AB2}"/>
     <hyperlink ref="C107" r:id="rId103" xr:uid="{3503FCDA-2D51-4B78-A733-A5112020D738}"/>
     <hyperlink ref="C108" r:id="rId104" xr:uid="{F3803B59-7BE3-48B2-A667-21267EE6D12A}"/>
+    <hyperlink ref="C109" r:id="rId105" xr:uid="{27D753C2-9D4A-45CB-A635-BB2073A1C36B}"/>
+    <hyperlink ref="C110" r:id="rId106" xr:uid="{BB0109CC-F791-4483-9477-63CE8AE528C4}"/>
+    <hyperlink ref="C111" r:id="rId107" xr:uid="{22EF56CD-694C-4DE0-9EE1-882BA3C67DF5}"/>
+    <hyperlink ref="C112" r:id="rId108" xr:uid="{A114D2BE-831B-4435-863E-BE43F95F212B}"/>
+    <hyperlink ref="C113" r:id="rId109" xr:uid="{5079823D-BFDE-4635-B58F-6BB004E1DC84}"/>
+    <hyperlink ref="C114" r:id="rId110" xr:uid="{885C75AC-4E7E-4869-AC66-69DF83C7CD8E}"/>
+    <hyperlink ref="C118" r:id="rId111" xr:uid="{DF088966-6D66-4E73-9DC4-0DCE8B19E15D}"/>
+    <hyperlink ref="C119" r:id="rId112" xr:uid="{2D7B3157-D8B3-4A58-9C72-0A4F478CC0DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
+++ b/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODING\CrackYourInternship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA48E50-3D65-4646-BDA8-E37E768803F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21205E5C-B885-4C39-AF6B-6B9314677534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="326">
   <si>
     <r>
       <rPr>
@@ -1232,90 +1232,6 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>https://leetcode.com/problems/implement-queue-using-stacks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/implement-stack-using-queues</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.geeksforgeeks.org/implement-stack-queue-using-deque</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/next-greater-element-i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>https://www.geeksforgeeks.org/stack-set-4-evaluation-postfix-expression</t>
     </r>
     <r>
@@ -1360,27 +1276,6 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>https://leetcode.com/problems/minimum-cost-tree-from-leaf-values</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>https://practice.geeksforgeeks.org/problems/distance-of-nearest-cell-having-1-1587115620/1</t>
     </r>
   </si>
@@ -1393,27 +1288,6 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>https://leetcode.com/problems/online-stock-span</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>https://practice.geeksforgeeks.org/problems/rotten-oranges2536/1</t>
     </r>
   </si>
@@ -1426,70 +1300,7 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>https://leetcode.com/problems/sum-of-subarray-minimums</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>https://practice.geeksforgeeks.org/problems/circular-tour/1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/flatten-nested-list-iterator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
     </r>
   </si>
   <si>
@@ -1570,747 +1381,6 @@
   <si>
     <r>
       <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/diameter-of-binary-tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/invert-binary-tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/subtree-of-another-tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/range-sum-of-bst</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/symmetric-tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/merge-two-binary-trees</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/maximum-depth-of-binary-tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/binary-tree-paths</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/same-tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/path-sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/minimum-absolute-difference-in-bst</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/sum-of-left-leaves</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/balanced-binary-tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://practice.geeksforgeeks.org/problems/predecessor-and-successor/1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/binary-tree-inorder-traversal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://practice.geeksforgeeks.org/problems/check-whether-bst-contains-dead-end/1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/binary-search-tree-iterator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/unique-binary-search-trees-ii</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/validate-binary-search-tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/binary-tree-right-side-view</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/redundant-connection</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/binary-tree-level-order-traversal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/path-sum-iii</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/construct-binary-tree-from-preorder-and-postorder-traversal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/unique-binary-search-trees</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/recover-binary-search-tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/populating-next-right-pointers-in-each-node</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/flatten-binary-tree-to-linked-list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/maximum-width-of-binary-tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://practice.geeksforgeeks.org/problems/min-distance-between-two-given-nodes-of-a-binary-tree/1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/kth-smallest-element-in-a-bst</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://practice.geeksforgeeks.org/problems/count-bst-nodes-that-lie-in-a-given-range/1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <b/>
         <u/>
         <sz val="7"/>
@@ -2319,144 +1389,6 @@
         <family val="2"/>
       </rPr>
       <t>https://practice.geeksforgeeks.org/problems/preorder-to-postorder4423/1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://practice.geeksforgeeks.org/problems/binary-tree-to-dll/1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/binary-tree-maximum-path-sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/sum-of-distances-in-tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/binary-tree-cameras</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.geeksforgeeks.org/print-k-sum-paths-binary-tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/serialize-and-deserialize-binary-tree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
     </r>
   </si>
   <si>
@@ -5196,6 +4128,165 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/reverse-nodes-in-k-group/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-queue-using-stacks/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-stack-using-queues/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/implement-stack-queue-using-deque/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/next-greater-element-i/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-cost-tree-from-leaf-values/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/online-stock-span/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-subarray-minimums/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flatten-nested-list-iterator/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/diameter-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/invert-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subtree-of-another-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/range-sum-of-bst/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/symmetric-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-two-binary-trees/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-paths/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/same-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-absolute-difference-in-bst/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-left-leaves/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/balanced-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/predecessor-and-successor/1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/check-whether-bst-contains-dead-end/1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-search-tree-iterator/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/validate-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-binary-search-trees-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-right-side-view/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/redundant-connection/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum-iii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-binary-search-trees/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-binary-tree-from-preorder-and-postorder-traversal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/recover-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/populating-next-right-pointers-in-each-node/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flatten-binary-tree-to-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-width-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/min-distance-between-two-given-nodes-of-a-binary-tree/1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-smallest-element-in-a-bst/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/count-bst-nodes-that-lie-in-a-given-range/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/binary-tree-to-dll/1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-maximum-path-sum/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-distances-in-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-cameras/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/print-k-sum-paths-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/serialize-and-deserialize-binary-tree/</t>
   </si>
 </sst>
 </file>
@@ -5444,7 +4535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5528,6 +4619,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5836,8 +4933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="153" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="153" workbookViewId="0">
+      <selection activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5894,7 +4991,7 @@
     </row>
     <row r="4" spans="1:9" ht="12.95" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5936,10 +5033,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>271</v>
+        <v>218</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -5955,10 +5052,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>12</v>
@@ -5978,10 +5075,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>274</v>
+        <v>221</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>12</v>
@@ -6012,10 +5109,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>275</v>
+        <v>222</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>12</v>
@@ -6034,7 +5131,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -6053,7 +5150,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -6069,10 +5166,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -6088,10 +5185,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -6109,10 +5206,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -6128,10 +5225,10 @@
         <v>16</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -6149,10 +5246,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>282</v>
+        <v>229</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="10" t="s">
@@ -6168,10 +5265,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>12</v>
@@ -6463,10 +5560,10 @@
         <v>11</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -6499,10 +5596,10 @@
         <v>11</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -6520,10 +5617,10 @@
         <v>11</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -6539,10 +5636,10 @@
         <v>11</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>12</v>
@@ -6562,10 +5659,10 @@
         <v>16</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>288</v>
+        <v>235</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>12</v>
@@ -6583,10 +5680,10 @@
         <v>16</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -6604,10 +5701,10 @@
         <v>16</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>12</v>
@@ -6642,10 +5739,10 @@
         <v>16</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>12</v>
@@ -6680,10 +5777,10 @@
         <v>16</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -6716,10 +5813,10 @@
         <v>16</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -6960,10 +6057,10 @@
         <v>11</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -6979,10 +6076,10 @@
         <v>11</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -6998,10 +6095,10 @@
         <v>11</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>296</v>
+        <v>243</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -7017,10 +6114,10 @@
         <v>11</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -7036,10 +6133,10 @@
         <v>11</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>298</v>
+        <v>245</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -7057,10 +6154,10 @@
         <v>11</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -7076,10 +6173,10 @@
         <v>11</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>12</v>
@@ -7097,10 +6194,10 @@
         <v>11</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -7116,10 +6213,10 @@
         <v>11</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -7135,10 +6232,10 @@
         <v>16</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -7154,10 +6251,10 @@
         <v>16</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -7175,10 +6272,10 @@
         <v>16</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -7487,10 +6584,10 @@
         <v>11</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>306</v>
+        <v>253</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -7506,10 +6603,10 @@
         <v>11</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>12</v>
@@ -7527,10 +6624,10 @@
         <v>11</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -7548,10 +6645,10 @@
         <v>11</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -7567,10 +6664,10 @@
         <v>11</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -7586,10 +6683,10 @@
         <v>11</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -7607,10 +6704,10 @@
         <v>11</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -7628,7 +6725,7 @@
         <v>11</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -7645,10 +6742,10 @@
         <v>11</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -7681,10 +6778,10 @@
         <v>11</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -7704,10 +6801,10 @@
         <v>16</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -7723,10 +6820,10 @@
         <v>16</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -7742,10 +6839,10 @@
         <v>16</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="6" t="s">
@@ -7761,7 +6858,7 @@
         <v>16</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -7776,7 +6873,7 @@
         <v>16</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -7791,7 +6888,7 @@
         <v>16</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -7808,7 +6905,7 @@
         <v>16</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -7825,7 +6922,7 @@
         <v>16</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -7870,7 +6967,7 @@
         <v>28</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -7885,7 +6982,7 @@
         <v>28</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -7968,14 +7065,18 @@
       <c r="I124" s="2"/>
     </row>
     <row r="125" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A125" s="2"/>
+      <c r="A125" s="2">
+        <v>9</v>
+      </c>
       <c r="B125" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D125" s="2"/>
+      <c r="C125" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -7983,14 +7084,18 @@
       <c r="I125" s="2"/>
     </row>
     <row r="126" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A126" s="2"/>
+      <c r="A126" s="2">
+        <v>9</v>
+      </c>
       <c r="B126" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D126" s="2"/>
+      <c r="C126" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E126" s="7" t="s">
         <v>12</v>
       </c>
@@ -8004,8 +7109,8 @@
       <c r="B127" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C127" s="4" t="s">
-        <v>75</v>
+      <c r="C127" s="16" t="s">
+        <v>275</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -8019,14 +7124,18 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A128" s="2"/>
+      <c r="A128" s="2">
+        <v>9</v>
+      </c>
       <c r="B128" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D128" s="2"/>
+      <c r="C128" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
@@ -8039,7 +7148,7 @@
         <v>11</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -8056,7 +7165,7 @@
         <v>11</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -8070,8 +7179,8 @@
       <c r="B131" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>79</v>
+      <c r="C131" s="16" t="s">
+        <v>277</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -8086,7 +7195,7 @@
         <v>16</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D132" s="22"/>
       <c r="E132" s="2"/>
@@ -8102,8 +7211,8 @@
       <c r="B133" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>81</v>
+      <c r="C133" s="16" t="s">
+        <v>278</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="7" t="s">
@@ -8120,7 +7229,7 @@
         <v>16</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -8136,8 +7245,8 @@
       <c r="B135" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C135" s="4" t="s">
-        <v>83</v>
+      <c r="C135" s="16" t="s">
+        <v>279</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -8154,7 +7263,7 @@
         <v>16</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -8164,14 +7273,18 @@
       <c r="I136" s="2"/>
     </row>
     <row r="137" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A137" s="2"/>
+      <c r="A137" s="2">
+        <v>9</v>
+      </c>
       <c r="B137" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C137" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D137" s="2"/>
+      <c r="C137" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E137" s="7" t="s">
         <v>12</v>
       </c>
@@ -8185,8 +7298,8 @@
       <c r="B138" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>86</v>
+      <c r="C138" s="16" t="s">
+        <v>281</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -8201,7 +7314,7 @@
         <v>28</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D139" s="19"/>
       <c r="E139" s="2"/>
@@ -8220,7 +7333,7 @@
         <v>28</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -8237,7 +7350,7 @@
         <v>28</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -8263,7 +7376,7 @@
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -8273,14 +7386,18 @@
       <c r="I143" s="2"/>
     </row>
     <row r="144" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A144" s="2"/>
+      <c r="A144" s="2">
+        <v>10</v>
+      </c>
       <c r="B144" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C144" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D144" s="2"/>
+      <c r="C144" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
@@ -8288,14 +7405,18 @@
       <c r="I144" s="2"/>
     </row>
     <row r="145" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A145" s="2"/>
+      <c r="A145" s="2">
+        <v>10</v>
+      </c>
       <c r="B145" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C145" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D145" s="2"/>
+      <c r="C145" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E145" s="2"/>
       <c r="F145" s="6" t="s">
         <v>12</v>
@@ -8305,14 +7426,18 @@
       <c r="I145" s="2"/>
     </row>
     <row r="146" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A146" s="2"/>
+      <c r="A146" s="2">
+        <v>10</v>
+      </c>
       <c r="B146" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C146" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D146" s="2"/>
+      <c r="C146" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E146" s="2"/>
       <c r="F146" s="6" t="s">
         <v>12</v>
@@ -8324,14 +7449,18 @@
       </c>
     </row>
     <row r="147" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A147" s="2"/>
+      <c r="A147" s="2">
+        <v>10</v>
+      </c>
       <c r="B147" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C147" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D147" s="2"/>
+      <c r="C147" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
@@ -8339,15 +7468,17 @@
       <c r="I147" s="2"/>
     </row>
     <row r="148" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A148" s="2"/>
+      <c r="A148" s="2">
+        <v>10</v>
+      </c>
       <c r="B148" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C148" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>12</v>
+      <c r="C148" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D148" s="29" t="s">
+        <v>220</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="6" t="s">
@@ -8358,14 +7489,18 @@
       <c r="I148" s="2"/>
     </row>
     <row r="149" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A149" s="2"/>
+      <c r="A149" s="2">
+        <v>10</v>
+      </c>
       <c r="B149" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C149" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D149" s="2"/>
+      <c r="C149" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
@@ -8377,8 +7512,8 @@
       <c r="B150" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C150" s="4" t="s">
-        <v>97</v>
+      <c r="C150" s="16" t="s">
+        <v>288</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -8392,8 +7527,8 @@
       <c r="B151" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C151" s="4" t="s">
-        <v>98</v>
+      <c r="C151" s="16" t="s">
+        <v>289</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -8407,8 +7542,8 @@
       <c r="B152" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C152" s="4" t="s">
-        <v>99</v>
+      <c r="C152" s="16" t="s">
+        <v>290</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -8426,8 +7561,8 @@
       <c r="B153" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C153" s="4" t="s">
-        <v>100</v>
+      <c r="C153" s="16" t="s">
+        <v>291</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -8441,8 +7576,8 @@
       <c r="B154" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C154" s="4" t="s">
-        <v>101</v>
+      <c r="C154" s="16" t="s">
+        <v>292</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>12</v>
@@ -8458,8 +7593,8 @@
       <c r="B155" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C155" s="4" t="s">
-        <v>102</v>
+      <c r="C155" s="16" t="s">
+        <v>293</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -8473,8 +7608,8 @@
       <c r="B156" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>103</v>
+      <c r="C156" s="16" t="s">
+        <v>294</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -8488,8 +7623,8 @@
       <c r="B157" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C157" s="4" t="s">
-        <v>104</v>
+      <c r="C157" s="16" t="s">
+        <v>295</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -8507,8 +7642,8 @@
       <c r="B158" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C158" s="4" t="s">
-        <v>105</v>
+      <c r="C158" s="16" t="s">
+        <v>296</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -8524,8 +7659,8 @@
       <c r="B159" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C159" s="8" t="s">
-        <v>106</v>
+      <c r="C159" s="16" t="s">
+        <v>297</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -8539,8 +7674,8 @@
       <c r="B160" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C160" s="4" t="s">
-        <v>107</v>
+      <c r="C160" s="16" t="s">
+        <v>298</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -8554,8 +7689,8 @@
       <c r="B161" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C161" s="8" t="s">
-        <v>108</v>
+      <c r="C161" s="16" t="s">
+        <v>299</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -8569,8 +7704,8 @@
       <c r="B162" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C162" s="4" t="s">
-        <v>109</v>
+      <c r="C162" s="16" t="s">
+        <v>300</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -8584,8 +7719,8 @@
       <c r="B163" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C163" s="4" t="s">
-        <v>110</v>
+      <c r="C163" s="16" t="s">
+        <v>301</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -8599,8 +7734,8 @@
       <c r="B164" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C164" s="4" t="s">
-        <v>111</v>
+      <c r="C164" s="16" t="s">
+        <v>304</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -8614,8 +7749,8 @@
       <c r="B165" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C165" s="4" t="s">
-        <v>112</v>
+      <c r="C165" s="16" t="s">
+        <v>302</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -8631,8 +7766,8 @@
       <c r="B166" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C166" s="4" t="s">
-        <v>113</v>
+      <c r="C166" s="16" t="s">
+        <v>303</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="7" t="s">
@@ -8648,8 +7783,8 @@
       <c r="B167" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C167" s="4" t="s">
-        <v>114</v>
+      <c r="C167" s="16" t="s">
+        <v>305</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -8663,8 +7798,8 @@
       <c r="B168" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C168" s="4" t="s">
-        <v>115</v>
+      <c r="C168" s="16" t="s">
+        <v>306</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -8678,8 +7813,8 @@
       <c r="B169" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C169" s="4" t="s">
-        <v>116</v>
+      <c r="C169" s="16" t="s">
+        <v>307</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -8693,8 +7828,8 @@
       <c r="B170" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C170" s="4" t="s">
-        <v>117</v>
+      <c r="C170" s="16" t="s">
+        <v>308</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -8710,8 +7845,8 @@
       <c r="B171" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C171" s="18" t="s">
-        <v>118</v>
+      <c r="C171" s="28" t="s">
+        <v>310</v>
       </c>
       <c r="D171" s="19"/>
       <c r="E171" s="2"/>
@@ -8729,8 +7864,8 @@
       <c r="B172" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C172" s="4" t="s">
-        <v>119</v>
+      <c r="C172" s="16" t="s">
+        <v>309</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="7" t="s">
@@ -8750,8 +7885,8 @@
       <c r="B173" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C173" s="4" t="s">
-        <v>120</v>
+      <c r="C173" s="16" t="s">
+        <v>311</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -8767,8 +7902,8 @@
       <c r="B174" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C174" s="4" t="s">
-        <v>121</v>
+      <c r="C174" s="16" t="s">
+        <v>312</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -8788,8 +7923,8 @@
       <c r="B175" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C175" s="4" t="s">
-        <v>122</v>
+      <c r="C175" s="16" t="s">
+        <v>313</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -8803,8 +7938,8 @@
       <c r="B176" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C176" s="4" t="s">
-        <v>123</v>
+      <c r="C176" s="16" t="s">
+        <v>314</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -8818,8 +7953,8 @@
       <c r="B177" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C177" s="21" t="s">
-        <v>124</v>
+      <c r="C177" s="28" t="s">
+        <v>315</v>
       </c>
       <c r="D177" s="22"/>
       <c r="E177" s="2"/>
@@ -8835,8 +7970,8 @@
       <c r="B178" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C178" s="4" t="s">
-        <v>125</v>
+      <c r="C178" s="16" t="s">
+        <v>316</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="7" t="s">
@@ -8852,8 +7987,8 @@
       <c r="B179" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C179" s="4" t="s">
-        <v>126</v>
+      <c r="C179" s="16" t="s">
+        <v>317</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -8869,8 +8004,8 @@
       <c r="B180" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C180" s="21" t="s">
-        <v>127</v>
+      <c r="C180" s="28" t="s">
+        <v>318</v>
       </c>
       <c r="D180" s="22"/>
       <c r="E180" s="2"/>
@@ -8885,7 +8020,7 @@
         <v>16</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -8903,8 +8038,8 @@
       <c r="B182" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C182" s="8" t="s">
-        <v>129</v>
+      <c r="C182" s="16" t="s">
+        <v>319</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -8918,8 +8053,8 @@
       <c r="B183" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C183" s="4" t="s">
-        <v>130</v>
+      <c r="C183" s="16" t="s">
+        <v>320</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -8935,8 +8070,8 @@
       <c r="B184" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C184" s="4" t="s">
-        <v>131</v>
+      <c r="C184" s="16" t="s">
+        <v>321</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -8952,8 +8087,8 @@
       <c r="B185" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C185" s="4" t="s">
-        <v>132</v>
+      <c r="C185" s="16" t="s">
+        <v>322</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -8971,8 +8106,8 @@
       <c r="B186" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C186" s="4" t="s">
-        <v>133</v>
+      <c r="C186" s="16" t="s">
+        <v>323</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -8988,8 +8123,8 @@
       <c r="B187" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C187" s="4" t="s">
-        <v>134</v>
+      <c r="C187" s="16" t="s">
+        <v>324</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -9005,8 +8140,8 @@
       <c r="B188" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C188" s="4" t="s">
-        <v>135</v>
+      <c r="C188" s="16" t="s">
+        <v>325</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -9023,7 +8158,7 @@
         <v>28</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -9038,7 +8173,7 @@
         <v>28</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -9055,7 +8190,7 @@
         <v>28</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -9079,7 +8214,7 @@
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="6" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -9094,7 +8229,7 @@
         <v>11</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -9111,7 +8246,7 @@
         <v>11</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="7" t="s">
@@ -9128,7 +8263,7 @@
         <v>11</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -9143,7 +8278,7 @@
         <v>11</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -9160,7 +8295,7 @@
         <v>11</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -9175,7 +8310,7 @@
         <v>11</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -9190,7 +8325,7 @@
         <v>11</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -9205,7 +8340,7 @@
         <v>16</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="7" t="s">
@@ -9222,7 +8357,7 @@
         <v>16</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="7" t="s">
@@ -9239,7 +8374,7 @@
         <v>16</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="7" t="s">
@@ -9256,7 +8391,7 @@
         <v>16</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="7" t="s">
@@ -9275,7 +8410,7 @@
         <v>16</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -9290,7 +8425,7 @@
         <v>16</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="D206" s="22"/>
       <c r="E206" s="2"/>
@@ -9305,7 +8440,7 @@
         <v>16</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="7" t="s">
@@ -9322,7 +8457,7 @@
         <v>16</v>
       </c>
       <c r="C208" s="18" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="D208" s="20"/>
       <c r="E208" s="20"/>
@@ -9337,7 +8472,7 @@
         <v>16</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -9352,7 +8487,7 @@
         <v>16</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -9367,7 +8502,7 @@
         <v>16</v>
       </c>
       <c r="C211" s="18" t="s">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="D211" s="20"/>
       <c r="E211" s="19"/>
@@ -9382,7 +8517,7 @@
         <v>16</v>
       </c>
       <c r="C212" s="18" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="D212" s="20"/>
       <c r="E212" s="19"/>
@@ -9397,7 +8532,7 @@
         <v>16</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -9414,7 +8549,7 @@
         <v>16</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -9429,7 +8564,7 @@
         <v>16</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -9444,7 +8579,7 @@
         <v>16</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -9459,7 +8594,7 @@
         <v>16</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -9476,7 +8611,7 @@
         <v>16</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -9495,7 +8630,7 @@
         <v>16</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -9510,7 +8645,7 @@
         <v>16</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -9525,7 +8660,7 @@
         <v>28</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="7" t="s">
@@ -9542,7 +8677,7 @@
         <v>28</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -9557,7 +8692,7 @@
         <v>28</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -9576,7 +8711,7 @@
         <v>28</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -9593,7 +8728,7 @@
         <v>28</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -9603,7 +8738,7 @@
       </c>
       <c r="H225" s="2"/>
       <c r="I225" s="8" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="11.25" customHeight="1">
@@ -9612,7 +8747,7 @@
         <v>28</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -9627,7 +8762,7 @@
         <v>28</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -9648,7 +8783,7 @@
         <v>28</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -9663,7 +8798,7 @@
         <v>28</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -9678,7 +8813,7 @@
         <v>28</v>
       </c>
       <c r="C230" s="18" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="D230" s="19"/>
       <c r="E230" s="2"/>
@@ -9702,7 +8837,7 @@
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="6" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -9717,7 +8852,7 @@
         <v>16</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -9732,7 +8867,7 @@
         <v>16</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="7" t="s">
@@ -9749,7 +8884,7 @@
         <v>16</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="7" t="s">
@@ -9766,7 +8901,7 @@
         <v>16</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="7" t="s">
@@ -9783,7 +8918,7 @@
         <v>28</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="7" t="s">
@@ -9800,7 +8935,7 @@
         <v>28</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -9824,7 +8959,7 @@
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="15" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -9847,10 +8982,10 @@
     <row r="242" spans="1:9" ht="11.25" customHeight="1">
       <c r="A242" s="2"/>
       <c r="B242" s="6" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -9862,10 +8997,10 @@
     <row r="243" spans="1:9" ht="11.25" customHeight="1">
       <c r="A243" s="2"/>
       <c r="B243" s="6" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -9877,10 +9012,10 @@
     <row r="244" spans="1:9" ht="11.25" customHeight="1">
       <c r="A244" s="2"/>
       <c r="B244" s="6" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -9892,10 +9027,10 @@
     <row r="245" spans="1:9" ht="11.25" customHeight="1">
       <c r="A245" s="2"/>
       <c r="B245" s="6" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -9907,10 +9042,10 @@
     <row r="246" spans="1:9" ht="11.25" customHeight="1">
       <c r="A246" s="2"/>
       <c r="B246" s="6" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -9922,10 +9057,10 @@
     <row r="247" spans="1:9" ht="11.25" customHeight="1">
       <c r="A247" s="2"/>
       <c r="B247" s="6" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -9937,10 +9072,10 @@
     <row r="248" spans="1:9" ht="11.25" customHeight="1">
       <c r="A248" s="2"/>
       <c r="B248" s="6" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -9952,10 +9087,10 @@
     <row r="249" spans="1:9" ht="11.25" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="6" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C249" s="18" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="D249" s="19"/>
       <c r="E249" s="2"/>
@@ -9967,10 +9102,10 @@
     <row r="250" spans="1:9" ht="11.25" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="6" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -9984,10 +9119,10 @@
     <row r="251" spans="1:9" ht="11.25" customHeight="1">
       <c r="A251" s="2"/>
       <c r="B251" s="6" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -10002,7 +9137,7 @@
         <v>28</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -10017,7 +9152,7 @@
         <v>28</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" s="7" t="s">
@@ -10034,7 +9169,7 @@
         <v>28</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -10049,7 +9184,7 @@
         <v>28</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -10073,7 +9208,7 @@
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="6" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -10088,7 +9223,7 @@
         <v>11</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -10103,7 +9238,7 @@
         <v>11</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -10120,7 +9255,7 @@
         <v>11</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -10137,7 +9272,7 @@
         <v>11</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -10154,7 +9289,7 @@
         <v>16</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -10169,7 +9304,7 @@
         <v>16</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -10184,7 +9319,7 @@
         <v>16</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="7" t="s">
@@ -10201,7 +9336,7 @@
         <v>16</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" s="7" t="s">
@@ -10218,7 +9353,7 @@
         <v>16</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -10235,7 +9370,7 @@
         <v>16</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="7" t="s">
@@ -10254,7 +9389,7 @@
         <v>16</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -10271,7 +9406,7 @@
         <v>16</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -10286,7 +9421,7 @@
         <v>16</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -10303,7 +9438,7 @@
         <v>16</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -10320,7 +9455,7 @@
         <v>16</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -10335,7 +9470,7 @@
         <v>16</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -10350,7 +9485,7 @@
         <v>16</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -10365,7 +9500,7 @@
         <v>16</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -10380,7 +9515,7 @@
         <v>16</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -10397,7 +9532,7 @@
         <v>28</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -10412,7 +9547,7 @@
         <v>28</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -10427,7 +9562,7 @@
         <v>28</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -10444,7 +9579,7 @@
         <v>28</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -10459,7 +9594,7 @@
         <v>28</v>
       </c>
       <c r="C281" s="18" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="D281" s="19"/>
       <c r="E281" s="2"/>
@@ -10476,7 +9611,7 @@
         <v>28</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="7" t="s">
@@ -10493,7 +9628,7 @@
         <v>28</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" s="7" t="s">
@@ -10510,7 +9645,7 @@
         <v>28</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" s="7" t="s">
@@ -10527,7 +9662,7 @@
         <v>28</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="7" t="s">
@@ -10544,7 +9679,7 @@
         <v>28</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -10559,7 +9694,7 @@
         <v>28</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -10585,7 +9720,7 @@
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="8" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -10617,7 +9752,7 @@
         <v>16</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -10632,7 +9767,7 @@
         <v>16</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -10667,7 +9802,7 @@
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="8" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -10679,10 +9814,10 @@
     <row r="296" spans="1:9" ht="11.25" customHeight="1">
       <c r="A296" s="2"/>
       <c r="B296" s="6" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -10694,10 +9829,10 @@
     <row r="297" spans="1:9" ht="11.25" customHeight="1">
       <c r="A297" s="2"/>
       <c r="B297" s="6" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C297" s="18" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="D297" s="20"/>
       <c r="E297" s="19"/>
@@ -10709,10 +9844,10 @@
     <row r="298" spans="1:9" ht="11.25" customHeight="1">
       <c r="A298" s="2"/>
       <c r="B298" s="6" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -10726,10 +9861,10 @@
     <row r="299" spans="1:9" ht="11.25" customHeight="1">
       <c r="A299" s="2"/>
       <c r="B299" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C299" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="C299" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -10741,10 +9876,10 @@
     <row r="300" spans="1:9" ht="11.25" customHeight="1">
       <c r="A300" s="2"/>
       <c r="B300" s="6" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C300" s="18" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
       <c r="D300" s="19"/>
       <c r="E300" s="2"/>
@@ -10758,10 +9893,10 @@
     <row r="301" spans="1:9" ht="11.25" customHeight="1">
       <c r="A301" s="2"/>
       <c r="B301" s="6" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>241</v>
+        <v>188</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -10775,10 +9910,10 @@
     <row r="302" spans="1:9" ht="11.25" customHeight="1">
       <c r="A302" s="2"/>
       <c r="B302" s="6" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -10792,10 +9927,10 @@
     <row r="303" spans="1:9" ht="11.25" customHeight="1">
       <c r="A303" s="2"/>
       <c r="B303" s="6" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -10809,10 +9944,10 @@
     <row r="304" spans="1:9" ht="11.25" customHeight="1">
       <c r="A304" s="2"/>
       <c r="B304" s="6" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>244</v>
+        <v>191</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -10824,10 +9959,10 @@
     <row r="305" spans="1:9" ht="11.25" customHeight="1">
       <c r="A305" s="2"/>
       <c r="B305" s="6" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -10864,7 +9999,7 @@
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="15" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -10879,7 +10014,7 @@
         <v>16</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -10894,7 +10029,7 @@
         <v>16</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -10909,7 +10044,7 @@
         <v>16</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>12</v>
@@ -10928,7 +10063,7 @@
         <v>16</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -10943,7 +10078,7 @@
         <v>16</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -10958,7 +10093,7 @@
         <v>16</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -10973,7 +10108,7 @@
         <v>16</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -10990,7 +10125,7 @@
         <v>16</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -11005,7 +10140,7 @@
         <v>28</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>12</v>
@@ -11022,7 +10157,7 @@
         <v>28</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -11039,7 +10174,7 @@
         <v>28</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>257</v>
+        <v>204</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -11054,7 +10189,7 @@
         <v>28</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>258</v>
+        <v>205</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -11071,7 +10206,7 @@
         <v>28</v>
       </c>
       <c r="C321" s="18" t="s">
-        <v>259</v>
+        <v>206</v>
       </c>
       <c r="D321" s="19"/>
       <c r="E321" s="2"/>
@@ -11086,7 +10221,7 @@
         <v>28</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>260</v>
+        <v>207</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -11103,7 +10238,7 @@
         <v>28</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -11120,7 +10255,7 @@
         <v>28</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>262</v>
+        <v>209</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="7" t="s">
@@ -11137,7 +10272,7 @@
         <v>28</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>263</v>
+        <v>210</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -11152,7 +10287,7 @@
         <v>28</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -11176,7 +10311,7 @@
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="9" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -11188,10 +10323,10 @@
     <row r="329" spans="1:9" ht="11.25" customHeight="1">
       <c r="A329" s="2"/>
       <c r="B329" s="6" t="s">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>267</v>
+        <v>214</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>12</v>
@@ -11205,10 +10340,10 @@
     <row r="330" spans="1:9" ht="11.25" customHeight="1">
       <c r="A330" s="2"/>
       <c r="B330" s="6" t="s">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -11222,10 +10357,10 @@
     <row r="331" spans="1:9" ht="11.25" customHeight="1">
       <c r="A331" s="2"/>
       <c r="B331" s="6" t="s">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -11237,10 +10372,10 @@
     <row r="332" spans="1:9" ht="11.25" customHeight="1">
       <c r="A332" s="2"/>
       <c r="B332" s="6" t="s">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -11320,13 +10455,13 @@
     <hyperlink ref="C120" r:id="rId26" display="http://www.geeksforgeeks.org/merge-sort-for-linked-list/" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="C121" r:id="rId27" display="http://www.geeksforgeeks.org/flattening-a-linked-list/" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="C122" r:id="rId28" display="http://www.geeksforgeeks.org/subtract-two-numbers-represented-as-linked-lists/" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C127" r:id="rId29" display="http://www.geeksforgeeks.org/implement-stack-queue-using-deque/" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C127" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
     <hyperlink ref="C129" r:id="rId30" display="http://www.geeksforgeeks.org/stack-set-4-evaluation-postfix-expression/" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="C130" r:id="rId31" display="http://www.geeksforgeeks.org/implement-two-stacks-in-an-array/" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="C139" r:id="rId32" display="http://www.geeksforgeeks.org/find-the-maximum-of-minimums-for-every-window-size-in-a-given-array/" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="C140" r:id="rId33" display="http://www.geeksforgeeks.org/lru-cache-implementation/" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="C141" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C187" r:id="rId35" display="http://www.geeksforgeeks.org/print-k-sum-paths-binary-tree/" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C187" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="C189" r:id="rId36" display="http://www.geeksforgeeks.org/find-median-bst-time-o1-space/" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="C190" r:id="rId37" display="http://www.geeksforgeeks.org/largest-bst-binary-tree-set-2/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="C191" r:id="rId38" display="http://www.geeksforgeeks.org/construct-bst-from-given-preorder-traversa/" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
@@ -11404,6 +10539,57 @@
     <hyperlink ref="C114" r:id="rId110" xr:uid="{885C75AC-4E7E-4869-AC66-69DF83C7CD8E}"/>
     <hyperlink ref="C118" r:id="rId111" xr:uid="{DF088966-6D66-4E73-9DC4-0DCE8B19E15D}"/>
     <hyperlink ref="C119" r:id="rId112" xr:uid="{2D7B3157-D8B3-4A58-9C72-0A4F478CC0DC}"/>
+    <hyperlink ref="C125" r:id="rId113" xr:uid="{84045952-4CCA-4FE3-8A02-A826B439B23D}"/>
+    <hyperlink ref="C126" r:id="rId114" xr:uid="{A1DDE76A-25D7-4FA8-99FC-3A6CB0E1C53D}"/>
+    <hyperlink ref="C128" r:id="rId115" xr:uid="{39EFA387-F4F2-425B-8923-A6BA5B81E9AF}"/>
+    <hyperlink ref="C131" r:id="rId116" xr:uid="{C9D6E9D3-27E6-42ED-AB85-388B3C82C4F3}"/>
+    <hyperlink ref="C133" r:id="rId117" xr:uid="{23D83335-7815-4883-B61F-C67B5E0038BE}"/>
+    <hyperlink ref="C135" r:id="rId118" xr:uid="{07C6ACEF-F63E-4217-86FD-9086BEB4FF5F}"/>
+    <hyperlink ref="C137" r:id="rId119" xr:uid="{BCD0A461-4C40-42B3-B375-855C5D0B2CBE}"/>
+    <hyperlink ref="C138" r:id="rId120" xr:uid="{10C83C74-053A-44FF-9AFC-0F418A85C821}"/>
+    <hyperlink ref="C144" r:id="rId121" xr:uid="{298F3BEF-4933-4C9A-98E5-E93371AEA324}"/>
+    <hyperlink ref="C145" r:id="rId122" xr:uid="{2D9B20A6-D74E-47DE-A574-5BB03DE80A6C}"/>
+    <hyperlink ref="C146" r:id="rId123" xr:uid="{D2703A84-32BD-44BE-933A-6EF602C5D041}"/>
+    <hyperlink ref="C147" r:id="rId124" xr:uid="{B8C9EA32-8BC0-41E7-8B8F-F4320DADA861}"/>
+    <hyperlink ref="C148" r:id="rId125" xr:uid="{02D77684-6C08-43A0-93B6-69E780AE3AFF}"/>
+    <hyperlink ref="C149" r:id="rId126" xr:uid="{328217D8-D067-4FD5-9B8B-99DB236C1261}"/>
+    <hyperlink ref="C150" r:id="rId127" xr:uid="{39DE7901-04A7-47ED-812D-6D85496E0278}"/>
+    <hyperlink ref="C151" r:id="rId128" xr:uid="{E12C8D4B-A653-4EA5-8253-734DDF0E0C1D}"/>
+    <hyperlink ref="C152" r:id="rId129" xr:uid="{6B896FE8-9BA5-4363-8301-C11892FED87D}"/>
+    <hyperlink ref="C153" r:id="rId130" xr:uid="{D2EEC73F-542D-45D4-8612-B47DAC15A5F0}"/>
+    <hyperlink ref="C154" r:id="rId131" xr:uid="{9B9ACB3F-073C-451C-950E-C77657F841E0}"/>
+    <hyperlink ref="C155" r:id="rId132" xr:uid="{BD388CEE-43F0-45CA-B96F-D5AF5AB77D01}"/>
+    <hyperlink ref="C156" r:id="rId133" xr:uid="{5A04A88A-6BDA-4E47-852A-92E1A8C68564}"/>
+    <hyperlink ref="C157" r:id="rId134" xr:uid="{D670B9E0-2FA4-424B-AD02-70CF3ED58F06}"/>
+    <hyperlink ref="C158" r:id="rId135" xr:uid="{5A750DA3-4EFE-4753-AAE5-CD00D2F73A86}"/>
+    <hyperlink ref="C159" r:id="rId136" xr:uid="{A8EE7DAC-DA1C-47E6-BE73-D8E41E9740BF}"/>
+    <hyperlink ref="C160" r:id="rId137" xr:uid="{2AB086E7-C0F1-4352-A6CA-335523E74B66}"/>
+    <hyperlink ref="C161" r:id="rId138" xr:uid="{70A7E891-3D7D-44D1-910A-D44DDDC942E6}"/>
+    <hyperlink ref="C162" r:id="rId139" xr:uid="{F4A37C62-D631-4ADD-B9FC-A7148BB99E85}"/>
+    <hyperlink ref="C163" r:id="rId140" xr:uid="{A6A0E066-5854-463E-9798-C87EF0CC5524}"/>
+    <hyperlink ref="C165" r:id="rId141" xr:uid="{A49DBC72-7C27-4F40-AC01-908C943FAAAB}"/>
+    <hyperlink ref="C166" r:id="rId142" xr:uid="{08DCBA53-ED01-4615-85F5-B83B3A58948B}"/>
+    <hyperlink ref="C164" r:id="rId143" xr:uid="{009B993D-7EA1-4DBC-9CD7-3C7DC0013B7D}"/>
+    <hyperlink ref="C167" r:id="rId144" xr:uid="{DEA05219-4D28-4AEF-B071-70F32E7C68B6}"/>
+    <hyperlink ref="C168" r:id="rId145" xr:uid="{EF4EBC23-F6E2-4C45-BBB3-6D18C6FD6E2E}"/>
+    <hyperlink ref="C169" r:id="rId146" xr:uid="{3FDFE742-AFBE-4141-821D-4EF7EF246F69}"/>
+    <hyperlink ref="C170" r:id="rId147" xr:uid="{CD017BDD-4A91-4CCB-B80E-EAF35F8099A6}"/>
+    <hyperlink ref="C172" r:id="rId148" xr:uid="{0CA97EAB-D3F5-44A1-9F5C-1C90D0E85F56}"/>
+    <hyperlink ref="C171" r:id="rId149" xr:uid="{9F5B95B9-1B56-4EE7-A591-AD283B83ADEF}"/>
+    <hyperlink ref="C173" r:id="rId150" xr:uid="{68B61132-926B-412E-BB50-4B1C1AF64E29}"/>
+    <hyperlink ref="C174" r:id="rId151" xr:uid="{6E5A46AF-3F07-4F48-8146-DDFB14A6753A}"/>
+    <hyperlink ref="C175" r:id="rId152" xr:uid="{B609EF97-C8C4-4102-98E2-FD7695EA12BB}"/>
+    <hyperlink ref="C176" r:id="rId153" xr:uid="{D90EECA2-BE68-4B63-83EA-771AC0254BA2}"/>
+    <hyperlink ref="C177" r:id="rId154" xr:uid="{ED8614CD-AA7B-4306-9DEE-0E3D84BFA4B2}"/>
+    <hyperlink ref="C178" r:id="rId155" xr:uid="{70A39C75-EBB0-4672-961B-C4F0F6D22A94}"/>
+    <hyperlink ref="C179" r:id="rId156" xr:uid="{A75AC1E2-9BAC-4370-A89D-59660DC84095}"/>
+    <hyperlink ref="C180" r:id="rId157" xr:uid="{DFAD6CB9-9D1E-4E4C-8C96-5CDC458E9076}"/>
+    <hyperlink ref="C182" r:id="rId158" xr:uid="{B93B2151-1F8E-4F73-90F2-F60AED9FA3E0}"/>
+    <hyperlink ref="C183" r:id="rId159" xr:uid="{6DF037E4-F691-45CD-99E6-986CA8E40BE0}"/>
+    <hyperlink ref="C184" r:id="rId160" xr:uid="{EBCD6338-1DA5-4230-BD24-15C76187DC7E}"/>
+    <hyperlink ref="C185" r:id="rId161" xr:uid="{21A29831-10B5-4BD7-B9CF-46455C0B3E8D}"/>
+    <hyperlink ref="C186" r:id="rId162" xr:uid="{DC64784F-BE99-4B26-BE1A-658AF8616159}"/>
+    <hyperlink ref="C188" r:id="rId163" xr:uid="{C30FE2A9-8470-49FB-AD10-477F67A8E448}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
+++ b/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODING\CrackYourInternship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21205E5C-B885-4C39-AF6B-6B9314677534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66040863-BC6B-4EA2-8D2E-2CAE13CAA783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="326">
   <si>
     <r>
       <rPr>
@@ -4590,25 +4590,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4617,14 +4605,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4933,8 +4933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="153" workbookViewId="0">
-      <selection activeCell="G149" sqref="G149"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="153" workbookViewId="0">
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5426,10 +5426,10 @@
       <c r="B28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="22"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="10" t="s">
@@ -5719,10 +5719,10 @@
       <c r="B45" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="26"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="7" t="s">
         <v>12</v>
       </c>
@@ -6317,8 +6317,8 @@
       <c r="C80" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D80" s="27"/>
-      <c r="E80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="25"/>
       <c r="F80" s="2"/>
       <c r="G80" s="11" t="s">
         <v>12</v>
@@ -6349,7 +6349,7 @@
       <c r="C82" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D82" s="24"/>
+      <c r="D82" s="25"/>
       <c r="E82" s="2"/>
       <c r="F82" s="11" t="s">
         <v>12</v>
@@ -6383,7 +6383,7 @@
       <c r="C84" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D84" s="24"/>
+      <c r="D84" s="25"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -6430,7 +6430,7 @@
       <c r="C87" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D87" s="24"/>
+      <c r="D87" s="25"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -6459,10 +6459,10 @@
       <c r="B89" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D89" s="22"/>
+      <c r="D89" s="20"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="11" t="s">
@@ -6528,7 +6528,7 @@
       <c r="C93" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D93" s="24"/>
+      <c r="D93" s="25"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -6760,11 +6760,11 @@
       <c r="B106" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D106" s="20"/>
-      <c r="E106" s="19"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="28"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -7194,10 +7194,10 @@
       <c r="B132" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C132" s="21" t="s">
+      <c r="C132" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D132" s="22"/>
+      <c r="D132" s="20"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -7313,10 +7313,10 @@
       <c r="B139" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C139" s="18" t="s">
+      <c r="C139" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D139" s="19"/>
+      <c r="D139" s="28"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="7" t="s">
@@ -7477,7 +7477,7 @@
       <c r="C148" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="D148" s="29" t="s">
+      <c r="D148" s="18" t="s">
         <v>220</v>
       </c>
       <c r="E148" s="2"/>
@@ -7508,14 +7508,18 @@
       <c r="I149" s="2"/>
     </row>
     <row r="150" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A150" s="2"/>
+      <c r="A150" s="2">
+        <v>11</v>
+      </c>
       <c r="B150" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C150" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="D150" s="2"/>
+      <c r="D150" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
@@ -7523,14 +7527,18 @@
       <c r="I150" s="2"/>
     </row>
     <row r="151" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A151" s="2"/>
+      <c r="A151" s="2">
+        <v>11</v>
+      </c>
       <c r="B151" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C151" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="D151" s="2"/>
+      <c r="D151" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
@@ -7538,14 +7546,18 @@
       <c r="I151" s="2"/>
     </row>
     <row r="152" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A152" s="2"/>
+      <c r="A152" s="2">
+        <v>11</v>
+      </c>
       <c r="B152" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C152" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="D152" s="2"/>
+      <c r="D152" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="8" t="s">
@@ -7557,14 +7569,18 @@
       </c>
     </row>
     <row r="153" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A153" s="2"/>
+      <c r="A153" s="2">
+        <v>11</v>
+      </c>
       <c r="B153" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C153" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="D153" s="2"/>
+      <c r="D153" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -7572,15 +7588,17 @@
       <c r="I153" s="2"/>
     </row>
     <row r="154" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A154" s="2"/>
+      <c r="A154" s="2">
+        <v>11</v>
+      </c>
       <c r="B154" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C154" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="D154" s="6" t="s">
-        <v>12</v>
+      <c r="D154" s="18" t="s">
+        <v>220</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
@@ -7589,14 +7607,18 @@
       <c r="I154" s="2"/>
     </row>
     <row r="155" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A155" s="2"/>
+      <c r="A155" s="2">
+        <v>11</v>
+      </c>
       <c r="B155" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C155" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="D155" s="2"/>
+      <c r="D155" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
@@ -7845,10 +7867,10 @@
       <c r="B171" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C171" s="28" t="s">
+      <c r="C171" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="D171" s="19"/>
+      <c r="D171" s="28"/>
       <c r="E171" s="2"/>
       <c r="F171" s="6" t="s">
         <v>12</v>
@@ -7953,10 +7975,10 @@
       <c r="B177" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C177" s="28" t="s">
+      <c r="C177" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="D177" s="22"/>
+      <c r="D177" s="20"/>
       <c r="E177" s="2"/>
       <c r="F177" s="6" t="s">
         <v>12</v>
@@ -8004,10 +8026,10 @@
       <c r="B180" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C180" s="28" t="s">
+      <c r="C180" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="D180" s="22"/>
+      <c r="D180" s="20"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
@@ -8424,10 +8446,10 @@
       <c r="B206" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C206" s="21" t="s">
+      <c r="C206" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D206" s="22"/>
+      <c r="D206" s="20"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
@@ -8456,14 +8478,14 @@
       <c r="B208" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C208" s="18" t="s">
+      <c r="C208" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D208" s="20"/>
-      <c r="E208" s="20"/>
-      <c r="F208" s="20"/>
-      <c r="G208" s="20"/>
-      <c r="H208" s="19"/>
+      <c r="D208" s="27"/>
+      <c r="E208" s="27"/>
+      <c r="F208" s="27"/>
+      <c r="G208" s="27"/>
+      <c r="H208" s="28"/>
       <c r="I208" s="2"/>
     </row>
     <row r="209" spans="1:9" ht="11.25" customHeight="1">
@@ -8501,11 +8523,11 @@
       <c r="B211" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C211" s="18" t="s">
+      <c r="C211" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D211" s="20"/>
-      <c r="E211" s="19"/>
+      <c r="D211" s="27"/>
+      <c r="E211" s="28"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
@@ -8516,11 +8538,11 @@
       <c r="B212" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C212" s="18" t="s">
+      <c r="C212" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D212" s="20"/>
-      <c r="E212" s="19"/>
+      <c r="D212" s="27"/>
+      <c r="E212" s="28"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
@@ -8812,10 +8834,10 @@
       <c r="B230" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C230" s="18" t="s">
+      <c r="C230" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D230" s="19"/>
+      <c r="D230" s="28"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
@@ -9089,10 +9111,10 @@
       <c r="B249" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C249" s="18" t="s">
+      <c r="C249" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D249" s="19"/>
+      <c r="D249" s="28"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
@@ -9593,10 +9615,10 @@
       <c r="B281" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C281" s="18" t="s">
+      <c r="C281" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="D281" s="19"/>
+      <c r="D281" s="28"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
@@ -9831,11 +9853,11 @@
       <c r="B297" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C297" s="18" t="s">
+      <c r="C297" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="D297" s="20"/>
-      <c r="E297" s="19"/>
+      <c r="D297" s="27"/>
+      <c r="E297" s="28"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
@@ -9878,10 +9900,10 @@
       <c r="B300" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C300" s="18" t="s">
+      <c r="C300" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="D300" s="19"/>
+      <c r="D300" s="28"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
@@ -10205,10 +10227,10 @@
       <c r="B321" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C321" s="18" t="s">
+      <c r="C321" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="D321" s="19"/>
+      <c r="D321" s="28"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
@@ -10401,21 +10423,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C206:D206"/>
     <mergeCell ref="C281:D281"/>
     <mergeCell ref="C297:E297"/>
     <mergeCell ref="C300:D300"/>
@@ -10425,6 +10432,21 @@
     <mergeCell ref="C212:E212"/>
     <mergeCell ref="C230:D230"/>
     <mergeCell ref="C249:D249"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C84:D84"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://www.youtube.com/c/arshgoyal" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
+++ b/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODING\CrackYourInternship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66040863-BC6B-4EA2-8D2E-2CAE13CAA783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42905C6-C2A3-485F-A6D8-D8F376D5405C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="326">
   <si>
     <r>
       <rPr>
@@ -4593,10 +4593,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4605,25 +4623,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4933,8 +4933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="153" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="153" workbookViewId="0">
+      <selection activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5426,10 +5426,10 @@
       <c r="B28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="20"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="10" t="s">
@@ -5719,10 +5719,10 @@
       <c r="B45" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="22"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="7" t="s">
         <v>12</v>
       </c>
@@ -6314,11 +6314,11 @@
       <c r="B80" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="C80" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D80" s="24"/>
-      <c r="E80" s="25"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="26"/>
       <c r="F80" s="2"/>
       <c r="G80" s="11" t="s">
         <v>12</v>
@@ -6346,10 +6346,10 @@
       <c r="B82" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D82" s="25"/>
+      <c r="D82" s="26"/>
       <c r="E82" s="2"/>
       <c r="F82" s="11" t="s">
         <v>12</v>
@@ -6380,10 +6380,10 @@
       <c r="B84" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C84" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D84" s="25"/>
+      <c r="D84" s="26"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -6427,10 +6427,10 @@
       <c r="B87" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C87" s="23" t="s">
+      <c r="C87" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D87" s="25"/>
+      <c r="D87" s="26"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -6459,10 +6459,10 @@
       <c r="B89" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="C89" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D89" s="20"/>
+      <c r="D89" s="23"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="11" t="s">
@@ -6525,10 +6525,10 @@
       <c r="B93" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C93" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D93" s="25"/>
+      <c r="D93" s="26"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -6760,11 +6760,11 @@
       <c r="B106" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C106" s="26" t="s">
+      <c r="C106" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D106" s="27"/>
-      <c r="E106" s="28"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="20"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -7194,10 +7194,10 @@
       <c r="B132" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C132" s="19" t="s">
+      <c r="C132" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D132" s="20"/>
+      <c r="D132" s="23"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -7313,10 +7313,10 @@
       <c r="B139" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C139" s="26" t="s">
+      <c r="C139" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D139" s="28"/>
+      <c r="D139" s="20"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="7" t="s">
@@ -7626,14 +7626,18 @@
       <c r="I155" s="2"/>
     </row>
     <row r="156" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A156" s="2"/>
+      <c r="A156" s="2">
+        <v>12</v>
+      </c>
       <c r="B156" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C156" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="D156" s="2"/>
+      <c r="D156" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
@@ -7641,14 +7645,18 @@
       <c r="I156" s="2"/>
     </row>
     <row r="157" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A157" s="2"/>
+      <c r="A157" s="2">
+        <v>12</v>
+      </c>
       <c r="B157" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C157" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="D157" s="2"/>
+      <c r="D157" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="7" t="s">
@@ -7660,14 +7668,18 @@
       </c>
     </row>
     <row r="158" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A158" s="2"/>
+      <c r="A158" s="2">
+        <v>12</v>
+      </c>
       <c r="B158" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C158" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="D158" s="2"/>
+      <c r="D158" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
@@ -7692,14 +7704,18 @@
       <c r="I159" s="2"/>
     </row>
     <row r="160" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A160" s="2"/>
+      <c r="A160" s="2">
+        <v>12</v>
+      </c>
       <c r="B160" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C160" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="D160" s="2"/>
+      <c r="D160" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
@@ -7722,14 +7738,18 @@
       <c r="I161" s="2"/>
     </row>
     <row r="162" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A162" s="2"/>
+      <c r="A162" s="2">
+        <v>12</v>
+      </c>
       <c r="B162" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C162" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="D162" s="2"/>
+      <c r="D162" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
@@ -7737,14 +7757,18 @@
       <c r="I162" s="2"/>
     </row>
     <row r="163" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A163" s="2"/>
+      <c r="A163" s="2">
+        <v>12</v>
+      </c>
       <c r="B163" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C163" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="D163" s="2"/>
+      <c r="D163" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
@@ -7867,10 +7891,10 @@
       <c r="B171" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C171" s="29" t="s">
+      <c r="C171" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="D171" s="28"/>
+      <c r="D171" s="20"/>
       <c r="E171" s="2"/>
       <c r="F171" s="6" t="s">
         <v>12</v>
@@ -7975,10 +7999,10 @@
       <c r="B177" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C177" s="29" t="s">
+      <c r="C177" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="D177" s="20"/>
+      <c r="D177" s="23"/>
       <c r="E177" s="2"/>
       <c r="F177" s="6" t="s">
         <v>12</v>
@@ -8026,10 +8050,10 @@
       <c r="B180" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C180" s="29" t="s">
+      <c r="C180" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="D180" s="20"/>
+      <c r="D180" s="23"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
@@ -8446,10 +8470,10 @@
       <c r="B206" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C206" s="19" t="s">
+      <c r="C206" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D206" s="20"/>
+      <c r="D206" s="23"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
@@ -8478,14 +8502,14 @@
       <c r="B208" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C208" s="26" t="s">
+      <c r="C208" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D208" s="27"/>
-      <c r="E208" s="27"/>
-      <c r="F208" s="27"/>
-      <c r="G208" s="27"/>
-      <c r="H208" s="28"/>
+      <c r="D208" s="21"/>
+      <c r="E208" s="21"/>
+      <c r="F208" s="21"/>
+      <c r="G208" s="21"/>
+      <c r="H208" s="20"/>
       <c r="I208" s="2"/>
     </row>
     <row r="209" spans="1:9" ht="11.25" customHeight="1">
@@ -8523,11 +8547,11 @@
       <c r="B211" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C211" s="26" t="s">
+      <c r="C211" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D211" s="27"/>
-      <c r="E211" s="28"/>
+      <c r="D211" s="21"/>
+      <c r="E211" s="20"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
@@ -8538,11 +8562,11 @@
       <c r="B212" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C212" s="26" t="s">
+      <c r="C212" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D212" s="27"/>
-      <c r="E212" s="28"/>
+      <c r="D212" s="21"/>
+      <c r="E212" s="20"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
@@ -8834,10 +8858,10 @@
       <c r="B230" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C230" s="26" t="s">
+      <c r="C230" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D230" s="28"/>
+      <c r="D230" s="20"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
@@ -9111,10 +9135,10 @@
       <c r="B249" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C249" s="26" t="s">
+      <c r="C249" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D249" s="28"/>
+      <c r="D249" s="20"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
@@ -9615,10 +9639,10 @@
       <c r="B281" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C281" s="26" t="s">
+      <c r="C281" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="D281" s="28"/>
+      <c r="D281" s="20"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
@@ -9853,11 +9877,11 @@
       <c r="B297" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C297" s="26" t="s">
+      <c r="C297" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D297" s="27"/>
-      <c r="E297" s="28"/>
+      <c r="D297" s="21"/>
+      <c r="E297" s="20"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
@@ -9900,10 +9924,10 @@
       <c r="B300" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C300" s="26" t="s">
+      <c r="C300" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D300" s="28"/>
+      <c r="D300" s="20"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
@@ -10227,10 +10251,10 @@
       <c r="B321" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C321" s="26" t="s">
+      <c r="C321" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="D321" s="28"/>
+      <c r="D321" s="20"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
@@ -10423,6 +10447,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C206:D206"/>
     <mergeCell ref="C281:D281"/>
     <mergeCell ref="C297:E297"/>
     <mergeCell ref="C300:D300"/>
@@ -10432,21 +10471,6 @@
     <mergeCell ref="C212:E212"/>
     <mergeCell ref="C230:D230"/>
     <mergeCell ref="C249:D249"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C84:D84"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://www.youtube.com/c/arshgoyal" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
+++ b/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODING\CrackYourInternship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42905C6-C2A3-485F-A6D8-D8F376D5405C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFF2867-208F-414A-83D5-FAABCAE6CDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="326">
   <si>
     <r>
       <rPr>
@@ -4593,28 +4593,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4623,7 +4605,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4933,8 +4933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="153" workbookViewId="0">
-      <selection activeCell="E163" sqref="E163"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="153" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5426,10 +5426,10 @@
       <c r="B28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="23"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="10" t="s">
@@ -5719,10 +5719,10 @@
       <c r="B45" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="28"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="7" t="s">
         <v>12</v>
       </c>
@@ -6314,11 +6314,11 @@
       <c r="B80" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="25" t="s">
+      <c r="C80" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D80" s="29"/>
-      <c r="E80" s="26"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="25"/>
       <c r="F80" s="2"/>
       <c r="G80" s="11" t="s">
         <v>12</v>
@@ -6346,10 +6346,10 @@
       <c r="B82" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D82" s="26"/>
+      <c r="D82" s="25"/>
       <c r="E82" s="2"/>
       <c r="F82" s="11" t="s">
         <v>12</v>
@@ -6380,10 +6380,10 @@
       <c r="B84" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="25" t="s">
+      <c r="C84" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D84" s="26"/>
+      <c r="D84" s="25"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -6427,10 +6427,10 @@
       <c r="B87" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C87" s="25" t="s">
+      <c r="C87" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D87" s="26"/>
+      <c r="D87" s="25"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -6459,10 +6459,10 @@
       <c r="B89" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="24" t="s">
+      <c r="C89" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D89" s="23"/>
+      <c r="D89" s="20"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="11" t="s">
@@ -6525,10 +6525,10 @@
       <c r="B93" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="25" t="s">
+      <c r="C93" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D93" s="26"/>
+      <c r="D93" s="25"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -6760,11 +6760,11 @@
       <c r="B106" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C106" s="19" t="s">
+      <c r="C106" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D106" s="21"/>
-      <c r="E106" s="20"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="28"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -7194,10 +7194,10 @@
       <c r="B132" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C132" s="24" t="s">
+      <c r="C132" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D132" s="23"/>
+      <c r="D132" s="20"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -7313,10 +7313,10 @@
       <c r="B139" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C139" s="19" t="s">
+      <c r="C139" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D139" s="20"/>
+      <c r="D139" s="28"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="7" t="s">
@@ -7776,14 +7776,18 @@
       <c r="I163" s="2"/>
     </row>
     <row r="164" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A164" s="2"/>
+      <c r="A164" s="2">
+        <v>13</v>
+      </c>
       <c r="B164" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C164" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="D164" s="2"/>
+      <c r="D164" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
@@ -7791,14 +7795,18 @@
       <c r="I164" s="2"/>
     </row>
     <row r="165" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A165" s="2"/>
+      <c r="A165" s="2">
+        <v>13</v>
+      </c>
       <c r="B165" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C165" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="D165" s="2"/>
+      <c r="D165" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -7808,14 +7816,18 @@
       </c>
     </row>
     <row r="166" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A166" s="2"/>
+      <c r="A166" s="2">
+        <v>13</v>
+      </c>
       <c r="B166" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C166" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="D166" s="2"/>
+      <c r="D166" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E166" s="7" t="s">
         <v>12</v>
       </c>
@@ -7825,14 +7837,18 @@
       <c r="I166" s="2"/>
     </row>
     <row r="167" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A167" s="2"/>
+      <c r="A167" s="2">
+        <v>13</v>
+      </c>
       <c r="B167" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C167" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="D167" s="2"/>
+      <c r="D167" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
@@ -7855,14 +7871,18 @@
       <c r="I168" s="2"/>
     </row>
     <row r="169" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A169" s="2"/>
+      <c r="A169" s="2">
+        <v>13</v>
+      </c>
       <c r="B169" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C169" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="D169" s="2"/>
+      <c r="D169" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
@@ -7891,10 +7911,10 @@
       <c r="B171" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C171" s="22" t="s">
+      <c r="C171" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="D171" s="20"/>
+      <c r="D171" s="28"/>
       <c r="E171" s="2"/>
       <c r="F171" s="6" t="s">
         <v>12</v>
@@ -7999,10 +8019,10 @@
       <c r="B177" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C177" s="22" t="s">
+      <c r="C177" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="D177" s="23"/>
+      <c r="D177" s="20"/>
       <c r="E177" s="2"/>
       <c r="F177" s="6" t="s">
         <v>12</v>
@@ -8050,10 +8070,10 @@
       <c r="B180" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C180" s="22" t="s">
+      <c r="C180" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="D180" s="23"/>
+      <c r="D180" s="20"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
@@ -8470,10 +8490,10 @@
       <c r="B206" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C206" s="24" t="s">
+      <c r="C206" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D206" s="23"/>
+      <c r="D206" s="20"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
@@ -8502,14 +8522,14 @@
       <c r="B208" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C208" s="19" t="s">
+      <c r="C208" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D208" s="21"/>
-      <c r="E208" s="21"/>
-      <c r="F208" s="21"/>
-      <c r="G208" s="21"/>
-      <c r="H208" s="20"/>
+      <c r="D208" s="27"/>
+      <c r="E208" s="27"/>
+      <c r="F208" s="27"/>
+      <c r="G208" s="27"/>
+      <c r="H208" s="28"/>
       <c r="I208" s="2"/>
     </row>
     <row r="209" spans="1:9" ht="11.25" customHeight="1">
@@ -8547,11 +8567,11 @@
       <c r="B211" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C211" s="19" t="s">
+      <c r="C211" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D211" s="21"/>
-      <c r="E211" s="20"/>
+      <c r="D211" s="27"/>
+      <c r="E211" s="28"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
@@ -8562,11 +8582,11 @@
       <c r="B212" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C212" s="19" t="s">
+      <c r="C212" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D212" s="21"/>
-      <c r="E212" s="20"/>
+      <c r="D212" s="27"/>
+      <c r="E212" s="28"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
@@ -8858,10 +8878,10 @@
       <c r="B230" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C230" s="19" t="s">
+      <c r="C230" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D230" s="20"/>
+      <c r="D230" s="28"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
@@ -9135,10 +9155,10 @@
       <c r="B249" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C249" s="19" t="s">
+      <c r="C249" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D249" s="20"/>
+      <c r="D249" s="28"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
@@ -9639,10 +9659,10 @@
       <c r="B281" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C281" s="19" t="s">
+      <c r="C281" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="D281" s="20"/>
+      <c r="D281" s="28"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
@@ -9877,11 +9897,11 @@
       <c r="B297" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C297" s="19" t="s">
+      <c r="C297" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="D297" s="21"/>
-      <c r="E297" s="20"/>
+      <c r="D297" s="27"/>
+      <c r="E297" s="28"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
@@ -9924,10 +9944,10 @@
       <c r="B300" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C300" s="19" t="s">
+      <c r="C300" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="D300" s="20"/>
+      <c r="D300" s="28"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
@@ -10251,10 +10271,10 @@
       <c r="B321" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C321" s="19" t="s">
+      <c r="C321" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="D321" s="20"/>
+      <c r="D321" s="28"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
@@ -10447,21 +10467,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C206:D206"/>
     <mergeCell ref="C281:D281"/>
     <mergeCell ref="C297:E297"/>
     <mergeCell ref="C300:D300"/>
@@ -10471,6 +10476,21 @@
     <mergeCell ref="C212:E212"/>
     <mergeCell ref="C230:D230"/>
     <mergeCell ref="C249:D249"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C84:D84"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://www.youtube.com/c/arshgoyal" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
+++ b/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODING\CrackYourInternship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFF2867-208F-414A-83D5-FAABCAE6CDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E16E80-CBC8-4FEB-9D41-153043487F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="326">
   <si>
     <r>
       <rPr>
@@ -1473,18 +1473,6 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>https://practice.geeksforgeeks.org/problems/bfs-traversal-of-graph/1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>https://www.geeksforgeeks.org/depth-first-search-or-dfs-for-a-graph</t>
     </r>
     <r>
@@ -1506,72 +1494,6 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>https://leetcode.com/problems/number-of-islands</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/flood-fill</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://practice.geeksforgeeks.org/problems/rat-in-a-maze-problem/1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://practice.geeksforgeeks.org/problems/detect-cycle-in-an-undirected-graph/1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>https://www.geeksforgeeks.org/detect-cycle-in-a-graph</t>
     </r>
     <r>
@@ -1594,48 +1516,6 @@
         <family val="2"/>
       </rPr>
       <t>https://practice.geeksforgeeks.org/problems/steps-by-knight5927/1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/decode-string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/shortest-bridge</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
     </r>
   </si>
   <si>
@@ -4287,6 +4167,27 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/serialize-and-deserialize-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-islands/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flood-fill/</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/rat-in-a-maze-problem/1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/decode-string/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-bridge/</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/bfs-traversal-of-graph/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/detect-cycle-in-an-undirected-graph/1</t>
   </si>
 </sst>
 </file>
@@ -4933,8 +4834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="153" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="153" workbookViewId="0">
+      <selection activeCell="E202" sqref="E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4991,7 +4892,7 @@
     </row>
     <row r="4" spans="1:9" ht="12.95" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5033,10 +4934,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -5052,10 +4953,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>12</v>
@@ -5075,10 +4976,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>12</v>
@@ -5109,10 +5010,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>12</v>
@@ -5131,7 +5032,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -5150,7 +5051,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -5166,10 +5067,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -5185,10 +5086,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -5206,10 +5107,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -5225,10 +5126,10 @@
         <v>16</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -5246,10 +5147,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="10" t="s">
@@ -5265,10 +5166,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>12</v>
@@ -5560,10 +5461,10 @@
         <v>11</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -5596,10 +5497,10 @@
         <v>11</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -5617,10 +5518,10 @@
         <v>11</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -5636,10 +5537,10 @@
         <v>11</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>12</v>
@@ -5659,10 +5560,10 @@
         <v>16</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>12</v>
@@ -5680,10 +5581,10 @@
         <v>16</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -5701,10 +5602,10 @@
         <v>16</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>12</v>
@@ -5739,10 +5640,10 @@
         <v>16</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>12</v>
@@ -5777,10 +5678,10 @@
         <v>16</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -5813,10 +5714,10 @@
         <v>16</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -6057,10 +5958,10 @@
         <v>11</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -6076,10 +5977,10 @@
         <v>11</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -6095,10 +5996,10 @@
         <v>11</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -6114,10 +6015,10 @@
         <v>11</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -6133,10 +6034,10 @@
         <v>11</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -6154,10 +6055,10 @@
         <v>11</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -6173,10 +6074,10 @@
         <v>11</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>12</v>
@@ -6194,10 +6095,10 @@
         <v>11</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -6213,10 +6114,10 @@
         <v>11</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -6232,10 +6133,10 @@
         <v>16</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -6251,10 +6152,10 @@
         <v>16</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -6272,10 +6173,10 @@
         <v>16</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -6584,10 +6485,10 @@
         <v>11</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -6603,10 +6504,10 @@
         <v>11</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>12</v>
@@ -6624,10 +6525,10 @@
         <v>11</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -6645,10 +6546,10 @@
         <v>11</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -6664,10 +6565,10 @@
         <v>11</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -6683,10 +6584,10 @@
         <v>11</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -6704,10 +6605,10 @@
         <v>11</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -6725,7 +6626,7 @@
         <v>11</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -6742,10 +6643,10 @@
         <v>11</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -6778,10 +6679,10 @@
         <v>11</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -6801,10 +6702,10 @@
         <v>16</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -6820,10 +6721,10 @@
         <v>16</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -6839,10 +6740,10 @@
         <v>16</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="6" t="s">
@@ -6858,7 +6759,7 @@
         <v>16</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -6873,7 +6774,7 @@
         <v>16</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -6888,7 +6789,7 @@
         <v>16</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -6905,7 +6806,7 @@
         <v>16</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -6922,7 +6823,7 @@
         <v>16</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -6967,7 +6868,7 @@
         <v>28</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -6982,7 +6883,7 @@
         <v>28</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -7072,10 +6973,10 @@
         <v>11</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -7091,10 +6992,10 @@
         <v>11</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>12</v>
@@ -7110,7 +7011,7 @@
         <v>11</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -7131,10 +7032,10 @@
         <v>11</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -7180,7 +7081,7 @@
         <v>16</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -7212,7 +7113,7 @@
         <v>16</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="7" t="s">
@@ -7246,7 +7147,7 @@
         <v>16</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -7280,10 +7181,10 @@
         <v>16</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>12</v>
@@ -7299,7 +7200,7 @@
         <v>16</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -7393,10 +7294,10 @@
         <v>11</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
@@ -7412,10 +7313,10 @@
         <v>11</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="6" t="s">
@@ -7433,10 +7334,10 @@
         <v>11</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="6" t="s">
@@ -7456,10 +7357,10 @@
         <v>11</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
@@ -7475,10 +7376,10 @@
         <v>11</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D148" s="18" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="6" t="s">
@@ -7496,10 +7397,10 @@
         <v>11</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -7515,10 +7416,10 @@
         <v>11</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -7534,10 +7435,10 @@
         <v>11</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -7553,10 +7454,10 @@
         <v>11</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -7576,10 +7477,10 @@
         <v>11</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -7595,10 +7496,10 @@
         <v>11</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D154" s="18" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
@@ -7614,10 +7515,10 @@
         <v>11</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -7633,10 +7534,10 @@
         <v>11</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
@@ -7652,10 +7553,10 @@
         <v>11</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -7675,10 +7576,10 @@
         <v>11</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -7694,7 +7595,7 @@
         <v>11</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -7711,10 +7612,10 @@
         <v>11</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -7728,7 +7629,7 @@
         <v>11</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -7745,10 +7646,10 @@
         <v>16</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
@@ -7764,10 +7665,10 @@
         <v>16</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -7783,10 +7684,10 @@
         <v>16</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -7802,10 +7703,10 @@
         <v>16</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -7823,10 +7724,10 @@
         <v>16</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E166" s="7" t="s">
         <v>12</v>
@@ -7844,10 +7745,10 @@
         <v>16</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -7861,7 +7762,7 @@
         <v>16</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -7878,10 +7779,10 @@
         <v>16</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
@@ -7895,7 +7796,7 @@
         <v>16</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -7912,7 +7813,7 @@
         <v>16</v>
       </c>
       <c r="C171" s="29" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D171" s="28"/>
       <c r="E171" s="2"/>
@@ -7931,7 +7832,7 @@
         <v>16</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="7" t="s">
@@ -7952,7 +7853,7 @@
         <v>16</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -7969,7 +7870,7 @@
         <v>16</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -7990,7 +7891,7 @@
         <v>16</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -8005,7 +7906,7 @@
         <v>16</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -8020,7 +7921,7 @@
         <v>16</v>
       </c>
       <c r="C177" s="29" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D177" s="20"/>
       <c r="E177" s="2"/>
@@ -8037,7 +7938,7 @@
         <v>16</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="7" t="s">
@@ -8054,7 +7955,7 @@
         <v>16</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -8071,7 +7972,7 @@
         <v>16</v>
       </c>
       <c r="C180" s="29" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D180" s="20"/>
       <c r="E180" s="2"/>
@@ -8105,7 +8006,7 @@
         <v>28</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -8120,7 +8021,7 @@
         <v>28</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -8137,7 +8038,7 @@
         <v>28</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -8154,7 +8055,7 @@
         <v>28</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -8173,7 +8074,7 @@
         <v>28</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -8190,7 +8091,7 @@
         <v>28</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -8207,7 +8108,7 @@
         <v>28</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -8290,14 +8191,18 @@
       <c r="I193" s="2"/>
     </row>
     <row r="194" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A194" s="2"/>
+      <c r="A194" s="2">
+        <v>14</v>
+      </c>
       <c r="B194" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C194" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D194" s="2"/>
+      <c r="C194" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="6" t="s">
@@ -8307,14 +8212,18 @@
       <c r="I194" s="2"/>
     </row>
     <row r="195" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A195" s="2"/>
+      <c r="A195" s="2">
+        <v>14</v>
+      </c>
       <c r="B195" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D195" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E195" s="7" t="s">
         <v>12</v>
       </c>
@@ -8324,14 +8233,18 @@
       <c r="I195" s="2"/>
     </row>
     <row r="196" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A196" s="2"/>
+      <c r="A196" s="2">
+        <v>14</v>
+      </c>
       <c r="B196" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C196" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D196" s="2"/>
+      <c r="C196" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
@@ -8339,14 +8252,18 @@
       <c r="I196" s="2"/>
     </row>
     <row r="197" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A197" s="2"/>
+      <c r="A197" s="2">
+        <v>14</v>
+      </c>
       <c r="B197" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C197" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D197" s="2"/>
+      <c r="C197" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
       <c r="G197" s="6" t="s">
@@ -8356,14 +8273,18 @@
       <c r="I197" s="2"/>
     </row>
     <row r="198" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A198" s="2"/>
+      <c r="A198" s="2">
+        <v>14</v>
+      </c>
       <c r="B198" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C198" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D198" s="2"/>
+      <c r="C198" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
@@ -8371,12 +8292,11 @@
       <c r="I198" s="2"/>
     </row>
     <row r="199" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A199" s="2"/>
       <c r="B199" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C199" s="8" t="s">
-        <v>92</v>
+      <c r="C199" s="16" t="s">
+        <v>325</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -8386,14 +8306,18 @@
       <c r="I199" s="2"/>
     </row>
     <row r="200" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A200" s="2"/>
+      <c r="A200" s="2">
+        <v>14</v>
+      </c>
       <c r="B200" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D200" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
@@ -8406,7 +8330,7 @@
         <v>16</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="7" t="s">
@@ -8422,8 +8346,8 @@
       <c r="B202" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C202" s="4" t="s">
-        <v>95</v>
+      <c r="C202" s="16" t="s">
+        <v>322</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="7" t="s">
@@ -8439,8 +8363,8 @@
       <c r="B203" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C203" s="4" t="s">
-        <v>96</v>
+      <c r="C203" s="16" t="s">
+        <v>323</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="7" t="s">
@@ -8457,7 +8381,7 @@
         <v>16</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="7" t="s">
@@ -8476,7 +8400,7 @@
         <v>16</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -8491,7 +8415,7 @@
         <v>16</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D206" s="20"/>
       <c r="E206" s="2"/>
@@ -8506,7 +8430,7 @@
         <v>16</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="7" t="s">
@@ -8523,7 +8447,7 @@
         <v>16</v>
       </c>
       <c r="C208" s="26" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D208" s="27"/>
       <c r="E208" s="27"/>
@@ -8538,7 +8462,7 @@
         <v>16</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -8553,7 +8477,7 @@
         <v>16</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -8568,7 +8492,7 @@
         <v>16</v>
       </c>
       <c r="C211" s="26" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D211" s="27"/>
       <c r="E211" s="28"/>
@@ -8583,7 +8507,7 @@
         <v>16</v>
       </c>
       <c r="C212" s="26" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D212" s="27"/>
       <c r="E212" s="28"/>
@@ -8598,7 +8522,7 @@
         <v>16</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -8615,7 +8539,7 @@
         <v>16</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -8630,7 +8554,7 @@
         <v>16</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -8645,7 +8569,7 @@
         <v>16</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -8660,7 +8584,7 @@
         <v>16</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -8677,7 +8601,7 @@
         <v>16</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -8696,7 +8620,7 @@
         <v>16</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -8711,7 +8635,7 @@
         <v>16</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -8726,7 +8650,7 @@
         <v>28</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="7" t="s">
@@ -8743,7 +8667,7 @@
         <v>28</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -8758,7 +8682,7 @@
         <v>28</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -8777,7 +8701,7 @@
         <v>28</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -8794,7 +8718,7 @@
         <v>28</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -8804,7 +8728,7 @@
       </c>
       <c r="H225" s="2"/>
       <c r="I225" s="8" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="11.25" customHeight="1">
@@ -8813,7 +8737,7 @@
         <v>28</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -8828,7 +8752,7 @@
         <v>28</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -8849,7 +8773,7 @@
         <v>28</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -8864,7 +8788,7 @@
         <v>28</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -8879,7 +8803,7 @@
         <v>28</v>
       </c>
       <c r="C230" s="26" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D230" s="28"/>
       <c r="E230" s="2"/>
@@ -8903,7 +8827,7 @@
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -8918,7 +8842,7 @@
         <v>16</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -8933,7 +8857,7 @@
         <v>16</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="7" t="s">
@@ -8950,7 +8874,7 @@
         <v>16</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="7" t="s">
@@ -8967,7 +8891,7 @@
         <v>16</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="7" t="s">
@@ -8984,7 +8908,7 @@
         <v>28</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="7" t="s">
@@ -9001,7 +8925,7 @@
         <v>28</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -9025,7 +8949,7 @@
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -9048,10 +8972,10 @@
     <row r="242" spans="1:9" ht="11.25" customHeight="1">
       <c r="A242" s="2"/>
       <c r="B242" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -9063,10 +8987,10 @@
     <row r="243" spans="1:9" ht="11.25" customHeight="1">
       <c r="A243" s="2"/>
       <c r="B243" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -9078,10 +9002,10 @@
     <row r="244" spans="1:9" ht="11.25" customHeight="1">
       <c r="A244" s="2"/>
       <c r="B244" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -9093,10 +9017,10 @@
     <row r="245" spans="1:9" ht="11.25" customHeight="1">
       <c r="A245" s="2"/>
       <c r="B245" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -9108,10 +9032,10 @@
     <row r="246" spans="1:9" ht="11.25" customHeight="1">
       <c r="A246" s="2"/>
       <c r="B246" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -9123,10 +9047,10 @@
     <row r="247" spans="1:9" ht="11.25" customHeight="1">
       <c r="A247" s="2"/>
       <c r="B247" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -9138,10 +9062,10 @@
     <row r="248" spans="1:9" ht="11.25" customHeight="1">
       <c r="A248" s="2"/>
       <c r="B248" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C248" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -9153,10 +9077,10 @@
     <row r="249" spans="1:9" ht="11.25" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C249" s="26" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D249" s="28"/>
       <c r="E249" s="2"/>
@@ -9168,10 +9092,10 @@
     <row r="250" spans="1:9" ht="11.25" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -9185,10 +9109,10 @@
     <row r="251" spans="1:9" ht="11.25" customHeight="1">
       <c r="A251" s="2"/>
       <c r="B251" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -9203,7 +9127,7 @@
         <v>28</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -9218,7 +9142,7 @@
         <v>28</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" s="7" t="s">
@@ -9235,7 +9159,7 @@
         <v>28</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -9250,7 +9174,7 @@
         <v>28</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -9274,7 +9198,7 @@
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -9289,7 +9213,7 @@
         <v>11</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -9304,7 +9228,7 @@
         <v>11</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -9321,7 +9245,7 @@
         <v>11</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -9338,7 +9262,7 @@
         <v>11</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -9355,7 +9279,7 @@
         <v>16</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -9370,7 +9294,7 @@
         <v>16</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -9385,7 +9309,7 @@
         <v>16</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="7" t="s">
@@ -9402,7 +9326,7 @@
         <v>16</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" s="7" t="s">
@@ -9419,7 +9343,7 @@
         <v>16</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -9436,7 +9360,7 @@
         <v>16</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="7" t="s">
@@ -9455,7 +9379,7 @@
         <v>16</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -9472,7 +9396,7 @@
         <v>16</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -9487,7 +9411,7 @@
         <v>16</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -9504,7 +9428,7 @@
         <v>16</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -9521,7 +9445,7 @@
         <v>16</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -9536,7 +9460,7 @@
         <v>16</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -9551,7 +9475,7 @@
         <v>16</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -9566,7 +9490,7 @@
         <v>16</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -9581,7 +9505,7 @@
         <v>16</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -9598,7 +9522,7 @@
         <v>28</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -9613,7 +9537,7 @@
         <v>28</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -9628,7 +9552,7 @@
         <v>28</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -9645,7 +9569,7 @@
         <v>28</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -9660,7 +9584,7 @@
         <v>28</v>
       </c>
       <c r="C281" s="26" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D281" s="28"/>
       <c r="E281" s="2"/>
@@ -9677,7 +9601,7 @@
         <v>28</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="7" t="s">
@@ -9694,7 +9618,7 @@
         <v>28</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" s="7" t="s">
@@ -9711,7 +9635,7 @@
         <v>28</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" s="7" t="s">
@@ -9728,7 +9652,7 @@
         <v>28</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="7" t="s">
@@ -9745,7 +9669,7 @@
         <v>28</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -9760,7 +9684,7 @@
         <v>28</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -9786,7 +9710,7 @@
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -9818,7 +9742,7 @@
         <v>16</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -9833,7 +9757,7 @@
         <v>16</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -9868,7 +9792,7 @@
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -9880,10 +9804,10 @@
     <row r="296" spans="1:9" ht="11.25" customHeight="1">
       <c r="A296" s="2"/>
       <c r="B296" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -9895,10 +9819,10 @@
     <row r="297" spans="1:9" ht="11.25" customHeight="1">
       <c r="A297" s="2"/>
       <c r="B297" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C297" s="26" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D297" s="27"/>
       <c r="E297" s="28"/>
@@ -9910,10 +9834,10 @@
     <row r="298" spans="1:9" ht="11.25" customHeight="1">
       <c r="A298" s="2"/>
       <c r="B298" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -9927,10 +9851,10 @@
     <row r="299" spans="1:9" ht="11.25" customHeight="1">
       <c r="A299" s="2"/>
       <c r="B299" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -9942,10 +9866,10 @@
     <row r="300" spans="1:9" ht="11.25" customHeight="1">
       <c r="A300" s="2"/>
       <c r="B300" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C300" s="26" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D300" s="28"/>
       <c r="E300" s="2"/>
@@ -9959,10 +9883,10 @@
     <row r="301" spans="1:9" ht="11.25" customHeight="1">
       <c r="A301" s="2"/>
       <c r="B301" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -9976,10 +9900,10 @@
     <row r="302" spans="1:9" ht="11.25" customHeight="1">
       <c r="A302" s="2"/>
       <c r="B302" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -9993,10 +9917,10 @@
     <row r="303" spans="1:9" ht="11.25" customHeight="1">
       <c r="A303" s="2"/>
       <c r="B303" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -10010,10 +9934,10 @@
     <row r="304" spans="1:9" ht="11.25" customHeight="1">
       <c r="A304" s="2"/>
       <c r="B304" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -10025,10 +9949,10 @@
     <row r="305" spans="1:9" ht="11.25" customHeight="1">
       <c r="A305" s="2"/>
       <c r="B305" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -10065,7 +9989,7 @@
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="15" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -10080,7 +10004,7 @@
         <v>16</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -10095,7 +10019,7 @@
         <v>16</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -10110,7 +10034,7 @@
         <v>16</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>12</v>
@@ -10129,7 +10053,7 @@
         <v>16</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -10144,7 +10068,7 @@
         <v>16</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -10159,7 +10083,7 @@
         <v>16</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -10174,7 +10098,7 @@
         <v>16</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -10191,7 +10115,7 @@
         <v>16</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -10206,7 +10130,7 @@
         <v>28</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>12</v>
@@ -10223,7 +10147,7 @@
         <v>28</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -10240,7 +10164,7 @@
         <v>28</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -10255,7 +10179,7 @@
         <v>28</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -10272,7 +10196,7 @@
         <v>28</v>
       </c>
       <c r="C321" s="26" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D321" s="28"/>
       <c r="E321" s="2"/>
@@ -10287,7 +10211,7 @@
         <v>28</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -10304,7 +10228,7 @@
         <v>28</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -10321,7 +10245,7 @@
         <v>28</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="7" t="s">
@@ -10338,7 +10262,7 @@
         <v>28</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -10353,7 +10277,7 @@
         <v>28</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -10377,7 +10301,7 @@
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="9" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -10389,10 +10313,10 @@
     <row r="329" spans="1:9" ht="11.25" customHeight="1">
       <c r="A329" s="2"/>
       <c r="B329" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>12</v>
@@ -10406,10 +10330,10 @@
     <row r="330" spans="1:9" ht="11.25" customHeight="1">
       <c r="A330" s="2"/>
       <c r="B330" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -10423,10 +10347,10 @@
     <row r="331" spans="1:9" ht="11.25" customHeight="1">
       <c r="A331" s="2"/>
       <c r="B331" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -10438,10 +10362,10 @@
     <row r="332" spans="1:9" ht="11.25" customHeight="1">
       <c r="A332" s="2"/>
       <c r="B332" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -10656,6 +10580,13 @@
     <hyperlink ref="C185" r:id="rId161" xr:uid="{21A29831-10B5-4BD7-B9CF-46455C0B3E8D}"/>
     <hyperlink ref="C186" r:id="rId162" xr:uid="{DC64784F-BE99-4B26-BE1A-658AF8616159}"/>
     <hyperlink ref="C188" r:id="rId163" xr:uid="{C30FE2A9-8470-49FB-AD10-477F67A8E448}"/>
+    <hyperlink ref="C196" r:id="rId164" xr:uid="{9FCC1962-E679-40DA-BF9C-58E71B93C5E4}"/>
+    <hyperlink ref="C197" r:id="rId165" xr:uid="{3DB31735-024B-4556-A312-E5E60E372BF1}"/>
+    <hyperlink ref="C198" r:id="rId166" xr:uid="{81677E4A-A6CE-4C26-A32A-F8526CFA5754}"/>
+    <hyperlink ref="C202" r:id="rId167" xr:uid="{51B95EE4-61AD-4EC7-B2DD-6D64CECACC49}"/>
+    <hyperlink ref="C203" r:id="rId168" xr:uid="{3A0F4F7B-D7EC-4768-8737-25CDE1C66600}"/>
+    <hyperlink ref="C194" r:id="rId169" xr:uid="{C8CE09AA-D2BC-4162-8DA2-FF771D475A00}"/>
+    <hyperlink ref="C199" r:id="rId170" xr:uid="{B4BB6141-75DC-4295-BA81-82E41B949F32}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
+++ b/#DSASheetbyArsh (45-60 Days) - Google Sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODING\CrackYourInternship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E16E80-CBC8-4FEB-9D41-153043487F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66950A27-C76A-4C2D-83C0-5EFE9F2187E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="326">
   <si>
     <r>
       <rPr>
@@ -1527,70 +1527,7 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>https://leetcode.com/problems/number-of-operations-to-make-network-connected</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/find-eventual-safe-states</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>https://practice.geeksforgeeks.org/problems/strongly-connected-components-kosarajus-algo/1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/time-needed-to-inform-all-employees</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1154CC"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
     </r>
   </si>
   <si>
@@ -4188,6 +4125,15 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/detect-cycle-in-an-undirected-graph/1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-operations-to-make-network-connected/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-eventual-safe-states/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/time-needed-to-inform-all-employees/</t>
   </si>
 </sst>
 </file>
@@ -4494,10 +4440,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4506,25 +4470,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4834,8 +4780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="153" workbookViewId="0">
-      <selection activeCell="E202" sqref="E202"/>
+    <sheetView tabSelected="1" topLeftCell="B145" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C206" sqref="C206:D206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4892,7 +4838,7 @@
     </row>
     <row r="4" spans="1:9" ht="12.95" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4934,10 +4880,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -4953,10 +4899,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>12</v>
@@ -4976,10 +4922,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>12</v>
@@ -5010,10 +4956,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>12</v>
@@ -5032,7 +4978,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -5051,7 +4997,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -5067,10 +5013,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -5086,10 +5032,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -5107,10 +5053,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -5126,10 +5072,10 @@
         <v>16</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -5147,10 +5093,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="10" t="s">
@@ -5166,10 +5112,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>12</v>
@@ -5327,10 +5273,10 @@
       <c r="B28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="20"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="10" t="s">
@@ -5461,10 +5407,10 @@
         <v>11</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -5497,10 +5443,10 @@
         <v>11</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -5518,10 +5464,10 @@
         <v>11</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -5537,10 +5483,10 @@
         <v>11</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>12</v>
@@ -5560,10 +5506,10 @@
         <v>16</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>12</v>
@@ -5581,10 +5527,10 @@
         <v>16</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -5602,10 +5548,10 @@
         <v>16</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>12</v>
@@ -5620,10 +5566,10 @@
       <c r="B45" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="22"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="7" t="s">
         <v>12</v>
       </c>
@@ -5640,10 +5586,10 @@
         <v>16</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>12</v>
@@ -5678,10 +5624,10 @@
         <v>16</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -5714,10 +5660,10 @@
         <v>16</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -5958,10 +5904,10 @@
         <v>11</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -5977,10 +5923,10 @@
         <v>11</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -5996,10 +5942,10 @@
         <v>11</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -6015,10 +5961,10 @@
         <v>11</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -6034,10 +5980,10 @@
         <v>11</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -6055,10 +6001,10 @@
         <v>11</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -6074,10 +6020,10 @@
         <v>11</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>12</v>
@@ -6095,10 +6041,10 @@
         <v>11</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -6114,10 +6060,10 @@
         <v>11</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -6133,10 +6079,10 @@
         <v>16</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -6152,10 +6098,10 @@
         <v>16</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -6173,10 +6119,10 @@
         <v>16</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -6215,11 +6161,11 @@
       <c r="B80" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="C80" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D80" s="24"/>
-      <c r="E80" s="25"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="26"/>
       <c r="F80" s="2"/>
       <c r="G80" s="11" t="s">
         <v>12</v>
@@ -6247,10 +6193,10 @@
       <c r="B82" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D82" s="25"/>
+      <c r="D82" s="26"/>
       <c r="E82" s="2"/>
       <c r="F82" s="11" t="s">
         <v>12</v>
@@ -6281,10 +6227,10 @@
       <c r="B84" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C84" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D84" s="25"/>
+      <c r="D84" s="26"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -6328,10 +6274,10 @@
       <c r="B87" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C87" s="23" t="s">
+      <c r="C87" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D87" s="25"/>
+      <c r="D87" s="26"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -6360,10 +6306,10 @@
       <c r="B89" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="C89" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D89" s="20"/>
+      <c r="D89" s="23"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="11" t="s">
@@ -6426,10 +6372,10 @@
       <c r="B93" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C93" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D93" s="25"/>
+      <c r="D93" s="26"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -6485,10 +6431,10 @@
         <v>11</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -6504,10 +6450,10 @@
         <v>11</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>12</v>
@@ -6525,10 +6471,10 @@
         <v>11</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -6546,10 +6492,10 @@
         <v>11</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -6565,10 +6511,10 @@
         <v>11</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -6584,10 +6530,10 @@
         <v>11</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -6605,10 +6551,10 @@
         <v>11</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -6626,7 +6572,7 @@
         <v>11</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -6643,10 +6589,10 @@
         <v>11</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -6661,11 +6607,11 @@
       <c r="B106" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C106" s="26" t="s">
+      <c r="C106" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D106" s="27"/>
-      <c r="E106" s="28"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="20"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -6679,10 +6625,10 @@
         <v>11</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -6702,10 +6648,10 @@
         <v>16</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -6721,10 +6667,10 @@
         <v>16</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -6740,10 +6686,10 @@
         <v>16</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="6" t="s">
@@ -6759,7 +6705,7 @@
         <v>16</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -6774,7 +6720,7 @@
         <v>16</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -6789,7 +6735,7 @@
         <v>16</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -6806,7 +6752,7 @@
         <v>16</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -6823,7 +6769,7 @@
         <v>16</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -6868,7 +6814,7 @@
         <v>28</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -6883,7 +6829,7 @@
         <v>28</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -6973,10 +6919,10 @@
         <v>11</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -6992,10 +6938,10 @@
         <v>11</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>12</v>
@@ -7011,7 +6957,7 @@
         <v>11</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -7032,10 +6978,10 @@
         <v>11</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -7081,7 +7027,7 @@
         <v>16</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -7095,10 +7041,10 @@
       <c r="B132" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C132" s="19" t="s">
+      <c r="C132" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D132" s="20"/>
+      <c r="D132" s="23"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -7113,7 +7059,7 @@
         <v>16</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="7" t="s">
@@ -7147,7 +7093,7 @@
         <v>16</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -7181,10 +7127,10 @@
         <v>16</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>12</v>
@@ -7200,7 +7146,7 @@
         <v>16</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -7214,10 +7160,10 @@
       <c r="B139" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C139" s="26" t="s">
+      <c r="C139" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D139" s="28"/>
+      <c r="D139" s="20"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="7" t="s">
@@ -7294,10 +7240,10 @@
         <v>11</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
@@ -7313,10 +7259,10 @@
         <v>11</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="6" t="s">
@@ -7334,10 +7280,10 @@
         <v>11</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="6" t="s">
@@ -7357,10 +7303,10 @@
         <v>11</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
@@ -7376,10 +7322,10 @@
         <v>11</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D148" s="18" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="6" t="s">
@@ -7397,10 +7343,10 @@
         <v>11</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -7416,10 +7362,10 @@
         <v>11</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -7435,10 +7381,10 @@
         <v>11</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -7454,10 +7400,10 @@
         <v>11</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -7477,10 +7423,10 @@
         <v>11</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -7496,10 +7442,10 @@
         <v>11</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D154" s="18" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
@@ -7515,10 +7461,10 @@
         <v>11</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -7534,10 +7480,10 @@
         <v>11</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
@@ -7553,10 +7499,10 @@
         <v>11</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -7576,10 +7522,10 @@
         <v>11</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -7595,7 +7541,7 @@
         <v>11</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -7612,10 +7558,10 @@
         <v>11</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -7629,7 +7575,7 @@
         <v>11</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -7646,10 +7592,10 @@
         <v>16</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
@@ -7665,10 +7611,10 @@
         <v>16</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -7684,10 +7630,10 @@
         <v>16</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -7703,10 +7649,10 @@
         <v>16</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -7724,10 +7670,10 @@
         <v>16</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E166" s="7" t="s">
         <v>12</v>
@@ -7745,10 +7691,10 @@
         <v>16</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -7762,7 +7708,7 @@
         <v>16</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -7779,10 +7725,10 @@
         <v>16</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
@@ -7796,7 +7742,7 @@
         <v>16</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -7812,10 +7758,10 @@
       <c r="B171" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C171" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="D171" s="28"/>
+      <c r="C171" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="D171" s="20"/>
       <c r="E171" s="2"/>
       <c r="F171" s="6" t="s">
         <v>12</v>
@@ -7832,7 +7778,7 @@
         <v>16</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="7" t="s">
@@ -7853,7 +7799,7 @@
         <v>16</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -7870,7 +7816,7 @@
         <v>16</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -7891,7 +7837,7 @@
         <v>16</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -7906,7 +7852,7 @@
         <v>16</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -7920,10 +7866,10 @@
       <c r="B177" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C177" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="D177" s="20"/>
+      <c r="C177" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="D177" s="23"/>
       <c r="E177" s="2"/>
       <c r="F177" s="6" t="s">
         <v>12</v>
@@ -7938,7 +7884,7 @@
         <v>16</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="7" t="s">
@@ -7955,7 +7901,7 @@
         <v>16</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -7971,10 +7917,10 @@
       <c r="B180" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C180" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="D180" s="20"/>
+      <c r="C180" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="D180" s="23"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
@@ -8006,7 +7952,7 @@
         <v>28</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -8021,7 +7967,7 @@
         <v>28</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -8038,7 +7984,7 @@
         <v>28</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -8055,7 +8001,7 @@
         <v>28</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -8074,7 +8020,7 @@
         <v>28</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -8091,7 +8037,7 @@
         <v>28</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -8108,7 +8054,7 @@
         <v>28</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -8198,10 +8144,10 @@
         <v>11</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
@@ -8222,7 +8168,7 @@
         <v>87</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E195" s="7" t="s">
         <v>12</v>
@@ -8240,10 +8186,10 @@
         <v>11</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
@@ -8259,10 +8205,10 @@
         <v>11</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
@@ -8280,10 +8226,10 @@
         <v>11</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
@@ -8292,13 +8238,18 @@
       <c r="I198" s="2"/>
     </row>
     <row r="199" spans="1:9" ht="11.25" customHeight="1">
+      <c r="A199">
+        <v>15</v>
+      </c>
       <c r="B199" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="D199" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
@@ -8316,7 +8267,7 @@
         <v>88</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
@@ -8342,14 +8293,18 @@
       <c r="I201" s="2"/>
     </row>
     <row r="202" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A202" s="2"/>
+      <c r="A202" s="2">
+        <v>15</v>
+      </c>
       <c r="B202" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="D202" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="E202" s="7" t="s">
         <v>12</v>
       </c>
@@ -8364,7 +8319,7 @@
         <v>16</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="7" t="s">
@@ -8376,14 +8331,18 @@
       <c r="I203" s="2"/>
     </row>
     <row r="204" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A204" s="2"/>
+      <c r="A204" s="2">
+        <v>15</v>
+      </c>
       <c r="B204" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C204" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D204" s="2"/>
+      <c r="C204" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="E204" s="7" t="s">
         <v>12</v>
       </c>
@@ -8395,14 +8354,18 @@
       <c r="I204" s="2"/>
     </row>
     <row r="205" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A205" s="2"/>
+      <c r="A205" s="2">
+        <v>15</v>
+      </c>
       <c r="B205" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C205" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D205" s="2"/>
+      <c r="C205" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
@@ -8414,10 +8377,10 @@
       <c r="B206" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C206" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D206" s="20"/>
+      <c r="C206" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D206" s="23"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
@@ -8425,14 +8388,18 @@
       <c r="I206" s="2"/>
     </row>
     <row r="207" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A207" s="2"/>
+      <c r="A207" s="2">
+        <v>15</v>
+      </c>
       <c r="B207" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C207" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D207" s="2"/>
+      <c r="C207" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="E207" s="7" t="s">
         <v>12</v>
       </c>
@@ -8446,14 +8413,14 @@
       <c r="B208" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C208" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D208" s="27"/>
-      <c r="E208" s="27"/>
-      <c r="F208" s="27"/>
-      <c r="G208" s="27"/>
-      <c r="H208" s="28"/>
+      <c r="C208" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D208" s="21"/>
+      <c r="E208" s="21"/>
+      <c r="F208" s="21"/>
+      <c r="G208" s="21"/>
+      <c r="H208" s="20"/>
       <c r="I208" s="2"/>
     </row>
     <row r="209" spans="1:9" ht="11.25" customHeight="1">
@@ -8462,7 +8429,7 @@
         <v>16</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -8477,7 +8444,7 @@
         <v>16</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -8491,11 +8458,11 @@
       <c r="B211" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C211" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D211" s="27"/>
-      <c r="E211" s="28"/>
+      <c r="C211" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D211" s="21"/>
+      <c r="E211" s="20"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
@@ -8506,11 +8473,11 @@
       <c r="B212" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C212" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D212" s="27"/>
-      <c r="E212" s="28"/>
+      <c r="C212" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D212" s="21"/>
+      <c r="E212" s="20"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
@@ -8522,7 +8489,7 @@
         <v>16</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -8539,7 +8506,7 @@
         <v>16</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -8554,7 +8521,7 @@
         <v>16</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -8569,7 +8536,7 @@
         <v>16</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -8584,7 +8551,7 @@
         <v>16</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -8601,7 +8568,7 @@
         <v>16</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -8620,7 +8587,7 @@
         <v>16</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -8635,7 +8602,7 @@
         <v>16</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -8650,7 +8617,7 @@
         <v>28</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="7" t="s">
@@ -8667,7 +8634,7 @@
         <v>28</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -8682,7 +8649,7 @@
         <v>28</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -8701,7 +8668,7 @@
         <v>28</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -8718,7 +8685,7 @@
         <v>28</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -8728,7 +8695,7 @@
       </c>
       <c r="H225" s="2"/>
       <c r="I225" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="11.25" customHeight="1">
@@ -8737,7 +8704,7 @@
         <v>28</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -8752,7 +8719,7 @@
         <v>28</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -8773,7 +8740,7 @@
         <v>28</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -8788,7 +8755,7 @@
         <v>28</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -8802,10 +8769,10 @@
       <c r="B230" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C230" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="D230" s="28"/>
+      <c r="C230" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D230" s="20"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
@@ -8827,7 +8794,7 @@
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -8842,7 +8809,7 @@
         <v>16</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -8857,7 +8824,7 @@
         <v>16</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="7" t="s">
@@ -8874,7 +8841,7 @@
         <v>16</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="7" t="s">
@@ -8891,7 +8858,7 @@
         <v>16</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="7" t="s">
@@ -8908,7 +8875,7 @@
         <v>28</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="7" t="s">
@@ -8925,7 +8892,7 @@
         <v>28</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -8949,7 +8916,7 @@
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -8972,10 +8939,10 @@
     <row r="242" spans="1:9" ht="11.25" customHeight="1">
       <c r="A242" s="2"/>
       <c r="B242" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -8987,10 +8954,10 @@
     <row r="243" spans="1:9" ht="11.25" customHeight="1">
       <c r="A243" s="2"/>
       <c r="B243" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -9002,10 +8969,10 @@
     <row r="244" spans="1:9" ht="11.25" customHeight="1">
       <c r="A244" s="2"/>
       <c r="B244" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C244" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -9017,10 +8984,10 @@
     <row r="245" spans="1:9" ht="11.25" customHeight="1">
       <c r="A245" s="2"/>
       <c r="B245" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -9032,10 +8999,10 @@
     <row r="246" spans="1:9" ht="11.25" customHeight="1">
       <c r="A246" s="2"/>
       <c r="B246" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -9047,10 +9014,10 @@
     <row r="247" spans="1:9" ht="11.25" customHeight="1">
       <c r="A247" s="2"/>
       <c r="B247" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -9062,10 +9029,10 @@
     <row r="248" spans="1:9" ht="11.25" customHeight="1">
       <c r="A248" s="2"/>
       <c r="B248" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -9077,12 +9044,12 @@
     <row r="249" spans="1:9" ht="11.25" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C249" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D249" s="28"/>
+        <v>123</v>
+      </c>
+      <c r="C249" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D249" s="20"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
@@ -9092,10 +9059,10 @@
     <row r="250" spans="1:9" ht="11.25" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -9109,10 +9076,10 @@
     <row r="251" spans="1:9" ht="11.25" customHeight="1">
       <c r="A251" s="2"/>
       <c r="B251" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -9127,7 +9094,7 @@
         <v>28</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -9142,7 +9109,7 @@
         <v>28</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" s="7" t="s">
@@ -9159,7 +9126,7 @@
         <v>28</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -9174,7 +9141,7 @@
         <v>28</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -9198,7 +9165,7 @@
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -9213,7 +9180,7 @@
         <v>11</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -9228,7 +9195,7 @@
         <v>11</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -9245,7 +9212,7 @@
         <v>11</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -9262,7 +9229,7 @@
         <v>11</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -9279,7 +9246,7 @@
         <v>16</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -9294,7 +9261,7 @@
         <v>16</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -9309,7 +9276,7 @@
         <v>16</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="7" t="s">
@@ -9326,7 +9293,7 @@
         <v>16</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" s="7" t="s">
@@ -9343,7 +9310,7 @@
         <v>16</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -9360,7 +9327,7 @@
         <v>16</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="7" t="s">
@@ -9379,7 +9346,7 @@
         <v>16</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -9396,7 +9363,7 @@
         <v>16</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -9411,7 +9378,7 @@
         <v>16</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -9428,7 +9395,7 @@
         <v>16</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -9445,7 +9412,7 @@
         <v>16</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -9460,7 +9427,7 @@
         <v>16</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -9475,7 +9442,7 @@
         <v>16</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -9490,7 +9457,7 @@
         <v>16</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -9505,7 +9472,7 @@
         <v>16</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -9522,7 +9489,7 @@
         <v>28</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -9537,7 +9504,7 @@
         <v>28</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -9552,7 +9519,7 @@
         <v>28</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -9569,7 +9536,7 @@
         <v>28</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -9583,10 +9550,10 @@
       <c r="B281" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C281" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D281" s="28"/>
+      <c r="C281" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D281" s="20"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
@@ -9601,7 +9568,7 @@
         <v>28</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="7" t="s">
@@ -9618,7 +9585,7 @@
         <v>28</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" s="7" t="s">
@@ -9635,7 +9602,7 @@
         <v>28</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" s="7" t="s">
@@ -9652,7 +9619,7 @@
         <v>28</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="7" t="s">
@@ -9669,7 +9636,7 @@
         <v>28</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -9684,7 +9651,7 @@
         <v>28</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -9710,7 +9677,7 @@
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -9742,7 +9709,7 @@
         <v>16</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -9757,7 +9724,7 @@
         <v>16</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -9792,7 +9759,7 @@
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -9804,10 +9771,10 @@
     <row r="296" spans="1:9" ht="11.25" customHeight="1">
       <c r="A296" s="2"/>
       <c r="B296" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -9819,13 +9786,13 @@
     <row r="297" spans="1:9" ht="11.25" customHeight="1">
       <c r="A297" s="2"/>
       <c r="B297" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C297" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="D297" s="27"/>
-      <c r="E297" s="28"/>
+        <v>123</v>
+      </c>
+      <c r="C297" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D297" s="21"/>
+      <c r="E297" s="20"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
@@ -9834,10 +9801,10 @@
     <row r="298" spans="1:9" ht="11.25" customHeight="1">
       <c r="A298" s="2"/>
       <c r="B298" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -9851,10 +9818,10 @@
     <row r="299" spans="1:9" ht="11.25" customHeight="1">
       <c r="A299" s="2"/>
       <c r="B299" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -9866,12 +9833,12 @@
     <row r="300" spans="1:9" ht="11.25" customHeight="1">
       <c r="A300" s="2"/>
       <c r="B300" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C300" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="D300" s="28"/>
+        <v>123</v>
+      </c>
+      <c r="C300" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D300" s="20"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
@@ -9883,10 +9850,10 @@
     <row r="301" spans="1:9" ht="11.25" customHeight="1">
       <c r="A301" s="2"/>
       <c r="B301" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -9900,10 +9867,10 @@
     <row r="302" spans="1:9" ht="11.25" customHeight="1">
       <c r="A302" s="2"/>
       <c r="B302" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -9917,10 +9884,10 @@
     <row r="303" spans="1:9" ht="11.25" customHeight="1">
       <c r="A303" s="2"/>
       <c r="B303" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -9934,10 +9901,10 @@
     <row r="304" spans="1:9" ht="11.25" customHeight="1">
       <c r="A304" s="2"/>
       <c r="B304" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -9949,10 +9916,10 @@
     <row r="305" spans="1:9" ht="11.25" customHeight="1">
       <c r="A305" s="2"/>
       <c r="B305" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -9989,7 +9956,7 @@
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -10004,7 +9971,7 @@
         <v>16</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -10019,7 +9986,7 @@
         <v>16</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -10034,7 +10001,7 @@
         <v>16</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>12</v>
@@ -10053,7 +10020,7 @@
         <v>16</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -10068,7 +10035,7 @@
         <v>16</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -10083,7 +10050,7 @@
         <v>16</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -10098,7 +10065,7 @@
         <v>16</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -10115,7 +10082,7 @@
         <v>16</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -10130,7 +10097,7 @@
         <v>28</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>12</v>
@@ -10147,7 +10114,7 @@
         <v>28</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -10164,7 +10131,7 @@
         <v>28</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -10179,7 +10146,7 @@
         <v>28</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -10195,10 +10162,10 @@
       <c r="B321" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C321" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="D321" s="28"/>
+      <c r="C321" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D321" s="20"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
@@ -10211,7 +10178,7 @@
         <v>28</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -10228,7 +10195,7 @@
         <v>28</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -10245,7 +10212,7 @@
         <v>28</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="7" t="s">
@@ -10262,7 +10229,7 @@
         <v>28</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -10277,7 +10244,7 @@
         <v>28</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -10301,7 +10268,7 @@
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -10313,10 +10280,10 @@
     <row r="329" spans="1:9" ht="11.25" customHeight="1">
       <c r="A329" s="2"/>
       <c r="B329" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>12</v>
@@ -10330,10 +10297,10 @@
     <row r="330" spans="1:9" ht="11.25" customHeight="1">
       <c r="A330" s="2"/>
       <c r="B330" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -10347,10 +10314,10 @@
     <row r="331" spans="1:9" ht="11.25" customHeight="1">
       <c r="A331" s="2"/>
       <c r="B331" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C331" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="C331" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -10362,10 +10329,10 @@
     <row r="332" spans="1:9" ht="11.25" customHeight="1">
       <c r="A332" s="2"/>
       <c r="B332" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -10391,6 +10358,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C206:D206"/>
     <mergeCell ref="C281:D281"/>
     <mergeCell ref="C297:E297"/>
     <mergeCell ref="C300:D300"/>
@@ -10400,21 +10382,6 @@
     <mergeCell ref="C212:E212"/>
     <mergeCell ref="C230:D230"/>
     <mergeCell ref="C249:D249"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C84:D84"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://www.youtube.com/c/arshgoyal" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -10587,6 +10554,9 @@
     <hyperlink ref="C203" r:id="rId168" xr:uid="{3A0F4F7B-D7EC-4768-8737-25CDE1C66600}"/>
     <hyperlink ref="C194" r:id="rId169" xr:uid="{C8CE09AA-D2BC-4162-8DA2-FF771D475A00}"/>
     <hyperlink ref="C199" r:id="rId170" xr:uid="{B4BB6141-75DC-4295-BA81-82E41B949F32}"/>
+    <hyperlink ref="C204" r:id="rId171" xr:uid="{54BD8466-F7A1-4E77-A1EF-9F294EF222C1}"/>
+    <hyperlink ref="C205" r:id="rId172" xr:uid="{7655DFD5-8FEF-49AA-BF31-4723CB0B16D5}"/>
+    <hyperlink ref="C207" r:id="rId173" xr:uid="{81D4E4CC-D6B7-4DAE-8318-D1108F37B6B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
